--- a/DS/001_設計書/001_基本設計書/DS基本設計書.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="10"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,13 +13,10 @@
     <sheet name="機能一覧表" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="ネットワーク構成" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="ER図" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="人員管理画面" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="アプリ画面１" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="アプリ画面２" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="画面詳細" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="DB連携" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="メモ" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="×" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="アプリ画面１" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="アプリ画面２" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="メモ" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="×" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -31,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t xml:space="preserve">DS基本設計書</t>
   </si>
@@ -361,95 +358,6 @@
     <t xml:space="preserve">https://it-koala.com/entity-relationship-diagram-1897 </t>
   </si>
   <si>
-    <t xml:space="preserve">機能１</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【手順１】
-あいうえお
-【手順２】
-かきくけこ
-【手順３】
-さしすせそ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">機能２</t>
-  </si>
-  <si>
-    <t xml:space="preserve">関連テーブル名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">注文票テーブル
-ユーザーテーブル
-配達者テーブル</t>
-  </si>
-  <si>
-    <t xml:space="preserve">操作</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Select</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">　名前、住所、電話番号
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">From</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">　ユーザーテーブル
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Where</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">　識別番号　＝　？</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">https://products.sint.co.jp/obdz/blog/basic-design-detailed-design </t>
   </si>
   <si>
@@ -543,6 +451,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://note.com/sudatakashi/n/n8222b9d91b97 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://elegantt.com/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">スケジュール管理</t>
   </si>
 </sst>
 </file>
@@ -707,7 +621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -778,6 +692,13 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -808,7 +729,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -905,19 +826,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -927,18 +852,6 @@
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1041,9 +954,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1053,7 +966,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3294360" y="319320"/>
-          <a:ext cx="7866000" cy="5380200"/>
+          <a:ext cx="7865640" cy="5379840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1181,9 +1094,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>88920</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1193,7 +1106,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5371560" y="529560"/>
-          <a:ext cx="1086840" cy="996840"/>
+          <a:ext cx="1086480" cy="996480"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -1246,9 +1159,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>39240</xdr:colOff>
+      <xdr:colOff>38880</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1262,7 +1175,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4732200" y="4392720"/>
-          <a:ext cx="1955880" cy="1696320"/>
+          <a:ext cx="1955520" cy="1695960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1283,9 +1196,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>111600</xdr:colOff>
+      <xdr:colOff>111240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1295,7 +1208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5140800" y="4113720"/>
-          <a:ext cx="1260360" cy="285840"/>
+          <a:ext cx="1260000" cy="285480"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1350,9 +1263,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>28800</xdr:colOff>
+      <xdr:colOff>28440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>150120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1366,7 +1279,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8485920" y="2880360"/>
-          <a:ext cx="2324880" cy="1223280"/>
+          <a:ext cx="2324520" cy="1222920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,9 +1300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>172080</xdr:colOff>
+      <xdr:colOff>171720</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1399,7 +1312,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9012240" y="2526480"/>
-          <a:ext cx="1043280" cy="297360"/>
+          <a:ext cx="1042920" cy="297000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1460,9 +1373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1476,7 +1389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2066760" y="7986960"/>
-          <a:ext cx="455760" cy="636840"/>
+          <a:ext cx="455400" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,9 +1410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>55080</xdr:colOff>
+      <xdr:colOff>54720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1509,7 +1422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2426040" y="8646120"/>
-          <a:ext cx="1043280" cy="297360"/>
+          <a:ext cx="1042920" cy="297000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1564,9 +1477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1580,7 +1493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3414960" y="7976520"/>
-          <a:ext cx="455760" cy="636840"/>
+          <a:ext cx="455400" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1601,9 +1514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>136440</xdr:colOff>
+      <xdr:colOff>136080</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1617,7 +1530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2735640" y="7976520"/>
-          <a:ext cx="455760" cy="636840"/>
+          <a:ext cx="455400" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1638,9 +1551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>16200</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>17640</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1654,7 +1567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4951440" y="8006400"/>
-          <a:ext cx="455760" cy="636840"/>
+          <a:ext cx="455400" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1675,9 +1588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>64800</xdr:colOff>
+      <xdr:colOff>64440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1687,7 +1600,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5311080" y="8625960"/>
-          <a:ext cx="1043280" cy="297360"/>
+          <a:ext cx="1042920" cy="297000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -1742,9 +1655,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>106560</xdr:colOff>
+      <xdr:colOff>106200</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1758,7 +1671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6299640" y="7995960"/>
-          <a:ext cx="455760" cy="636840"/>
+          <a:ext cx="455400" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1779,9 +1692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1795,7 +1708,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5620320" y="7995960"/>
-          <a:ext cx="455760" cy="636840"/>
+          <a:ext cx="455400" cy="636480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2152,9 +2065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
+      <xdr:colOff>48600</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2164,7 +2077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1647720" y="7398000"/>
-          <a:ext cx="2714040" cy="1885320"/>
+          <a:ext cx="2713680" cy="1884960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2292,9 +2205,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2304,7 +2217,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4781880" y="7417440"/>
-          <a:ext cx="2714040" cy="1885320"/>
+          <a:ext cx="2713680" cy="1884960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2432,9 +2345,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>128520</xdr:colOff>
+      <xdr:colOff>128160</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2444,7 +2357,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7058160" y="399240"/>
-          <a:ext cx="5110560" cy="1077120"/>
+          <a:ext cx="5110200" cy="1076760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2511,9 +2424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>108720</xdr:colOff>
+      <xdr:colOff>108360</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2523,7 +2436,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6809040" y="5691960"/>
-          <a:ext cx="5339880" cy="1077120"/>
+          <a:ext cx="5339520" cy="1076760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2580,9 +2493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2592,7 +2505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8555760" y="4473360"/>
-          <a:ext cx="6308640" cy="1077120"/>
+          <a:ext cx="6308280" cy="1076760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2649,9 +2562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
+      <xdr:colOff>128520</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2661,7 +2574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1248120" y="9534240"/>
-          <a:ext cx="2833920" cy="1077120"/>
+          <a:ext cx="2833560" cy="1076760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2734,9 +2647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2746,7 +2659,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4592160" y="9554760"/>
-          <a:ext cx="3463200" cy="1077120"/>
+          <a:ext cx="3462840" cy="1076760"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2803,9 +2716,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>164880</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2815,7 +2728,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3434400" y="2296800"/>
-          <a:ext cx="1043280" cy="297360"/>
+          <a:ext cx="1042920" cy="297000"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -2875,9 +2788,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:rowOff>65160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2887,7 +2800,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="6923160"/>
+          <a:ext cx="10545840" cy="6922800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2927,9 +2840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
+      <xdr:colOff>236160</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2939,7 +2852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="366480"/>
+          <a:ext cx="10545840" cy="366120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3003,9 +2916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3015,7 +2928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889920" y="784800"/>
-          <a:ext cx="9418680" cy="2467440"/>
+          <a:ext cx="9418320" cy="2467080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3077,9 +2990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3089,7 +3002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3543120" y="5158800"/>
-          <a:ext cx="1243080" cy="470880"/>
+          <a:ext cx="1242720" cy="470520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3151,9 +3064,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3163,7 +3076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="905040" y="5151240"/>
-          <a:ext cx="2472480" cy="470880"/>
+          <a:ext cx="2472120" cy="470520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3225,9 +3138,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3237,7 +3150,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889920" y="5837040"/>
-          <a:ext cx="3904200" cy="501480"/>
+          <a:ext cx="3903840" cy="501120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3299,9 +3212,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:rowOff>143280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3311,7 +3224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889920" y="3406320"/>
-          <a:ext cx="4347360" cy="1537920"/>
+          <a:ext cx="4347000" cy="1537560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3372,15 +3285,15 @@
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>65520</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>211680</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3389,511 +3302,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="6923160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffffff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="004586"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>236520</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="572760" y="228960"/>
-          <a:ext cx="10546200" cy="366480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="004586"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="3465a4"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="ffffff"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>画面名</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="889920" y="784800"/>
-          <a:ext cx="9418680" cy="2467440"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="579d1c"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>地図</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>106560</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>204120</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3543120" y="5158800"/>
-          <a:ext cx="1243080" cy="470880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffff00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>ボタン</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>46080</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="905040" y="5151240"/>
-          <a:ext cx="2472480" cy="470880"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="00b0f0"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>入力項目</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="889920" y="5837040"/>
-          <a:ext cx="3904200" cy="501480"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="83caff"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>テキスト表示</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>30960</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="889920" y="3406320"/>
-          <a:ext cx="4347360" cy="1537920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffc000"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>画像</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>189000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="580320" y="228600"/>
-          <a:ext cx="3927240" cy="5446800"/>
+          <a:ext cx="3926880" cy="5446440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3933,19 +3343,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>59400</xdr:rowOff>
+      <xdr:rowOff>59040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="580320" y="228600"/>
-          <a:ext cx="3927240" cy="288000"/>
+          <a:ext cx="3926880" cy="287640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4007,19 +3417,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889560" y="784800"/>
-          <a:ext cx="3316680" cy="1751040"/>
+          <a:ext cx="3316320" cy="1750680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4081,19 +3491,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>82440</xdr:colOff>
+      <xdr:colOff>82080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3401640" y="3802320"/>
-          <a:ext cx="976320" cy="470880"/>
+          <a:ext cx="975960" cy="470520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4155,19 +3565,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>181440</xdr:colOff>
+      <xdr:colOff>181080</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="866520" y="3787200"/>
-          <a:ext cx="2464920" cy="470880"/>
+          <a:ext cx="2464560" cy="470520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4229,19 +3639,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>90000</xdr:colOff>
+      <xdr:colOff>89640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="847080" y="4427280"/>
-          <a:ext cx="3538440" cy="501480"/>
+          <a:ext cx="3538080" cy="501120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4303,19 +3713,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>227520</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="882000" y="2621160"/>
-          <a:ext cx="2495520" cy="1073160"/>
+          <a:ext cx="2495160" cy="1072800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7123,1345 +6533,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:AR28"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="30"/>
-      <c r="AK11" s="30"/>
-      <c r="AL11" s="30"/>
-      <c r="AM11" s="30"/>
-      <c r="AN11" s="30"/>
-      <c r="AO11" s="30"/>
-      <c r="AP11" s="30"/>
-      <c r="AQ11" s="30"/>
-      <c r="AR11" s="30"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AA12" s="32"/>
-      <c r="AB12" s="32"/>
-      <c r="AC12" s="32"/>
-      <c r="AD12" s="32"/>
-      <c r="AE12" s="32"/>
-      <c r="AF12" s="32"/>
-      <c r="AG12" s="32"/>
-      <c r="AH12" s="32"/>
-      <c r="AI12" s="32"/>
-      <c r="AJ12" s="32"/>
-      <c r="AK12" s="32"/>
-      <c r="AL12" s="32"/>
-      <c r="AM12" s="32"/>
-      <c r="AN12" s="32"/>
-      <c r="AO12" s="32"/>
-      <c r="AP12" s="32"/>
-      <c r="AQ12" s="32"/>
-      <c r="AR12" s="32"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="32"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
-      <c r="AB13" s="32"/>
-      <c r="AC13" s="32"/>
-      <c r="AD13" s="32"/>
-      <c r="AE13" s="32"/>
-      <c r="AF13" s="32"/>
-      <c r="AG13" s="32"/>
-      <c r="AH13" s="32"/>
-      <c r="AI13" s="32"/>
-      <c r="AJ13" s="32"/>
-      <c r="AK13" s="32"/>
-      <c r="AL13" s="32"/>
-      <c r="AM13" s="32"/>
-      <c r="AN13" s="32"/>
-      <c r="AO13" s="32"/>
-      <c r="AP13" s="32"/>
-      <c r="AQ13" s="32"/>
-      <c r="AR13" s="32"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="32"/>
-      <c r="U14" s="32"/>
-      <c r="V14" s="32"/>
-      <c r="W14" s="32"/>
-      <c r="X14" s="32"/>
-      <c r="Y14" s="32"/>
-      <c r="Z14" s="32"/>
-      <c r="AA14" s="32"/>
-      <c r="AB14" s="32"/>
-      <c r="AC14" s="32"/>
-      <c r="AD14" s="32"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="32"/>
-      <c r="AG14" s="32"/>
-      <c r="AH14" s="32"/>
-      <c r="AI14" s="32"/>
-      <c r="AJ14" s="32"/>
-      <c r="AK14" s="32"/>
-      <c r="AL14" s="32"/>
-      <c r="AM14" s="32"/>
-      <c r="AN14" s="32"/>
-      <c r="AO14" s="32"/>
-      <c r="AP14" s="32"/>
-      <c r="AQ14" s="32"/>
-      <c r="AR14" s="32"/>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="32"/>
-      <c r="R15" s="32"/>
-      <c r="S15" s="32"/>
-      <c r="T15" s="32"/>
-      <c r="U15" s="32"/>
-      <c r="V15" s="32"/>
-      <c r="W15" s="32"/>
-      <c r="X15" s="32"/>
-      <c r="Y15" s="32"/>
-      <c r="Z15" s="32"/>
-      <c r="AA15" s="32"/>
-      <c r="AB15" s="32"/>
-      <c r="AC15" s="32"/>
-      <c r="AD15" s="32"/>
-      <c r="AE15" s="32"/>
-      <c r="AF15" s="32"/>
-      <c r="AG15" s="32"/>
-      <c r="AH15" s="32"/>
-      <c r="AI15" s="32"/>
-      <c r="AJ15" s="32"/>
-      <c r="AK15" s="32"/>
-      <c r="AL15" s="32"/>
-      <c r="AM15" s="32"/>
-      <c r="AN15" s="32"/>
-      <c r="AO15" s="32"/>
-      <c r="AP15" s="32"/>
-      <c r="AQ15" s="32"/>
-      <c r="AR15" s="32"/>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32"/>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
-      <c r="Z16" s="32"/>
-      <c r="AA16" s="32"/>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="32"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="32"/>
-      <c r="AG16" s="32"/>
-      <c r="AH16" s="32"/>
-      <c r="AI16" s="32"/>
-      <c r="AJ16" s="32"/>
-      <c r="AK16" s="32"/>
-      <c r="AL16" s="32"/>
-      <c r="AM16" s="32"/>
-      <c r="AN16" s="32"/>
-      <c r="AO16" s="32"/>
-      <c r="AP16" s="32"/>
-      <c r="AQ16" s="32"/>
-      <c r="AR16" s="32"/>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
-      <c r="R17" s="32"/>
-      <c r="S17" s="32"/>
-      <c r="T17" s="32"/>
-      <c r="U17" s="32"/>
-      <c r="V17" s="32"/>
-      <c r="W17" s="32"/>
-      <c r="X17" s="32"/>
-      <c r="Y17" s="32"/>
-      <c r="Z17" s="32"/>
-      <c r="AA17" s="32"/>
-      <c r="AB17" s="32"/>
-      <c r="AC17" s="32"/>
-      <c r="AD17" s="32"/>
-      <c r="AE17" s="32"/>
-      <c r="AF17" s="32"/>
-      <c r="AG17" s="32"/>
-      <c r="AH17" s="32"/>
-      <c r="AI17" s="32"/>
-      <c r="AJ17" s="32"/>
-      <c r="AK17" s="32"/>
-      <c r="AL17" s="32"/>
-      <c r="AM17" s="32"/>
-      <c r="AN17" s="32"/>
-      <c r="AO17" s="32"/>
-      <c r="AP17" s="32"/>
-      <c r="AQ17" s="32"/>
-      <c r="AR17" s="32"/>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="32"/>
-      <c r="T18" s="32"/>
-      <c r="U18" s="32"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
-      <c r="AA18" s="32"/>
-      <c r="AB18" s="32"/>
-      <c r="AC18" s="32"/>
-      <c r="AD18" s="32"/>
-      <c r="AE18" s="32"/>
-      <c r="AF18" s="32"/>
-      <c r="AG18" s="32"/>
-      <c r="AH18" s="32"/>
-      <c r="AI18" s="32"/>
-      <c r="AJ18" s="32"/>
-      <c r="AK18" s="32"/>
-      <c r="AL18" s="32"/>
-      <c r="AM18" s="32"/>
-      <c r="AN18" s="32"/>
-      <c r="AO18" s="32"/>
-      <c r="AP18" s="32"/>
-      <c r="AQ18" s="32"/>
-      <c r="AR18" s="32"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="32"/>
-      <c r="S19" s="32"/>
-      <c r="T19" s="32"/>
-      <c r="U19" s="32"/>
-      <c r="V19" s="32"/>
-      <c r="W19" s="32"/>
-      <c r="X19" s="32"/>
-      <c r="Y19" s="32"/>
-      <c r="Z19" s="32"/>
-      <c r="AA19" s="32"/>
-      <c r="AB19" s="32"/>
-      <c r="AC19" s="32"/>
-      <c r="AD19" s="32"/>
-      <c r="AE19" s="32"/>
-      <c r="AF19" s="32"/>
-      <c r="AG19" s="32"/>
-      <c r="AH19" s="32"/>
-      <c r="AI19" s="32"/>
-      <c r="AJ19" s="32"/>
-      <c r="AK19" s="32"/>
-      <c r="AL19" s="32"/>
-      <c r="AM19" s="32"/>
-      <c r="AN19" s="32"/>
-      <c r="AO19" s="32"/>
-      <c r="AP19" s="32"/>
-      <c r="AQ19" s="32"/>
-      <c r="AR19" s="32"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="32"/>
-      <c r="S21" s="32"/>
-      <c r="T21" s="32"/>
-      <c r="U21" s="32"/>
-      <c r="V21" s="32"/>
-      <c r="W21" s="32"/>
-      <c r="X21" s="32"/>
-      <c r="Y21" s="32"/>
-      <c r="Z21" s="32"/>
-      <c r="AA21" s="32"/>
-      <c r="AB21" s="32"/>
-      <c r="AC21" s="32"/>
-      <c r="AD21" s="32"/>
-      <c r="AE21" s="32"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="32"/>
-      <c r="AH21" s="32"/>
-      <c r="AI21" s="32"/>
-      <c r="AJ21" s="32"/>
-      <c r="AK21" s="32"/>
-      <c r="AL21" s="32"/>
-      <c r="AM21" s="32"/>
-      <c r="AN21" s="32"/>
-      <c r="AO21" s="32"/>
-      <c r="AP21" s="32"/>
-      <c r="AQ21" s="32"/>
-      <c r="AR21" s="32"/>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="32"/>
-      <c r="S22" s="32"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="32"/>
-      <c r="V22" s="32"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="32"/>
-      <c r="Z22" s="32"/>
-      <c r="AA22" s="32"/>
-      <c r="AB22" s="32"/>
-      <c r="AC22" s="32"/>
-      <c r="AD22" s="32"/>
-      <c r="AE22" s="32"/>
-      <c r="AF22" s="32"/>
-      <c r="AG22" s="32"/>
-      <c r="AH22" s="32"/>
-      <c r="AI22" s="32"/>
-      <c r="AJ22" s="32"/>
-      <c r="AK22" s="32"/>
-      <c r="AL22" s="32"/>
-      <c r="AM22" s="32"/>
-      <c r="AN22" s="32"/>
-      <c r="AO22" s="32"/>
-      <c r="AP22" s="32"/>
-      <c r="AQ22" s="32"/>
-      <c r="AR22" s="32"/>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="32"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="32"/>
-      <c r="S23" s="32"/>
-      <c r="T23" s="32"/>
-      <c r="U23" s="32"/>
-      <c r="V23" s="32"/>
-      <c r="W23" s="32"/>
-      <c r="X23" s="32"/>
-      <c r="Y23" s="32"/>
-      <c r="Z23" s="32"/>
-      <c r="AA23" s="32"/>
-      <c r="AB23" s="32"/>
-      <c r="AC23" s="32"/>
-      <c r="AD23" s="32"/>
-      <c r="AE23" s="32"/>
-      <c r="AF23" s="32"/>
-      <c r="AG23" s="32"/>
-      <c r="AH23" s="32"/>
-      <c r="AI23" s="32"/>
-      <c r="AJ23" s="32"/>
-      <c r="AK23" s="32"/>
-      <c r="AL23" s="32"/>
-      <c r="AM23" s="32"/>
-      <c r="AN23" s="32"/>
-      <c r="AO23" s="32"/>
-      <c r="AP23" s="32"/>
-      <c r="AQ23" s="32"/>
-      <c r="AR23" s="32"/>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="32"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="32"/>
-      <c r="V24" s="32"/>
-      <c r="W24" s="32"/>
-      <c r="X24" s="32"/>
-      <c r="Y24" s="32"/>
-      <c r="Z24" s="32"/>
-      <c r="AA24" s="32"/>
-      <c r="AB24" s="32"/>
-      <c r="AC24" s="32"/>
-      <c r="AD24" s="32"/>
-      <c r="AE24" s="32"/>
-      <c r="AF24" s="32"/>
-      <c r="AG24" s="32"/>
-      <c r="AH24" s="32"/>
-      <c r="AI24" s="32"/>
-      <c r="AJ24" s="32"/>
-      <c r="AK24" s="32"/>
-      <c r="AL24" s="32"/>
-      <c r="AM24" s="32"/>
-      <c r="AN24" s="32"/>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="32"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="32"/>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="32"/>
-      <c r="R25" s="32"/>
-      <c r="S25" s="32"/>
-      <c r="T25" s="32"/>
-      <c r="U25" s="32"/>
-      <c r="V25" s="32"/>
-      <c r="W25" s="32"/>
-      <c r="X25" s="32"/>
-      <c r="Y25" s="32"/>
-      <c r="Z25" s="32"/>
-      <c r="AA25" s="32"/>
-      <c r="AB25" s="32"/>
-      <c r="AC25" s="32"/>
-      <c r="AD25" s="32"/>
-      <c r="AE25" s="32"/>
-      <c r="AF25" s="32"/>
-      <c r="AG25" s="32"/>
-      <c r="AH25" s="32"/>
-      <c r="AI25" s="32"/>
-      <c r="AJ25" s="32"/>
-      <c r="AK25" s="32"/>
-      <c r="AL25" s="32"/>
-      <c r="AM25" s="32"/>
-      <c r="AN25" s="32"/>
-      <c r="AO25" s="32"/>
-      <c r="AP25" s="32"/>
-      <c r="AQ25" s="32"/>
-      <c r="AR25" s="32"/>
-    </row>
-    <row r="26" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="32"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="32"/>
-      <c r="V26" s="32"/>
-      <c r="W26" s="32"/>
-      <c r="X26" s="32"/>
-      <c r="Y26" s="32"/>
-      <c r="Z26" s="32"/>
-      <c r="AA26" s="32"/>
-      <c r="AB26" s="32"/>
-      <c r="AC26" s="32"/>
-      <c r="AD26" s="32"/>
-      <c r="AE26" s="32"/>
-      <c r="AF26" s="32"/>
-      <c r="AG26" s="32"/>
-      <c r="AH26" s="32"/>
-      <c r="AI26" s="32"/>
-      <c r="AJ26" s="32"/>
-      <c r="AK26" s="32"/>
-      <c r="AL26" s="32"/>
-      <c r="AM26" s="32"/>
-      <c r="AN26" s="32"/>
-      <c r="AO26" s="32"/>
-      <c r="AP26" s="32"/>
-      <c r="AQ26" s="32"/>
-      <c r="AR26" s="32"/>
-    </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="Q27" s="32"/>
-      <c r="R27" s="32"/>
-      <c r="S27" s="32"/>
-      <c r="T27" s="32"/>
-      <c r="U27" s="32"/>
-      <c r="V27" s="32"/>
-      <c r="W27" s="32"/>
-      <c r="X27" s="32"/>
-      <c r="Y27" s="32"/>
-      <c r="Z27" s="32"/>
-      <c r="AA27" s="32"/>
-      <c r="AB27" s="32"/>
-      <c r="AC27" s="32"/>
-      <c r="AD27" s="32"/>
-      <c r="AE27" s="32"/>
-      <c r="AF27" s="32"/>
-      <c r="AG27" s="32"/>
-      <c r="AH27" s="32"/>
-      <c r="AI27" s="32"/>
-      <c r="AJ27" s="32"/>
-      <c r="AK27" s="32"/>
-      <c r="AL27" s="32"/>
-      <c r="AM27" s="32"/>
-      <c r="AN27" s="32"/>
-      <c r="AO27" s="32"/>
-      <c r="AP27" s="32"/>
-      <c r="AQ27" s="32"/>
-      <c r="AR27" s="32"/>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="32"/>
-      <c r="R28" s="32"/>
-      <c r="S28" s="32"/>
-      <c r="T28" s="32"/>
-      <c r="U28" s="32"/>
-      <c r="V28" s="32"/>
-      <c r="W28" s="32"/>
-      <c r="X28" s="32"/>
-      <c r="Y28" s="32"/>
-      <c r="Z28" s="32"/>
-      <c r="AA28" s="32"/>
-      <c r="AB28" s="32"/>
-      <c r="AC28" s="32"/>
-      <c r="AD28" s="32"/>
-      <c r="AE28" s="32"/>
-      <c r="AF28" s="32"/>
-      <c r="AG28" s="32"/>
-      <c r="AH28" s="32"/>
-      <c r="AI28" s="32"/>
-      <c r="AJ28" s="32"/>
-      <c r="AK28" s="32"/>
-      <c r="AL28" s="32"/>
-      <c r="AM28" s="32"/>
-      <c r="AN28" s="32"/>
-      <c r="AO28" s="32"/>
-      <c r="AP28" s="32"/>
-      <c r="AQ28" s="32"/>
-      <c r="AR28" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:AR2"/>
-    <mergeCell ref="B3:AR9"/>
-    <mergeCell ref="B11:AR11"/>
-    <mergeCell ref="B12:AR28"/>
-  </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B1:C1048576"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="26.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="34.53"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://products.sint.co.jp/obdz/blog/basic-design-detailed-design "/>
-    <hyperlink ref="B11" r:id="rId2" display="https://note.com/sudatakashi/n/n8222b9d91b97"/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="2.57421875" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -8546,7 +6617,7 @@
   <dimension ref="B2:BB1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AA9" activeCellId="0" sqref="AA9"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.57421875" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8555,1267 +6626,1267 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
     </row>
     <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24" t="s">
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="25" t="s">
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="25"/>
-      <c r="T5" s="25" t="s">
+      <c r="S5" s="26"/>
+      <c r="T5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="U5" s="25"/>
-      <c r="V5" s="25" t="s">
+      <c r="U5" s="26"/>
+      <c r="V5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="25"/>
-      <c r="X5" s="25" t="s">
+      <c r="W5" s="26"/>
+      <c r="X5" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" s="25"/>
-      <c r="Z5" s="25"/>
-      <c r="AA5" s="24" t="s">
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="AB5" s="24"/>
-      <c r="AC5" s="24"/>
-      <c r="AD5" s="24"/>
-      <c r="AE5" s="24"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="24"/>
-      <c r="AH5" s="24"/>
-      <c r="AI5" s="24"/>
-      <c r="AJ5" s="24"/>
-      <c r="AK5" s="24"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="24"/>
-      <c r="AN5" s="24"/>
-      <c r="AO5" s="24"/>
-      <c r="AP5" s="24"/>
-      <c r="AQ5" s="24"/>
-      <c r="AR5" s="24"/>
-      <c r="AS5" s="24"/>
-      <c r="AT5" s="24"/>
-      <c r="AU5" s="24"/>
-      <c r="AV5" s="24"/>
-      <c r="AW5" s="24"/>
-      <c r="AX5" s="24"/>
-      <c r="AY5" s="24"/>
-      <c r="AZ5" s="24"/>
-      <c r="BA5" s="24"/>
-      <c r="BB5" s="24"/>
+      <c r="AB5" s="25"/>
+      <c r="AC5" s="25"/>
+      <c r="AD5" s="25"/>
+      <c r="AE5" s="25"/>
+      <c r="AF5" s="25"/>
+      <c r="AG5" s="25"/>
+      <c r="AH5" s="25"/>
+      <c r="AI5" s="25"/>
+      <c r="AJ5" s="25"/>
+      <c r="AK5" s="25"/>
+      <c r="AL5" s="25"/>
+      <c r="AM5" s="25"/>
+      <c r="AN5" s="25"/>
+      <c r="AO5" s="25"/>
+      <c r="AP5" s="25"/>
+      <c r="AQ5" s="25"/>
+      <c r="AR5" s="25"/>
+      <c r="AS5" s="25"/>
+      <c r="AT5" s="25"/>
+      <c r="AU5" s="25"/>
+      <c r="AV5" s="25"/>
+      <c r="AW5" s="25"/>
+      <c r="AX5" s="25"/>
+      <c r="AY5" s="25"/>
+      <c r="AZ5" s="25"/>
+      <c r="BA5" s="25"/>
+      <c r="BB5" s="25"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25" t="s">
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S6" s="25"/>
-      <c r="T6" s="25"/>
-      <c r="U6" s="25"/>
-      <c r="V6" s="25"/>
-      <c r="W6" s="25"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="26"/>
-      <c r="AA6" s="24" t="s">
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="27"/>
+      <c r="AA6" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="24"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="24"/>
-      <c r="AE6" s="24"/>
-      <c r="AF6" s="24"/>
-      <c r="AG6" s="24"/>
-      <c r="AH6" s="24"/>
-      <c r="AI6" s="24"/>
-      <c r="AJ6" s="24"/>
-      <c r="AK6" s="24"/>
-      <c r="AL6" s="24"/>
-      <c r="AM6" s="24"/>
-      <c r="AN6" s="24"/>
-      <c r="AO6" s="24"/>
-      <c r="AP6" s="24"/>
-      <c r="AQ6" s="24"/>
-      <c r="AR6" s="24"/>
-      <c r="AS6" s="24"/>
-      <c r="AT6" s="24"/>
-      <c r="AU6" s="24"/>
-      <c r="AV6" s="24"/>
-      <c r="AW6" s="24"/>
-      <c r="AX6" s="24"/>
-      <c r="AY6" s="24"/>
-      <c r="AZ6" s="24"/>
-      <c r="BA6" s="24"/>
-      <c r="BB6" s="24"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
+      <c r="AF6" s="25"/>
+      <c r="AG6" s="25"/>
+      <c r="AH6" s="25"/>
+      <c r="AI6" s="25"/>
+      <c r="AJ6" s="25"/>
+      <c r="AK6" s="25"/>
+      <c r="AL6" s="25"/>
+      <c r="AM6" s="25"/>
+      <c r="AN6" s="25"/>
+      <c r="AO6" s="25"/>
+      <c r="AP6" s="25"/>
+      <c r="AQ6" s="25"/>
+      <c r="AR6" s="25"/>
+      <c r="AS6" s="25"/>
+      <c r="AT6" s="25"/>
+      <c r="AU6" s="25"/>
+      <c r="AV6" s="25"/>
+      <c r="AW6" s="25"/>
+      <c r="AX6" s="25"/>
+      <c r="AY6" s="25"/>
+      <c r="AZ6" s="25"/>
+      <c r="BA6" s="25"/>
+      <c r="BB6" s="25"/>
     </row>
     <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="24"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="25" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25" t="s">
+      <c r="S7" s="26"/>
+      <c r="T7" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U7" s="25"/>
-      <c r="V7" s="25"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="26"/>
-      <c r="AA7" s="24" t="s">
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="27"/>
+      <c r="AA7" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="24"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="24"/>
-      <c r="AG7" s="24"/>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="24"/>
-      <c r="AJ7" s="24"/>
-      <c r="AK7" s="24"/>
-      <c r="AL7" s="24"/>
-      <c r="AM7" s="24"/>
-      <c r="AN7" s="24"/>
-      <c r="AO7" s="24"/>
-      <c r="AP7" s="24"/>
-      <c r="AQ7" s="24"/>
-      <c r="AR7" s="24"/>
-      <c r="AS7" s="24"/>
-      <c r="AT7" s="24"/>
-      <c r="AU7" s="24"/>
-      <c r="AV7" s="24"/>
-      <c r="AW7" s="24"/>
-      <c r="AX7" s="24"/>
-      <c r="AY7" s="24"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="BB7" s="24"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
+      <c r="AF7" s="25"/>
+      <c r="AG7" s="25"/>
+      <c r="AH7" s="25"/>
+      <c r="AI7" s="25"/>
+      <c r="AJ7" s="25"/>
+      <c r="AK7" s="25"/>
+      <c r="AL7" s="25"/>
+      <c r="AM7" s="25"/>
+      <c r="AN7" s="25"/>
+      <c r="AO7" s="25"/>
+      <c r="AP7" s="25"/>
+      <c r="AQ7" s="25"/>
+      <c r="AR7" s="25"/>
+      <c r="AS7" s="25"/>
+      <c r="AT7" s="25"/>
+      <c r="AU7" s="25"/>
+      <c r="AV7" s="25"/>
+      <c r="AW7" s="25"/>
+      <c r="AX7" s="25"/>
+      <c r="AY7" s="25"/>
+      <c r="AZ7" s="25"/>
+      <c r="BA7" s="25"/>
+      <c r="BB7" s="25"/>
     </row>
     <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="27" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25" t="s">
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="28"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="24" t="s">
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="27"/>
+      <c r="AA8" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="24"/>
-      <c r="AE8" s="24"/>
-      <c r="AF8" s="24"/>
-      <c r="AG8" s="24"/>
-      <c r="AH8" s="24"/>
-      <c r="AI8" s="24"/>
-      <c r="AJ8" s="24"/>
-      <c r="AK8" s="24"/>
-      <c r="AL8" s="24"/>
-      <c r="AM8" s="24"/>
-      <c r="AN8" s="24"/>
-      <c r="AO8" s="24"/>
-      <c r="AP8" s="24"/>
-      <c r="AQ8" s="24"/>
-      <c r="AR8" s="24"/>
-      <c r="AS8" s="24"/>
-      <c r="AT8" s="24"/>
-      <c r="AU8" s="24"/>
-      <c r="AV8" s="24"/>
-      <c r="AW8" s="24"/>
-      <c r="AX8" s="24"/>
-      <c r="AY8" s="24"/>
-      <c r="AZ8" s="24"/>
-      <c r="BA8" s="24"/>
-      <c r="BB8" s="24"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
+      <c r="AF8" s="25"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="25"/>
+      <c r="AI8" s="25"/>
+      <c r="AJ8" s="25"/>
+      <c r="AK8" s="25"/>
+      <c r="AL8" s="25"/>
+      <c r="AM8" s="25"/>
+      <c r="AN8" s="25"/>
+      <c r="AO8" s="25"/>
+      <c r="AP8" s="25"/>
+      <c r="AQ8" s="25"/>
+      <c r="AR8" s="25"/>
+      <c r="AS8" s="25"/>
+      <c r="AT8" s="25"/>
+      <c r="AU8" s="25"/>
+      <c r="AV8" s="25"/>
+      <c r="AW8" s="25"/>
+      <c r="AX8" s="25"/>
+      <c r="AY8" s="25"/>
+      <c r="AZ8" s="25"/>
+      <c r="BA8" s="25"/>
+      <c r="BB8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25" t="s">
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S9" s="25"/>
-      <c r="T9" s="25"/>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="26"/>
-      <c r="AA9" s="24" t="s">
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="24"/>
-      <c r="AZ9" s="24"/>
-      <c r="BA9" s="24"/>
-      <c r="BB9" s="24"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
+      <c r="AF9" s="25"/>
+      <c r="AG9" s="25"/>
+      <c r="AH9" s="25"/>
+      <c r="AI9" s="25"/>
+      <c r="AJ9" s="25"/>
+      <c r="AK9" s="25"/>
+      <c r="AL9" s="25"/>
+      <c r="AM9" s="25"/>
+      <c r="AN9" s="25"/>
+      <c r="AO9" s="25"/>
+      <c r="AP9" s="25"/>
+      <c r="AQ9" s="25"/>
+      <c r="AR9" s="25"/>
+      <c r="AS9" s="25"/>
+      <c r="AT9" s="25"/>
+      <c r="AU9" s="25"/>
+      <c r="AV9" s="25"/>
+      <c r="AW9" s="25"/>
+      <c r="AX9" s="25"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="25"/>
+      <c r="BA9" s="25"/>
+      <c r="BB9" s="25"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25" t="s">
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S10" s="25"/>
-      <c r="T10" s="25"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="26"/>
-      <c r="AA10" s="24" t="s">
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="27"/>
+      <c r="Y10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AA10" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AB10" s="24"/>
-      <c r="AC10" s="24"/>
-      <c r="AD10" s="24"/>
-      <c r="AE10" s="24"/>
-      <c r="AF10" s="24"/>
-      <c r="AG10" s="24"/>
-      <c r="AH10" s="24"/>
-      <c r="AI10" s="24"/>
-      <c r="AJ10" s="24"/>
-      <c r="AK10" s="24"/>
-      <c r="AL10" s="24"/>
-      <c r="AM10" s="24"/>
-      <c r="AN10" s="24"/>
-      <c r="AO10" s="24"/>
-      <c r="AP10" s="24"/>
-      <c r="AQ10" s="24"/>
-      <c r="AR10" s="24"/>
-      <c r="AS10" s="24"/>
-      <c r="AT10" s="24"/>
-      <c r="AU10" s="24"/>
-      <c r="AV10" s="24"/>
-      <c r="AW10" s="24"/>
-      <c r="AX10" s="24"/>
-      <c r="AY10" s="24"/>
-      <c r="AZ10" s="24"/>
-      <c r="BA10" s="24"/>
-      <c r="BB10" s="24"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="25"/>
+      <c r="AG10" s="25"/>
+      <c r="AH10" s="25"/>
+      <c r="AI10" s="25"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="25"/>
+      <c r="AL10" s="25"/>
+      <c r="AM10" s="25"/>
+      <c r="AN10" s="25"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="25"/>
+      <c r="AQ10" s="25"/>
+      <c r="AR10" s="25"/>
+      <c r="AS10" s="25"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="25"/>
+      <c r="AV10" s="25"/>
+      <c r="AW10" s="25"/>
+      <c r="AX10" s="25"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="25"/>
+      <c r="BA10" s="25"/>
+      <c r="BB10" s="25"/>
     </row>
     <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="24"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24" t="s">
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="24"/>
-      <c r="R11" s="25" t="s">
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25" t="s">
+      <c r="S11" s="26"/>
+      <c r="T11" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="26"/>
-      <c r="AA11" s="24" t="s">
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="27"/>
+      <c r="Y11" s="27"/>
+      <c r="Z11" s="27"/>
+      <c r="AA11" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="AB11" s="24"/>
-      <c r="AC11" s="24"/>
-      <c r="AD11" s="24"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="24"/>
-      <c r="AG11" s="24"/>
-      <c r="AH11" s="24"/>
-      <c r="AI11" s="24"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="24"/>
-      <c r="AL11" s="24"/>
-      <c r="AM11" s="24"/>
-      <c r="AN11" s="24"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="24"/>
-      <c r="AQ11" s="24"/>
-      <c r="AR11" s="24"/>
-      <c r="AS11" s="24"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="24"/>
-      <c r="AV11" s="24"/>
-      <c r="AW11" s="24"/>
-      <c r="AX11" s="24"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="24"/>
-      <c r="BA11" s="24"/>
-      <c r="BB11" s="24"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="25"/>
+      <c r="AI11" s="25"/>
+      <c r="AJ11" s="25"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="25"/>
+      <c r="AM11" s="25"/>
+      <c r="AN11" s="25"/>
+      <c r="AO11" s="25"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="25"/>
+      <c r="AR11" s="25"/>
+      <c r="AS11" s="25"/>
+      <c r="AT11" s="25"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="25"/>
+      <c r="AW11" s="25"/>
+      <c r="AX11" s="25"/>
+      <c r="AY11" s="25"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="25"/>
+      <c r="BB11" s="25"/>
     </row>
     <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="27" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="27"/>
-      <c r="R12" s="25"/>
-      <c r="S12" s="25"/>
-      <c r="T12" s="25" t="s">
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
+      <c r="O12" s="28"/>
+      <c r="P12" s="28"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="26"/>
-      <c r="AA12" s="24" t="s">
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="27"/>
+      <c r="Y12" s="27"/>
+      <c r="Z12" s="27"/>
+      <c r="AA12" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AB12" s="24"/>
-      <c r="AC12" s="24"/>
-      <c r="AD12" s="24"/>
-      <c r="AE12" s="24"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="24"/>
-      <c r="AH12" s="24"/>
-      <c r="AI12" s="24"/>
-      <c r="AJ12" s="24"/>
-      <c r="AK12" s="24"/>
-      <c r="AL12" s="24"/>
-      <c r="AM12" s="24"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="24"/>
-      <c r="AP12" s="24"/>
-      <c r="AQ12" s="24"/>
-      <c r="AR12" s="24"/>
-      <c r="AS12" s="24"/>
-      <c r="AT12" s="24"/>
-      <c r="AU12" s="24"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="24"/>
-      <c r="AX12" s="24"/>
-      <c r="AY12" s="24"/>
-      <c r="AZ12" s="24"/>
-      <c r="BA12" s="24"/>
-      <c r="BB12" s="24"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="25"/>
+      <c r="AH12" s="25"/>
+      <c r="AI12" s="25"/>
+      <c r="AJ12" s="25"/>
+      <c r="AK12" s="25"/>
+      <c r="AL12" s="25"/>
+      <c r="AM12" s="25"/>
+      <c r="AN12" s="25"/>
+      <c r="AO12" s="25"/>
+      <c r="AP12" s="25"/>
+      <c r="AQ12" s="25"/>
+      <c r="AR12" s="25"/>
+      <c r="AS12" s="25"/>
+      <c r="AT12" s="25"/>
+      <c r="AU12" s="25"/>
+      <c r="AV12" s="25"/>
+      <c r="AW12" s="25"/>
+      <c r="AX12" s="25"/>
+      <c r="AY12" s="25"/>
+      <c r="AZ12" s="25"/>
+      <c r="BA12" s="25"/>
+      <c r="BB12" s="25"/>
     </row>
     <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25" t="s">
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S13" s="25"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="26"/>
-      <c r="AA13" s="24" t="s">
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="AB13" s="24"/>
-      <c r="AC13" s="24"/>
-      <c r="AD13" s="24"/>
-      <c r="AE13" s="24"/>
-      <c r="AF13" s="24"/>
-      <c r="AG13" s="24"/>
-      <c r="AH13" s="24"/>
-      <c r="AI13" s="24"/>
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="AZ13" s="24"/>
-      <c r="BA13" s="24"/>
-      <c r="BB13" s="24"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+      <c r="AF13" s="25"/>
+      <c r="AG13" s="25"/>
+      <c r="AH13" s="25"/>
+      <c r="AI13" s="25"/>
+      <c r="AJ13" s="25"/>
+      <c r="AK13" s="25"/>
+      <c r="AL13" s="25"/>
+      <c r="AM13" s="25"/>
+      <c r="AN13" s="25"/>
+      <c r="AO13" s="25"/>
+      <c r="AP13" s="25"/>
+      <c r="AQ13" s="25"/>
+      <c r="AR13" s="25"/>
+      <c r="AS13" s="25"/>
+      <c r="AT13" s="25"/>
+      <c r="AU13" s="25"/>
+      <c r="AV13" s="25"/>
+      <c r="AW13" s="25"/>
+      <c r="AX13" s="25"/>
+      <c r="AY13" s="25"/>
+      <c r="AZ13" s="25"/>
+      <c r="BA13" s="25"/>
+      <c r="BB13" s="25"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24" t="s">
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25" t="s">
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="S14" s="25"/>
-      <c r="T14" s="25" t="s">
+      <c r="S14" s="26"/>
+      <c r="T14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="26"/>
-      <c r="AA14" s="24" t="s">
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="27"/>
+      <c r="Y14" s="27"/>
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="AB14" s="24"/>
-      <c r="AC14" s="24"/>
-      <c r="AD14" s="24"/>
-      <c r="AE14" s="24"/>
-      <c r="AF14" s="24"/>
-      <c r="AG14" s="24"/>
-      <c r="AH14" s="24"/>
-      <c r="AI14" s="24"/>
-      <c r="AJ14" s="24"/>
-      <c r="AK14" s="24"/>
-      <c r="AL14" s="24"/>
-      <c r="AM14" s="24"/>
-      <c r="AN14" s="24"/>
-      <c r="AO14" s="24"/>
-      <c r="AP14" s="24"/>
-      <c r="AQ14" s="24"/>
-      <c r="AR14" s="24"/>
-      <c r="AS14" s="24"/>
-      <c r="AT14" s="24"/>
-      <c r="AU14" s="24"/>
-      <c r="AV14" s="24"/>
-      <c r="AW14" s="24"/>
-      <c r="AX14" s="24"/>
-      <c r="AY14" s="24"/>
-      <c r="AZ14" s="24"/>
-      <c r="BA14" s="24"/>
-      <c r="BB14" s="24"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+      <c r="AF14" s="25"/>
+      <c r="AG14" s="25"/>
+      <c r="AH14" s="25"/>
+      <c r="AI14" s="25"/>
+      <c r="AJ14" s="25"/>
+      <c r="AK14" s="25"/>
+      <c r="AL14" s="25"/>
+      <c r="AM14" s="25"/>
+      <c r="AN14" s="25"/>
+      <c r="AO14" s="25"/>
+      <c r="AP14" s="25"/>
+      <c r="AQ14" s="25"/>
+      <c r="AR14" s="25"/>
+      <c r="AS14" s="25"/>
+      <c r="AT14" s="25"/>
+      <c r="AU14" s="25"/>
+      <c r="AV14" s="25"/>
+      <c r="AW14" s="25"/>
+      <c r="AX14" s="25"/>
+      <c r="AY14" s="25"/>
+      <c r="AZ14" s="25"/>
+      <c r="BA14" s="25"/>
+      <c r="BB14" s="25"/>
     </row>
     <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="25"/>
-      <c r="T15" s="25"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="26"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="24"/>
-      <c r="AJ15" s="24"/>
-      <c r="AK15" s="24"/>
-      <c r="AL15" s="24"/>
-      <c r="AM15" s="24"/>
-      <c r="AN15" s="24"/>
-      <c r="AO15" s="24"/>
-      <c r="AP15" s="24"/>
-      <c r="AQ15" s="24"/>
-      <c r="AR15" s="24"/>
-      <c r="AS15" s="24"/>
-      <c r="AT15" s="24"/>
-      <c r="AU15" s="24"/>
-      <c r="AV15" s="24"/>
-      <c r="AW15" s="24"/>
-      <c r="AX15" s="24"/>
-      <c r="AY15" s="24"/>
-      <c r="AZ15" s="24"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="27"/>
+      <c r="Y15" s="27"/>
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+      <c r="AF15" s="25"/>
+      <c r="AG15" s="25"/>
+      <c r="AH15" s="25"/>
+      <c r="AI15" s="25"/>
+      <c r="AJ15" s="25"/>
+      <c r="AK15" s="25"/>
+      <c r="AL15" s="25"/>
+      <c r="AM15" s="25"/>
+      <c r="AN15" s="25"/>
+      <c r="AO15" s="25"/>
+      <c r="AP15" s="25"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="25"/>
+      <c r="BA15" s="25"/>
+      <c r="BB15" s="25"/>
     </row>
     <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="25"/>
-      <c r="T16" s="25"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="25"/>
-      <c r="W16" s="25"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="26"/>
-      <c r="AA16" s="24"/>
-      <c r="AB16" s="24"/>
-      <c r="AC16" s="24"/>
-      <c r="AD16" s="24"/>
-      <c r="AE16" s="24"/>
-      <c r="AF16" s="24"/>
-      <c r="AG16" s="24"/>
-      <c r="AH16" s="24"/>
-      <c r="AI16" s="24"/>
-      <c r="AJ16" s="24"/>
-      <c r="AK16" s="24"/>
-      <c r="AL16" s="24"/>
-      <c r="AM16" s="24"/>
-      <c r="AN16" s="24"/>
-      <c r="AO16" s="24"/>
-      <c r="AP16" s="24"/>
-      <c r="AQ16" s="24"/>
-      <c r="AR16" s="24"/>
-      <c r="AS16" s="24"/>
-      <c r="AT16" s="24"/>
-      <c r="AU16" s="24"/>
-      <c r="AV16" s="24"/>
-      <c r="AW16" s="24"/>
-      <c r="AX16" s="24"/>
-      <c r="AY16" s="24"/>
-      <c r="AZ16" s="24"/>
-      <c r="BA16" s="24"/>
-      <c r="BB16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+      <c r="AF16" s="25"/>
+      <c r="AG16" s="25"/>
+      <c r="AH16" s="25"/>
+      <c r="AI16" s="25"/>
+      <c r="AJ16" s="25"/>
+      <c r="AK16" s="25"/>
+      <c r="AL16" s="25"/>
+      <c r="AM16" s="25"/>
+      <c r="AN16" s="25"/>
+      <c r="AO16" s="25"/>
+      <c r="AP16" s="25"/>
+      <c r="AQ16" s="25"/>
+      <c r="AR16" s="25"/>
+      <c r="AS16" s="25"/>
+      <c r="AT16" s="25"/>
+      <c r="AU16" s="25"/>
+      <c r="AV16" s="25"/>
+      <c r="AW16" s="25"/>
+      <c r="AX16" s="25"/>
+      <c r="AY16" s="25"/>
+      <c r="AZ16" s="25"/>
+      <c r="BA16" s="25"/>
+      <c r="BB16" s="25"/>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
-      <c r="S17" s="25"/>
-      <c r="T17" s="25"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="26"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AJ17" s="24"/>
-      <c r="AK17" s="24"/>
-      <c r="AL17" s="24"/>
-      <c r="AM17" s="24"/>
-      <c r="AN17" s="24"/>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BB17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="27"/>
+      <c r="Y17" s="27"/>
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AJ17" s="25"/>
+      <c r="AK17" s="25"/>
+      <c r="AL17" s="25"/>
+      <c r="AM17" s="25"/>
+      <c r="AN17" s="25"/>
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BB17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25"/>
-      <c r="S18" s="25"/>
-      <c r="T18" s="25"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="26"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BB18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="27"/>
+      <c r="Y18" s="27"/>
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AJ18" s="25"/>
+      <c r="AK18" s="25"/>
+      <c r="AL18" s="25"/>
+      <c r="AM18" s="25"/>
+      <c r="AN18" s="25"/>
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BB18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="24"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="25"/>
-      <c r="S19" s="25"/>
-      <c r="T19" s="25"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="26"/>
-      <c r="AA19" s="24"/>
-      <c r="AB19" s="24"/>
-      <c r="AC19" s="24"/>
-      <c r="AD19" s="24"/>
-      <c r="AE19" s="24"/>
-      <c r="AF19" s="24"/>
-      <c r="AG19" s="24"/>
-      <c r="AH19" s="24"/>
-      <c r="AI19" s="24"/>
-      <c r="AJ19" s="24"/>
-      <c r="AK19" s="24"/>
-      <c r="AL19" s="24"/>
-      <c r="AM19" s="24"/>
-      <c r="AN19" s="24"/>
-      <c r="AO19" s="24"/>
-      <c r="AP19" s="24"/>
-      <c r="AQ19" s="24"/>
-      <c r="AR19" s="24"/>
-      <c r="AS19" s="24"/>
-      <c r="AT19" s="24"/>
-      <c r="AU19" s="24"/>
-      <c r="AV19" s="24"/>
-      <c r="AW19" s="24"/>
-      <c r="AX19" s="24"/>
-      <c r="AY19" s="24"/>
-      <c r="AZ19" s="24"/>
-      <c r="BA19" s="24"/>
-      <c r="BB19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="27"/>
+      <c r="Y19" s="27"/>
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+      <c r="AF19" s="25"/>
+      <c r="AG19" s="25"/>
+      <c r="AH19" s="25"/>
+      <c r="AI19" s="25"/>
+      <c r="AJ19" s="25"/>
+      <c r="AK19" s="25"/>
+      <c r="AL19" s="25"/>
+      <c r="AM19" s="25"/>
+      <c r="AN19" s="25"/>
+      <c r="AO19" s="25"/>
+      <c r="AP19" s="25"/>
+      <c r="AQ19" s="25"/>
+      <c r="AR19" s="25"/>
+      <c r="AS19" s="25"/>
+      <c r="AT19" s="25"/>
+      <c r="AU19" s="25"/>
+      <c r="AV19" s="25"/>
+      <c r="AW19" s="25"/>
+      <c r="AX19" s="25"/>
+      <c r="AY19" s="25"/>
+      <c r="AZ19" s="25"/>
+      <c r="BA19" s="25"/>
+      <c r="BB19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
-      <c r="S20" s="25"/>
-      <c r="T20" s="25"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="26"/>
-      <c r="AA20" s="24"/>
-      <c r="AB20" s="24"/>
-      <c r="AC20" s="24"/>
-      <c r="AD20" s="24"/>
-      <c r="AE20" s="24"/>
-      <c r="AF20" s="24"/>
-      <c r="AG20" s="24"/>
-      <c r="AH20" s="24"/>
-      <c r="AI20" s="24"/>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="24"/>
-      <c r="AL20" s="24"/>
-      <c r="AM20" s="24"/>
-      <c r="AN20" s="24"/>
-      <c r="AO20" s="24"/>
-      <c r="AP20" s="24"/>
-      <c r="AQ20" s="24"/>
-      <c r="AR20" s="24"/>
-      <c r="AS20" s="24"/>
-      <c r="AT20" s="24"/>
-      <c r="AU20" s="24"/>
-      <c r="AV20" s="24"/>
-      <c r="AW20" s="24"/>
-      <c r="AX20" s="24"/>
-      <c r="AY20" s="24"/>
-      <c r="AZ20" s="24"/>
-      <c r="BA20" s="24"/>
-      <c r="BB20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="27"/>
+      <c r="Y20" s="27"/>
+      <c r="Z20" s="27"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+      <c r="AF20" s="25"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="25"/>
+      <c r="AI20" s="25"/>
+      <c r="AJ20" s="25"/>
+      <c r="AK20" s="25"/>
+      <c r="AL20" s="25"/>
+      <c r="AM20" s="25"/>
+      <c r="AN20" s="25"/>
+      <c r="AO20" s="25"/>
+      <c r="AP20" s="25"/>
+      <c r="AQ20" s="25"/>
+      <c r="AR20" s="25"/>
+      <c r="AS20" s="25"/>
+      <c r="AT20" s="25"/>
+      <c r="AU20" s="25"/>
+      <c r="AV20" s="25"/>
+      <c r="AW20" s="25"/>
+      <c r="AX20" s="25"/>
+      <c r="AY20" s="25"/>
+      <c r="AZ20" s="25"/>
+      <c r="BA20" s="25"/>
+      <c r="BB20" s="25"/>
     </row>
     <row r="21" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="26"/>
-      <c r="AA21" s="24"/>
-      <c r="AB21" s="24"/>
-      <c r="AC21" s="24"/>
-      <c r="AD21" s="24"/>
-      <c r="AE21" s="24"/>
-      <c r="AF21" s="24"/>
-      <c r="AG21" s="24"/>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="24"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="24"/>
-      <c r="AW21" s="24"/>
-      <c r="AX21" s="24"/>
-      <c r="AY21" s="24"/>
-      <c r="AZ21" s="24"/>
-      <c r="BA21" s="24"/>
-      <c r="BB21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="27"/>
+      <c r="Y21" s="27"/>
+      <c r="Z21" s="27"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+      <c r="AF21" s="25"/>
+      <c r="AG21" s="25"/>
+      <c r="AH21" s="25"/>
+      <c r="AI21" s="25"/>
+      <c r="AJ21" s="25"/>
+      <c r="AK21" s="25"/>
+      <c r="AL21" s="25"/>
+      <c r="AM21" s="25"/>
+      <c r="AN21" s="25"/>
+      <c r="AO21" s="25"/>
+      <c r="AP21" s="25"/>
+      <c r="AQ21" s="25"/>
+      <c r="AR21" s="25"/>
+      <c r="AS21" s="25"/>
+      <c r="AT21" s="25"/>
+      <c r="AU21" s="25"/>
+      <c r="AV21" s="25"/>
+      <c r="AW21" s="25"/>
+      <c r="AX21" s="25"/>
+      <c r="AY21" s="25"/>
+      <c r="AZ21" s="25"/>
+      <c r="BA21" s="25"/>
+      <c r="BB21" s="25"/>
     </row>
     <row r="22" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
-      <c r="S22" s="25"/>
-      <c r="T22" s="25"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="26"/>
-      <c r="AA22" s="24"/>
-      <c r="AB22" s="24"/>
-      <c r="AC22" s="24"/>
-      <c r="AD22" s="24"/>
-      <c r="AE22" s="24"/>
-      <c r="AF22" s="24"/>
-      <c r="AG22" s="24"/>
-      <c r="AH22" s="24"/>
-      <c r="AI22" s="24"/>
-      <c r="AJ22" s="24"/>
-      <c r="AK22" s="24"/>
-      <c r="AL22" s="24"/>
-      <c r="AM22" s="24"/>
-      <c r="AN22" s="24"/>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="24"/>
-      <c r="AT22" s="24"/>
-      <c r="AU22" s="24"/>
-      <c r="AV22" s="24"/>
-      <c r="AW22" s="24"/>
-      <c r="AX22" s="24"/>
-      <c r="AY22" s="24"/>
-      <c r="AZ22" s="24"/>
-      <c r="BA22" s="24"/>
-      <c r="BB22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="27"/>
+      <c r="Y22" s="27"/>
+      <c r="Z22" s="27"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+      <c r="AF22" s="25"/>
+      <c r="AG22" s="25"/>
+      <c r="AH22" s="25"/>
+      <c r="AI22" s="25"/>
+      <c r="AJ22" s="25"/>
+      <c r="AK22" s="25"/>
+      <c r="AL22" s="25"/>
+      <c r="AM22" s="25"/>
+      <c r="AN22" s="25"/>
+      <c r="AO22" s="25"/>
+      <c r="AP22" s="25"/>
+      <c r="AQ22" s="25"/>
+      <c r="AR22" s="25"/>
+      <c r="AS22" s="25"/>
+      <c r="AT22" s="25"/>
+      <c r="AU22" s="25"/>
+      <c r="AV22" s="25"/>
+      <c r="AW22" s="25"/>
+      <c r="AX22" s="25"/>
+      <c r="AY22" s="25"/>
+      <c r="AZ22" s="25"/>
+      <c r="BA22" s="25"/>
+      <c r="BB22" s="25"/>
     </row>
     <row r="23" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="25"/>
-      <c r="S23" s="25"/>
-      <c r="T23" s="25"/>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="26"/>
-      <c r="AA23" s="24"/>
-      <c r="AB23" s="24"/>
-      <c r="AC23" s="24"/>
-      <c r="AD23" s="24"/>
-      <c r="AE23" s="24"/>
-      <c r="AF23" s="24"/>
-      <c r="AG23" s="24"/>
-      <c r="AH23" s="24"/>
-      <c r="AI23" s="24"/>
-      <c r="AJ23" s="24"/>
-      <c r="AK23" s="24"/>
-      <c r="AL23" s="24"/>
-      <c r="AM23" s="24"/>
-      <c r="AN23" s="24"/>
-      <c r="AO23" s="24"/>
-      <c r="AP23" s="24"/>
-      <c r="AQ23" s="24"/>
-      <c r="AR23" s="24"/>
-      <c r="AS23" s="24"/>
-      <c r="AT23" s="24"/>
-      <c r="AU23" s="24"/>
-      <c r="AV23" s="24"/>
-      <c r="AW23" s="24"/>
-      <c r="AX23" s="24"/>
-      <c r="AY23" s="24"/>
-      <c r="AZ23" s="24"/>
-      <c r="BA23" s="24"/>
-      <c r="BB23" s="24"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="27"/>
+      <c r="Y23" s="27"/>
+      <c r="Z23" s="27"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+      <c r="AF23" s="25"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="25"/>
+      <c r="AI23" s="25"/>
+      <c r="AJ23" s="25"/>
+      <c r="AK23" s="25"/>
+      <c r="AL23" s="25"/>
+      <c r="AM23" s="25"/>
+      <c r="AN23" s="25"/>
+      <c r="AO23" s="25"/>
+      <c r="AP23" s="25"/>
+      <c r="AQ23" s="25"/>
+      <c r="AR23" s="25"/>
+      <c r="AS23" s="25"/>
+      <c r="AT23" s="25"/>
+      <c r="AU23" s="25"/>
+      <c r="AV23" s="25"/>
+      <c r="AW23" s="25"/>
+      <c r="AX23" s="25"/>
+      <c r="AY23" s="25"/>
+      <c r="AZ23" s="25"/>
+      <c r="BA23" s="25"/>
+      <c r="BB23" s="25"/>
     </row>
     <row r="24" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="25"/>
-      <c r="S24" s="25"/>
-      <c r="T24" s="25"/>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="26"/>
-      <c r="AA24" s="24"/>
-      <c r="AB24" s="24"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="24"/>
-      <c r="AE24" s="24"/>
-      <c r="AF24" s="24"/>
-      <c r="AG24" s="24"/>
-      <c r="AH24" s="24"/>
-      <c r="AI24" s="24"/>
-      <c r="AJ24" s="24"/>
-      <c r="AK24" s="24"/>
-      <c r="AL24" s="24"/>
-      <c r="AM24" s="24"/>
-      <c r="AN24" s="24"/>
-      <c r="AO24" s="24"/>
-      <c r="AP24" s="24"/>
-      <c r="AQ24" s="24"/>
-      <c r="AR24" s="24"/>
-      <c r="AS24" s="24"/>
-      <c r="AT24" s="24"/>
-      <c r="AU24" s="24"/>
-      <c r="AV24" s="24"/>
-      <c r="AW24" s="24"/>
-      <c r="AX24" s="24"/>
-      <c r="AY24" s="24"/>
-      <c r="AZ24" s="24"/>
-      <c r="BA24" s="24"/>
-      <c r="BB24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="27"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="27"/>
+      <c r="AA24" s="25"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+      <c r="AF24" s="25"/>
+      <c r="AG24" s="25"/>
+      <c r="AH24" s="25"/>
+      <c r="AI24" s="25"/>
+      <c r="AJ24" s="25"/>
+      <c r="AK24" s="25"/>
+      <c r="AL24" s="25"/>
+      <c r="AM24" s="25"/>
+      <c r="AN24" s="25"/>
+      <c r="AO24" s="25"/>
+      <c r="AP24" s="25"/>
+      <c r="AQ24" s="25"/>
+      <c r="AR24" s="25"/>
+      <c r="AS24" s="25"/>
+      <c r="AT24" s="25"/>
+      <c r="AU24" s="25"/>
+      <c r="AV24" s="25"/>
+      <c r="AW24" s="25"/>
+      <c r="AX24" s="25"/>
+      <c r="AY24" s="25"/>
+      <c r="AZ24" s="25"/>
+      <c r="BA24" s="25"/>
+      <c r="BB24" s="25"/>
     </row>
     <row r="25" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="25"/>
-      <c r="S25" s="25"/>
-      <c r="T25" s="25"/>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="26"/>
-      <c r="AA25" s="24"/>
-      <c r="AB25" s="24"/>
-      <c r="AC25" s="24"/>
-      <c r="AD25" s="24"/>
-      <c r="AE25" s="24"/>
-      <c r="AF25" s="24"/>
-      <c r="AG25" s="24"/>
-      <c r="AH25" s="24"/>
-      <c r="AI25" s="24"/>
-      <c r="AJ25" s="24"/>
-      <c r="AK25" s="24"/>
-      <c r="AL25" s="24"/>
-      <c r="AM25" s="24"/>
-      <c r="AN25" s="24"/>
-      <c r="AO25" s="24"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="24"/>
-      <c r="AR25" s="24"/>
-      <c r="AS25" s="24"/>
-      <c r="AT25" s="24"/>
-      <c r="AU25" s="24"/>
-      <c r="AV25" s="24"/>
-      <c r="AW25" s="24"/>
-      <c r="AX25" s="24"/>
-      <c r="AY25" s="24"/>
-      <c r="AZ25" s="24"/>
-      <c r="BA25" s="24"/>
-      <c r="BB25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="27"/>
+      <c r="Y25" s="27"/>
+      <c r="Z25" s="27"/>
+      <c r="AA25" s="25"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+      <c r="AF25" s="25"/>
+      <c r="AG25" s="25"/>
+      <c r="AH25" s="25"/>
+      <c r="AI25" s="25"/>
+      <c r="AJ25" s="25"/>
+      <c r="AK25" s="25"/>
+      <c r="AL25" s="25"/>
+      <c r="AM25" s="25"/>
+      <c r="AN25" s="25"/>
+      <c r="AO25" s="25"/>
+      <c r="AP25" s="25"/>
+      <c r="AQ25" s="25"/>
+      <c r="AR25" s="25"/>
+      <c r="AS25" s="25"/>
+      <c r="AT25" s="25"/>
+      <c r="AU25" s="25"/>
+      <c r="AV25" s="25"/>
+      <c r="AW25" s="25"/>
+      <c r="AX25" s="25"/>
+      <c r="AY25" s="25"/>
+      <c r="AZ25" s="25"/>
+      <c r="BA25" s="25"/>
+      <c r="BB25" s="25"/>
     </row>
     <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -10084,40 +8155,40 @@
       <c r="S1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="U1" s="28" t="s">
+      <c r="U1" s="29" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="U2" s="28" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="U2" s="29" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10169,7 +8240,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10190,14 +8261,108 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="23" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="23" width="34.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://products.sint.co.jp/obdz/blog/basic-design-detailed-design "/>
+    <hyperlink ref="B11" r:id="rId2" display="https://note.com/sudatakashi/n/n8222b9d91b97 "/>
+    <hyperlink ref="B12" r:id="rId3" display="https://elegantt.com/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -10205,7 +8370,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10214,2189 +8378,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:AR51"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="31"/>
-      <c r="AJ3" s="31"/>
-      <c r="AK3" s="31"/>
-      <c r="AL3" s="31"/>
-      <c r="AM3" s="31"/>
-      <c r="AN3" s="31"/>
-      <c r="AO3" s="31"/>
-      <c r="AP3" s="31"/>
-      <c r="AQ3" s="31"/>
-      <c r="AR3" s="31"/>
-    </row>
-    <row r="4" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="31"/>
-    </row>
-    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-      <c r="O5" s="31"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="31"/>
-      <c r="Y5" s="31"/>
-      <c r="Z5" s="31"/>
-      <c r="AA5" s="31"/>
-      <c r="AB5" s="31"/>
-      <c r="AC5" s="31"/>
-      <c r="AD5" s="31"/>
-      <c r="AE5" s="31"/>
-      <c r="AF5" s="31"/>
-      <c r="AG5" s="31"/>
-      <c r="AH5" s="31"/>
-      <c r="AI5" s="31"/>
-      <c r="AJ5" s="31"/>
-      <c r="AK5" s="31"/>
-      <c r="AL5" s="31"/>
-      <c r="AM5" s="31"/>
-      <c r="AN5" s="31"/>
-      <c r="AO5" s="31"/>
-      <c r="AP5" s="31"/>
-      <c r="AQ5" s="31"/>
-      <c r="AR5" s="31"/>
-    </row>
-    <row r="6" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="31"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="31"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="31"/>
-      <c r="Y6" s="31"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="31"/>
-      <c r="AB6" s="31"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="31"/>
-      <c r="AE6" s="31"/>
-      <c r="AF6" s="31"/>
-      <c r="AG6" s="31"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="31"/>
-      <c r="AJ6" s="31"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="31"/>
-      <c r="AM6" s="31"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="31"/>
-      <c r="AP6" s="31"/>
-      <c r="AQ6" s="31"/>
-      <c r="AR6" s="31"/>
-    </row>
-    <row r="7" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="31"/>
-      <c r="U7" s="31"/>
-      <c r="V7" s="31"/>
-      <c r="W7" s="31"/>
-      <c r="X7" s="31"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="31"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="31"/>
-      <c r="AC7" s="31"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="31"/>
-      <c r="AF7" s="31"/>
-      <c r="AG7" s="31"/>
-      <c r="AH7" s="31"/>
-      <c r="AI7" s="31"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="31"/>
-      <c r="AL7" s="31"/>
-      <c r="AM7" s="31"/>
-      <c r="AN7" s="31"/>
-      <c r="AO7" s="31"/>
-      <c r="AP7" s="31"/>
-      <c r="AQ7" s="31"/>
-      <c r="AR7" s="31"/>
-    </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="31"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="31"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="31"/>
-      <c r="Y8" s="31"/>
-      <c r="Z8" s="31"/>
-      <c r="AA8" s="31"/>
-      <c r="AB8" s="31"/>
-      <c r="AC8" s="31"/>
-      <c r="AD8" s="31"/>
-      <c r="AE8" s="31"/>
-      <c r="AF8" s="31"/>
-      <c r="AG8" s="31"/>
-      <c r="AH8" s="31"/>
-      <c r="AI8" s="31"/>
-      <c r="AJ8" s="31"/>
-      <c r="AK8" s="31"/>
-      <c r="AL8" s="31"/>
-      <c r="AM8" s="31"/>
-      <c r="AN8" s="31"/>
-      <c r="AO8" s="31"/>
-      <c r="AP8" s="31"/>
-      <c r="AQ8" s="31"/>
-      <c r="AR8" s="31"/>
-    </row>
-    <row r="9" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="31"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-      <c r="S9" s="31"/>
-      <c r="T9" s="31"/>
-      <c r="U9" s="31"/>
-      <c r="V9" s="31"/>
-      <c r="W9" s="31"/>
-      <c r="X9" s="31"/>
-      <c r="Y9" s="31"/>
-      <c r="Z9" s="31"/>
-      <c r="AA9" s="31"/>
-      <c r="AB9" s="31"/>
-      <c r="AC9" s="31"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="31"/>
-      <c r="AG9" s="31"/>
-      <c r="AH9" s="31"/>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-      <c r="AK9" s="31"/>
-      <c r="AL9" s="31"/>
-      <c r="AM9" s="31"/>
-      <c r="AN9" s="31"/>
-      <c r="AO9" s="31"/>
-      <c r="AP9" s="31"/>
-      <c r="AQ9" s="31"/>
-      <c r="AR9" s="31"/>
-    </row>
-    <row r="10" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
-      <c r="AH10" s="31"/>
-      <c r="AI10" s="31"/>
-      <c r="AJ10" s="31"/>
-      <c r="AK10" s="31"/>
-      <c r="AL10" s="31"/>
-      <c r="AM10" s="31"/>
-      <c r="AN10" s="31"/>
-      <c r="AO10" s="31"/>
-      <c r="AP10" s="31"/>
-      <c r="AQ10" s="31"/>
-      <c r="AR10" s="31"/>
-    </row>
-    <row r="11" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31"/>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31"/>
-      <c r="AG11" s="31"/>
-      <c r="AH11" s="31"/>
-      <c r="AI11" s="31"/>
-      <c r="AJ11" s="31"/>
-      <c r="AK11" s="31"/>
-      <c r="AL11" s="31"/>
-      <c r="AM11" s="31"/>
-      <c r="AN11" s="31"/>
-      <c r="AO11" s="31"/>
-      <c r="AP11" s="31"/>
-      <c r="AQ11" s="31"/>
-      <c r="AR11" s="31"/>
-    </row>
-    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
-      <c r="AH12" s="31"/>
-      <c r="AI12" s="31"/>
-      <c r="AJ12" s="31"/>
-      <c r="AK12" s="31"/>
-      <c r="AL12" s="31"/>
-      <c r="AM12" s="31"/>
-      <c r="AN12" s="31"/>
-      <c r="AO12" s="31"/>
-      <c r="AP12" s="31"/>
-      <c r="AQ12" s="31"/>
-      <c r="AR12" s="31"/>
-    </row>
-    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-      <c r="T13" s="31"/>
-      <c r="U13" s="31"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="31"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="31"/>
-      <c r="AB13" s="31"/>
-      <c r="AC13" s="31"/>
-      <c r="AD13" s="31"/>
-      <c r="AE13" s="31"/>
-      <c r="AF13" s="31"/>
-      <c r="AG13" s="31"/>
-      <c r="AH13" s="31"/>
-      <c r="AI13" s="31"/>
-      <c r="AJ13" s="31"/>
-      <c r="AK13" s="31"/>
-      <c r="AL13" s="31"/>
-      <c r="AM13" s="31"/>
-      <c r="AN13" s="31"/>
-      <c r="AO13" s="31"/>
-      <c r="AP13" s="31"/>
-      <c r="AQ13" s="31"/>
-      <c r="AR13" s="31"/>
-    </row>
-    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-      <c r="S14" s="31"/>
-      <c r="T14" s="31"/>
-      <c r="U14" s="31"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="31"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="31"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="31"/>
-      <c r="AB14" s="31"/>
-      <c r="AC14" s="31"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="31"/>
-      <c r="AF14" s="31"/>
-      <c r="AG14" s="31"/>
-      <c r="AH14" s="31"/>
-      <c r="AI14" s="31"/>
-      <c r="AJ14" s="31"/>
-      <c r="AK14" s="31"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="31"/>
-      <c r="AN14" s="31"/>
-      <c r="AO14" s="31"/>
-      <c r="AP14" s="31"/>
-      <c r="AQ14" s="31"/>
-      <c r="AR14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-      <c r="S15" s="31"/>
-      <c r="T15" s="31"/>
-      <c r="U15" s="31"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="31"/>
-      <c r="X15" s="31"/>
-      <c r="Y15" s="31"/>
-      <c r="Z15" s="31"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="31"/>
-      <c r="AC15" s="31"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="31"/>
-      <c r="AF15" s="31"/>
-      <c r="AG15" s="31"/>
-      <c r="AH15" s="31"/>
-      <c r="AI15" s="31"/>
-      <c r="AJ15" s="31"/>
-      <c r="AK15" s="31"/>
-      <c r="AL15" s="31"/>
-      <c r="AM15" s="31"/>
-      <c r="AN15" s="31"/>
-      <c r="AO15" s="31"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="31"/>
-      <c r="AR15" s="31"/>
-    </row>
-    <row r="16" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31"/>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31"/>
-      <c r="AG16" s="31"/>
-      <c r="AH16" s="31"/>
-      <c r="AI16" s="31"/>
-      <c r="AJ16" s="31"/>
-      <c r="AK16" s="31"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="31"/>
-      <c r="AN16" s="31"/>
-      <c r="AO16" s="31"/>
-      <c r="AP16" s="31"/>
-      <c r="AQ16" s="31"/>
-      <c r="AR16" s="31"/>
-    </row>
-    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-      <c r="S17" s="31"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="31"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="31"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="31"/>
-      <c r="AG17" s="31"/>
-      <c r="AH17" s="31"/>
-      <c r="AI17" s="31"/>
-      <c r="AJ17" s="31"/>
-      <c r="AK17" s="31"/>
-      <c r="AL17" s="31"/>
-      <c r="AM17" s="31"/>
-      <c r="AN17" s="31"/>
-      <c r="AO17" s="31"/>
-      <c r="AP17" s="31"/>
-      <c r="AQ17" s="31"/>
-      <c r="AR17" s="31"/>
-    </row>
-    <row r="18" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
-      <c r="Q18" s="31"/>
-      <c r="R18" s="31"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
-      <c r="AH18" s="31"/>
-      <c r="AI18" s="31"/>
-      <c r="AJ18" s="31"/>
-      <c r="AK18" s="31"/>
-      <c r="AL18" s="31"/>
-      <c r="AM18" s="31"/>
-      <c r="AN18" s="31"/>
-      <c r="AO18" s="31"/>
-      <c r="AP18" s="31"/>
-      <c r="AQ18" s="31"/>
-      <c r="AR18" s="31"/>
-    </row>
-    <row r="19" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="31"/>
-      <c r="X19" s="31"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="31"/>
-      <c r="AA19" s="31"/>
-      <c r="AB19" s="31"/>
-      <c r="AC19" s="31"/>
-      <c r="AD19" s="31"/>
-      <c r="AE19" s="31"/>
-      <c r="AF19" s="31"/>
-      <c r="AG19" s="31"/>
-      <c r="AH19" s="31"/>
-      <c r="AI19" s="31"/>
-      <c r="AJ19" s="31"/>
-      <c r="AK19" s="31"/>
-      <c r="AL19" s="31"/>
-      <c r="AM19" s="31"/>
-      <c r="AN19" s="31"/>
-      <c r="AO19" s="31"/>
-      <c r="AP19" s="31"/>
-      <c r="AQ19" s="31"/>
-      <c r="AR19" s="31"/>
-    </row>
-    <row r="20" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-      <c r="S20" s="31"/>
-      <c r="T20" s="31"/>
-      <c r="U20" s="31"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="31"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="31"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="31"/>
-      <c r="AB20" s="31"/>
-      <c r="AC20" s="31"/>
-      <c r="AD20" s="31"/>
-      <c r="AE20" s="31"/>
-      <c r="AF20" s="31"/>
-      <c r="AG20" s="31"/>
-      <c r="AH20" s="31"/>
-      <c r="AI20" s="31"/>
-      <c r="AJ20" s="31"/>
-      <c r="AK20" s="31"/>
-      <c r="AL20" s="31"/>
-      <c r="AM20" s="31"/>
-      <c r="AN20" s="31"/>
-      <c r="AO20" s="31"/>
-      <c r="AP20" s="31"/>
-      <c r="AQ20" s="31"/>
-      <c r="AR20" s="31"/>
-    </row>
-    <row r="21" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-      <c r="AQ21" s="31"/>
-      <c r="AR21" s="31"/>
-    </row>
-    <row r="22" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
-      <c r="AQ22" s="31"/>
-      <c r="AR22" s="31"/>
-    </row>
-    <row r="23" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
-      <c r="R23" s="31"/>
-      <c r="S23" s="31"/>
-      <c r="T23" s="31"/>
-      <c r="U23" s="31"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="31"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="31"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="31"/>
-      <c r="AB23" s="31"/>
-      <c r="AC23" s="31"/>
-      <c r="AD23" s="31"/>
-      <c r="AE23" s="31"/>
-      <c r="AF23" s="31"/>
-      <c r="AG23" s="31"/>
-      <c r="AH23" s="31"/>
-      <c r="AI23" s="31"/>
-      <c r="AJ23" s="31"/>
-      <c r="AK23" s="31"/>
-      <c r="AL23" s="31"/>
-      <c r="AM23" s="31"/>
-      <c r="AN23" s="31"/>
-      <c r="AO23" s="31"/>
-      <c r="AP23" s="31"/>
-      <c r="AQ23" s="31"/>
-      <c r="AR23" s="31"/>
-    </row>
-    <row r="24" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="31"/>
-      <c r="T24" s="31"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="31"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
-      <c r="AJ24" s="31"/>
-      <c r="AK24" s="31"/>
-      <c r="AL24" s="31"/>
-      <c r="AM24" s="31"/>
-      <c r="AN24" s="31"/>
-      <c r="AO24" s="31"/>
-      <c r="AP24" s="31"/>
-      <c r="AQ24" s="31"/>
-      <c r="AR24" s="31"/>
-    </row>
-    <row r="25" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
-      <c r="Q25" s="31"/>
-      <c r="R25" s="31"/>
-      <c r="S25" s="31"/>
-      <c r="T25" s="31"/>
-      <c r="U25" s="31"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="31"/>
-      <c r="X25" s="31"/>
-      <c r="Y25" s="31"/>
-      <c r="Z25" s="31"/>
-      <c r="AA25" s="31"/>
-      <c r="AB25" s="31"/>
-      <c r="AC25" s="31"/>
-      <c r="AD25" s="31"/>
-      <c r="AE25" s="31"/>
-      <c r="AF25" s="31"/>
-      <c r="AG25" s="31"/>
-      <c r="AH25" s="31"/>
-      <c r="AI25" s="31"/>
-      <c r="AJ25" s="31"/>
-      <c r="AK25" s="31"/>
-      <c r="AL25" s="31"/>
-      <c r="AM25" s="31"/>
-      <c r="AN25" s="31"/>
-      <c r="AO25" s="31"/>
-      <c r="AP25" s="31"/>
-      <c r="AQ25" s="31"/>
-      <c r="AR25" s="31"/>
-    </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="30"/>
-      <c r="U28" s="30"/>
-      <c r="V28" s="30"/>
-      <c r="W28" s="30"/>
-      <c r="X28" s="30"/>
-      <c r="Y28" s="30"/>
-      <c r="Z28" s="30"/>
-      <c r="AA28" s="30"/>
-      <c r="AB28" s="30"/>
-      <c r="AC28" s="30"/>
-      <c r="AD28" s="30"/>
-      <c r="AE28" s="30"/>
-      <c r="AF28" s="30"/>
-      <c r="AG28" s="30"/>
-      <c r="AH28" s="30"/>
-      <c r="AI28" s="30"/>
-      <c r="AJ28" s="30"/>
-      <c r="AK28" s="30"/>
-      <c r="AL28" s="30"/>
-      <c r="AM28" s="30"/>
-      <c r="AN28" s="30"/>
-      <c r="AO28" s="30"/>
-      <c r="AP28" s="30"/>
-      <c r="AQ28" s="30"/>
-      <c r="AR28" s="30"/>
-    </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="31"/>
-      <c r="AH29" s="31"/>
-      <c r="AI29" s="31"/>
-      <c r="AJ29" s="31"/>
-      <c r="AK29" s="31"/>
-      <c r="AL29" s="31"/>
-      <c r="AM29" s="31"/>
-      <c r="AN29" s="31"/>
-      <c r="AO29" s="31"/>
-      <c r="AP29" s="31"/>
-      <c r="AQ29" s="31"/>
-      <c r="AR29" s="31"/>
-    </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="31"/>
-      <c r="AH30" s="31"/>
-      <c r="AI30" s="31"/>
-      <c r="AJ30" s="31"/>
-      <c r="AK30" s="31"/>
-      <c r="AL30" s="31"/>
-      <c r="AM30" s="31"/>
-      <c r="AN30" s="31"/>
-      <c r="AO30" s="31"/>
-      <c r="AP30" s="31"/>
-      <c r="AQ30" s="31"/>
-      <c r="AR30" s="31"/>
-    </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
-      <c r="Q31" s="31"/>
-      <c r="R31" s="31"/>
-      <c r="S31" s="31"/>
-      <c r="T31" s="31"/>
-      <c r="U31" s="31"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="31"/>
-      <c r="X31" s="31"/>
-      <c r="Y31" s="31"/>
-      <c r="Z31" s="31"/>
-      <c r="AA31" s="31"/>
-      <c r="AB31" s="31"/>
-      <c r="AC31" s="31"/>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="31"/>
-      <c r="AF31" s="31"/>
-      <c r="AG31" s="31"/>
-      <c r="AH31" s="31"/>
-      <c r="AI31" s="31"/>
-      <c r="AJ31" s="31"/>
-      <c r="AK31" s="31"/>
-      <c r="AL31" s="31"/>
-      <c r="AM31" s="31"/>
-      <c r="AN31" s="31"/>
-      <c r="AO31" s="31"/>
-      <c r="AP31" s="31"/>
-      <c r="AQ31" s="31"/>
-      <c r="AR31" s="31"/>
-    </row>
-    <row r="32" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
-      <c r="Q32" s="31"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="31"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="31"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="31"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="31"/>
-      <c r="AB32" s="31"/>
-      <c r="AC32" s="31"/>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="31"/>
-      <c r="AF32" s="31"/>
-      <c r="AG32" s="31"/>
-      <c r="AH32" s="31"/>
-      <c r="AI32" s="31"/>
-      <c r="AJ32" s="31"/>
-      <c r="AK32" s="31"/>
-      <c r="AL32" s="31"/>
-      <c r="AM32" s="31"/>
-      <c r="AN32" s="31"/>
-      <c r="AO32" s="31"/>
-      <c r="AP32" s="31"/>
-      <c r="AQ32" s="31"/>
-      <c r="AR32" s="31"/>
-    </row>
-    <row r="33" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
-      <c r="Q33" s="31"/>
-      <c r="R33" s="31"/>
-      <c r="S33" s="31"/>
-      <c r="T33" s="31"/>
-      <c r="U33" s="31"/>
-      <c r="V33" s="31"/>
-      <c r="W33" s="31"/>
-      <c r="X33" s="31"/>
-      <c r="Y33" s="31"/>
-      <c r="Z33" s="31"/>
-      <c r="AA33" s="31"/>
-      <c r="AB33" s="31"/>
-      <c r="AC33" s="31"/>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="31"/>
-      <c r="AF33" s="31"/>
-      <c r="AG33" s="31"/>
-      <c r="AH33" s="31"/>
-      <c r="AI33" s="31"/>
-      <c r="AJ33" s="31"/>
-      <c r="AK33" s="31"/>
-      <c r="AL33" s="31"/>
-      <c r="AM33" s="31"/>
-      <c r="AN33" s="31"/>
-      <c r="AO33" s="31"/>
-      <c r="AP33" s="31"/>
-      <c r="AQ33" s="31"/>
-      <c r="AR33" s="31"/>
-    </row>
-    <row r="34" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
-      <c r="Q34" s="31"/>
-      <c r="R34" s="31"/>
-      <c r="S34" s="31"/>
-      <c r="T34" s="31"/>
-      <c r="U34" s="31"/>
-      <c r="V34" s="31"/>
-      <c r="W34" s="31"/>
-      <c r="X34" s="31"/>
-      <c r="Y34" s="31"/>
-      <c r="Z34" s="31"/>
-      <c r="AA34" s="31"/>
-      <c r="AB34" s="31"/>
-      <c r="AC34" s="31"/>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="31"/>
-      <c r="AF34" s="31"/>
-      <c r="AG34" s="31"/>
-      <c r="AH34" s="31"/>
-      <c r="AI34" s="31"/>
-      <c r="AJ34" s="31"/>
-      <c r="AK34" s="31"/>
-      <c r="AL34" s="31"/>
-      <c r="AM34" s="31"/>
-      <c r="AN34" s="31"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="31"/>
-      <c r="AR34" s="31"/>
-    </row>
-    <row r="35" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
-      <c r="Q35" s="31"/>
-      <c r="R35" s="31"/>
-      <c r="S35" s="31"/>
-      <c r="T35" s="31"/>
-      <c r="U35" s="31"/>
-      <c r="V35" s="31"/>
-      <c r="W35" s="31"/>
-      <c r="X35" s="31"/>
-      <c r="Y35" s="31"/>
-      <c r="Z35" s="31"/>
-      <c r="AA35" s="31"/>
-      <c r="AB35" s="31"/>
-      <c r="AC35" s="31"/>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="31"/>
-      <c r="AF35" s="31"/>
-      <c r="AG35" s="31"/>
-      <c r="AH35" s="31"/>
-      <c r="AI35" s="31"/>
-      <c r="AJ35" s="31"/>
-      <c r="AK35" s="31"/>
-      <c r="AL35" s="31"/>
-      <c r="AM35" s="31"/>
-      <c r="AN35" s="31"/>
-      <c r="AO35" s="31"/>
-      <c r="AP35" s="31"/>
-      <c r="AQ35" s="31"/>
-      <c r="AR35" s="31"/>
-    </row>
-    <row r="36" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
-      <c r="Q36" s="31"/>
-      <c r="R36" s="31"/>
-      <c r="S36" s="31"/>
-      <c r="T36" s="31"/>
-      <c r="U36" s="31"/>
-      <c r="V36" s="31"/>
-      <c r="W36" s="31"/>
-      <c r="X36" s="31"/>
-      <c r="Y36" s="31"/>
-      <c r="Z36" s="31"/>
-      <c r="AA36" s="31"/>
-      <c r="AB36" s="31"/>
-      <c r="AC36" s="31"/>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="31"/>
-      <c r="AF36" s="31"/>
-      <c r="AG36" s="31"/>
-      <c r="AH36" s="31"/>
-      <c r="AI36" s="31"/>
-      <c r="AJ36" s="31"/>
-      <c r="AK36" s="31"/>
-      <c r="AL36" s="31"/>
-      <c r="AM36" s="31"/>
-      <c r="AN36" s="31"/>
-      <c r="AO36" s="31"/>
-      <c r="AP36" s="31"/>
-      <c r="AQ36" s="31"/>
-      <c r="AR36" s="31"/>
-    </row>
-    <row r="37" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="31"/>
-      <c r="O37" s="31"/>
-      <c r="P37" s="31"/>
-      <c r="Q37" s="31"/>
-      <c r="R37" s="31"/>
-      <c r="S37" s="31"/>
-      <c r="T37" s="31"/>
-      <c r="U37" s="31"/>
-      <c r="V37" s="31"/>
-      <c r="W37" s="31"/>
-      <c r="X37" s="31"/>
-      <c r="Y37" s="31"/>
-      <c r="Z37" s="31"/>
-      <c r="AA37" s="31"/>
-      <c r="AB37" s="31"/>
-      <c r="AC37" s="31"/>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="31"/>
-      <c r="AF37" s="31"/>
-      <c r="AG37" s="31"/>
-      <c r="AH37" s="31"/>
-      <c r="AI37" s="31"/>
-      <c r="AJ37" s="31"/>
-      <c r="AK37" s="31"/>
-      <c r="AL37" s="31"/>
-      <c r="AM37" s="31"/>
-      <c r="AN37" s="31"/>
-      <c r="AO37" s="31"/>
-      <c r="AP37" s="31"/>
-      <c r="AQ37" s="31"/>
-      <c r="AR37" s="31"/>
-    </row>
-    <row r="38" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
-      <c r="K38" s="31"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="31"/>
-      <c r="O38" s="31"/>
-      <c r="P38" s="31"/>
-      <c r="Q38" s="31"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-      <c r="T38" s="31"/>
-      <c r="U38" s="31"/>
-      <c r="V38" s="31"/>
-      <c r="W38" s="31"/>
-      <c r="X38" s="31"/>
-      <c r="Y38" s="31"/>
-      <c r="Z38" s="31"/>
-      <c r="AA38" s="31"/>
-      <c r="AB38" s="31"/>
-      <c r="AC38" s="31"/>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="31"/>
-      <c r="AF38" s="31"/>
-      <c r="AG38" s="31"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="31"/>
-      <c r="AK38" s="31"/>
-      <c r="AL38" s="31"/>
-      <c r="AM38" s="31"/>
-      <c r="AN38" s="31"/>
-      <c r="AO38" s="31"/>
-      <c r="AP38" s="31"/>
-      <c r="AQ38" s="31"/>
-      <c r="AR38" s="31"/>
-    </row>
-    <row r="39" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
-      <c r="K39" s="31"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="31"/>
-      <c r="O39" s="31"/>
-      <c r="P39" s="31"/>
-      <c r="Q39" s="31"/>
-      <c r="R39" s="31"/>
-      <c r="S39" s="31"/>
-      <c r="T39" s="31"/>
-      <c r="U39" s="31"/>
-      <c r="V39" s="31"/>
-      <c r="W39" s="31"/>
-      <c r="X39" s="31"/>
-      <c r="Y39" s="31"/>
-      <c r="Z39" s="31"/>
-      <c r="AA39" s="31"/>
-      <c r="AB39" s="31"/>
-      <c r="AC39" s="31"/>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="31"/>
-      <c r="AF39" s="31"/>
-      <c r="AG39" s="31"/>
-      <c r="AH39" s="31"/>
-      <c r="AI39" s="31"/>
-      <c r="AJ39" s="31"/>
-      <c r="AK39" s="31"/>
-      <c r="AL39" s="31"/>
-      <c r="AM39" s="31"/>
-      <c r="AN39" s="31"/>
-      <c r="AO39" s="31"/>
-      <c r="AP39" s="31"/>
-      <c r="AQ39" s="31"/>
-      <c r="AR39" s="31"/>
-    </row>
-    <row r="40" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
-      <c r="K40" s="31"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="31"/>
-      <c r="N40" s="31"/>
-      <c r="O40" s="31"/>
-      <c r="P40" s="31"/>
-      <c r="Q40" s="31"/>
-      <c r="R40" s="31"/>
-      <c r="S40" s="31"/>
-      <c r="T40" s="31"/>
-      <c r="U40" s="31"/>
-      <c r="V40" s="31"/>
-      <c r="W40" s="31"/>
-      <c r="X40" s="31"/>
-      <c r="Y40" s="31"/>
-      <c r="Z40" s="31"/>
-      <c r="AA40" s="31"/>
-      <c r="AB40" s="31"/>
-      <c r="AC40" s="31"/>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="31"/>
-      <c r="AF40" s="31"/>
-      <c r="AG40" s="31"/>
-      <c r="AH40" s="31"/>
-      <c r="AI40" s="31"/>
-      <c r="AJ40" s="31"/>
-      <c r="AK40" s="31"/>
-      <c r="AL40" s="31"/>
-      <c r="AM40" s="31"/>
-      <c r="AN40" s="31"/>
-      <c r="AO40" s="31"/>
-      <c r="AP40" s="31"/>
-      <c r="AQ40" s="31"/>
-      <c r="AR40" s="31"/>
-    </row>
-    <row r="41" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
-      <c r="O41" s="31"/>
-      <c r="P41" s="31"/>
-      <c r="Q41" s="31"/>
-      <c r="R41" s="31"/>
-      <c r="S41" s="31"/>
-      <c r="T41" s="31"/>
-      <c r="U41" s="31"/>
-      <c r="V41" s="31"/>
-      <c r="W41" s="31"/>
-      <c r="X41" s="31"/>
-      <c r="Y41" s="31"/>
-      <c r="Z41" s="31"/>
-      <c r="AA41" s="31"/>
-      <c r="AB41" s="31"/>
-      <c r="AC41" s="31"/>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="31"/>
-      <c r="AF41" s="31"/>
-      <c r="AG41" s="31"/>
-      <c r="AH41" s="31"/>
-      <c r="AI41" s="31"/>
-      <c r="AJ41" s="31"/>
-      <c r="AK41" s="31"/>
-      <c r="AL41" s="31"/>
-      <c r="AM41" s="31"/>
-      <c r="AN41" s="31"/>
-      <c r="AO41" s="31"/>
-      <c r="AP41" s="31"/>
-      <c r="AQ41" s="31"/>
-      <c r="AR41" s="31"/>
-    </row>
-    <row r="42" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
-      <c r="K42" s="31"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="31"/>
-      <c r="O42" s="31"/>
-      <c r="P42" s="31"/>
-      <c r="Q42" s="31"/>
-      <c r="R42" s="31"/>
-      <c r="S42" s="31"/>
-      <c r="T42" s="31"/>
-      <c r="U42" s="31"/>
-      <c r="V42" s="31"/>
-      <c r="W42" s="31"/>
-      <c r="X42" s="31"/>
-      <c r="Y42" s="31"/>
-      <c r="Z42" s="31"/>
-      <c r="AA42" s="31"/>
-      <c r="AB42" s="31"/>
-      <c r="AC42" s="31"/>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="31"/>
-      <c r="AF42" s="31"/>
-      <c r="AG42" s="31"/>
-      <c r="AH42" s="31"/>
-      <c r="AI42" s="31"/>
-      <c r="AJ42" s="31"/>
-      <c r="AK42" s="31"/>
-      <c r="AL42" s="31"/>
-      <c r="AM42" s="31"/>
-      <c r="AN42" s="31"/>
-      <c r="AO42" s="31"/>
-      <c r="AP42" s="31"/>
-      <c r="AQ42" s="31"/>
-      <c r="AR42" s="31"/>
-    </row>
-    <row r="43" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
-      <c r="K43" s="31"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="31"/>
-      <c r="O43" s="31"/>
-      <c r="P43" s="31"/>
-      <c r="Q43" s="31"/>
-      <c r="R43" s="31"/>
-      <c r="S43" s="31"/>
-      <c r="T43" s="31"/>
-      <c r="U43" s="31"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="31"/>
-      <c r="X43" s="31"/>
-      <c r="Y43" s="31"/>
-      <c r="Z43" s="31"/>
-      <c r="AA43" s="31"/>
-      <c r="AB43" s="31"/>
-      <c r="AC43" s="31"/>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="31"/>
-      <c r="AF43" s="31"/>
-      <c r="AG43" s="31"/>
-      <c r="AH43" s="31"/>
-      <c r="AI43" s="31"/>
-      <c r="AJ43" s="31"/>
-      <c r="AK43" s="31"/>
-      <c r="AL43" s="31"/>
-      <c r="AM43" s="31"/>
-      <c r="AN43" s="31"/>
-      <c r="AO43" s="31"/>
-      <c r="AP43" s="31"/>
-      <c r="AQ43" s="31"/>
-      <c r="AR43" s="31"/>
-    </row>
-    <row r="44" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="31"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="31"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-      <c r="T44" s="31"/>
-      <c r="U44" s="31"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="31"/>
-      <c r="X44" s="31"/>
-      <c r="Y44" s="31"/>
-      <c r="Z44" s="31"/>
-      <c r="AA44" s="31"/>
-      <c r="AB44" s="31"/>
-      <c r="AC44" s="31"/>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="31"/>
-      <c r="AF44" s="31"/>
-      <c r="AG44" s="31"/>
-      <c r="AH44" s="31"/>
-      <c r="AI44" s="31"/>
-      <c r="AJ44" s="31"/>
-      <c r="AK44" s="31"/>
-      <c r="AL44" s="31"/>
-      <c r="AM44" s="31"/>
-      <c r="AN44" s="31"/>
-      <c r="AO44" s="31"/>
-      <c r="AP44" s="31"/>
-      <c r="AQ44" s="31"/>
-      <c r="AR44" s="31"/>
-    </row>
-    <row r="45" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="31"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="31"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
-      <c r="S45" s="31"/>
-      <c r="T45" s="31"/>
-      <c r="U45" s="31"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="31"/>
-      <c r="X45" s="31"/>
-      <c r="Y45" s="31"/>
-      <c r="Z45" s="31"/>
-      <c r="AA45" s="31"/>
-      <c r="AB45" s="31"/>
-      <c r="AC45" s="31"/>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="31"/>
-      <c r="AF45" s="31"/>
-      <c r="AG45" s="31"/>
-      <c r="AH45" s="31"/>
-      <c r="AI45" s="31"/>
-      <c r="AJ45" s="31"/>
-      <c r="AK45" s="31"/>
-      <c r="AL45" s="31"/>
-      <c r="AM45" s="31"/>
-      <c r="AN45" s="31"/>
-      <c r="AO45" s="31"/>
-      <c r="AP45" s="31"/>
-      <c r="AQ45" s="31"/>
-      <c r="AR45" s="31"/>
-    </row>
-    <row r="46" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="31"/>
-      <c r="N46" s="31"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="31"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
-      <c r="S46" s="31"/>
-      <c r="T46" s="31"/>
-      <c r="U46" s="31"/>
-      <c r="V46" s="31"/>
-      <c r="W46" s="31"/>
-      <c r="X46" s="31"/>
-      <c r="Y46" s="31"/>
-      <c r="Z46" s="31"/>
-      <c r="AA46" s="31"/>
-      <c r="AB46" s="31"/>
-      <c r="AC46" s="31"/>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="31"/>
-      <c r="AF46" s="31"/>
-      <c r="AG46" s="31"/>
-      <c r="AH46" s="31"/>
-      <c r="AI46" s="31"/>
-      <c r="AJ46" s="31"/>
-      <c r="AK46" s="31"/>
-      <c r="AL46" s="31"/>
-      <c r="AM46" s="31"/>
-      <c r="AN46" s="31"/>
-      <c r="AO46" s="31"/>
-      <c r="AP46" s="31"/>
-      <c r="AQ46" s="31"/>
-      <c r="AR46" s="31"/>
-    </row>
-    <row r="47" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="31"/>
-      <c r="N47" s="31"/>
-      <c r="O47" s="31"/>
-      <c r="P47" s="31"/>
-      <c r="Q47" s="31"/>
-      <c r="R47" s="31"/>
-      <c r="S47" s="31"/>
-      <c r="T47" s="31"/>
-      <c r="U47" s="31"/>
-      <c r="V47" s="31"/>
-      <c r="W47" s="31"/>
-      <c r="X47" s="31"/>
-      <c r="Y47" s="31"/>
-      <c r="Z47" s="31"/>
-      <c r="AA47" s="31"/>
-      <c r="AB47" s="31"/>
-      <c r="AC47" s="31"/>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="31"/>
-      <c r="AF47" s="31"/>
-      <c r="AG47" s="31"/>
-      <c r="AH47" s="31"/>
-      <c r="AI47" s="31"/>
-      <c r="AJ47" s="31"/>
-      <c r="AK47" s="31"/>
-      <c r="AL47" s="31"/>
-      <c r="AM47" s="31"/>
-      <c r="AN47" s="31"/>
-      <c r="AO47" s="31"/>
-      <c r="AP47" s="31"/>
-      <c r="AQ47" s="31"/>
-      <c r="AR47" s="31"/>
-    </row>
-    <row r="48" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="31"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="31"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-      <c r="T48" s="31"/>
-      <c r="U48" s="31"/>
-      <c r="V48" s="31"/>
-      <c r="W48" s="31"/>
-      <c r="X48" s="31"/>
-      <c r="Y48" s="31"/>
-      <c r="Z48" s="31"/>
-      <c r="AA48" s="31"/>
-      <c r="AB48" s="31"/>
-      <c r="AC48" s="31"/>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="31"/>
-      <c r="AF48" s="31"/>
-      <c r="AG48" s="31"/>
-      <c r="AH48" s="31"/>
-      <c r="AI48" s="31"/>
-      <c r="AJ48" s="31"/>
-      <c r="AK48" s="31"/>
-      <c r="AL48" s="31"/>
-      <c r="AM48" s="31"/>
-      <c r="AN48" s="31"/>
-      <c r="AO48" s="31"/>
-      <c r="AP48" s="31"/>
-      <c r="AQ48" s="31"/>
-      <c r="AR48" s="31"/>
-    </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="31"/>
-      <c r="M49" s="31"/>
-      <c r="N49" s="31"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="31"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
-      <c r="S49" s="31"/>
-      <c r="T49" s="31"/>
-      <c r="U49" s="31"/>
-      <c r="V49" s="31"/>
-      <c r="W49" s="31"/>
-      <c r="X49" s="31"/>
-      <c r="Y49" s="31"/>
-      <c r="Z49" s="31"/>
-      <c r="AA49" s="31"/>
-      <c r="AB49" s="31"/>
-      <c r="AC49" s="31"/>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="31"/>
-      <c r="AF49" s="31"/>
-      <c r="AG49" s="31"/>
-      <c r="AH49" s="31"/>
-      <c r="AI49" s="31"/>
-      <c r="AJ49" s="31"/>
-      <c r="AK49" s="31"/>
-      <c r="AL49" s="31"/>
-      <c r="AM49" s="31"/>
-      <c r="AN49" s="31"/>
-      <c r="AO49" s="31"/>
-      <c r="AP49" s="31"/>
-      <c r="AQ49" s="31"/>
-      <c r="AR49" s="31"/>
-    </row>
-    <row r="50" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="31"/>
-      <c r="M50" s="31"/>
-      <c r="N50" s="31"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="31"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
-      <c r="S50" s="31"/>
-      <c r="T50" s="31"/>
-      <c r="U50" s="31"/>
-      <c r="V50" s="31"/>
-      <c r="W50" s="31"/>
-      <c r="X50" s="31"/>
-      <c r="Y50" s="31"/>
-      <c r="Z50" s="31"/>
-      <c r="AA50" s="31"/>
-      <c r="AB50" s="31"/>
-      <c r="AC50" s="31"/>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="31"/>
-      <c r="AF50" s="31"/>
-      <c r="AG50" s="31"/>
-      <c r="AH50" s="31"/>
-      <c r="AI50" s="31"/>
-      <c r="AJ50" s="31"/>
-      <c r="AK50" s="31"/>
-      <c r="AL50" s="31"/>
-      <c r="AM50" s="31"/>
-      <c r="AN50" s="31"/>
-      <c r="AO50" s="31"/>
-      <c r="AP50" s="31"/>
-      <c r="AQ50" s="31"/>
-      <c r="AR50" s="31"/>
-    </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
-      <c r="K51" s="31"/>
-      <c r="L51" s="31"/>
-      <c r="M51" s="31"/>
-      <c r="N51" s="31"/>
-      <c r="O51" s="31"/>
-      <c r="P51" s="31"/>
-      <c r="Q51" s="31"/>
-      <c r="R51" s="31"/>
-      <c r="S51" s="31"/>
-      <c r="T51" s="31"/>
-      <c r="U51" s="31"/>
-      <c r="V51" s="31"/>
-      <c r="W51" s="31"/>
-      <c r="X51" s="31"/>
-      <c r="Y51" s="31"/>
-      <c r="Z51" s="31"/>
-      <c r="AA51" s="31"/>
-      <c r="AB51" s="31"/>
-      <c r="AC51" s="31"/>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="31"/>
-      <c r="AF51" s="31"/>
-      <c r="AG51" s="31"/>
-      <c r="AH51" s="31"/>
-      <c r="AI51" s="31"/>
-      <c r="AJ51" s="31"/>
-      <c r="AK51" s="31"/>
-      <c r="AL51" s="31"/>
-      <c r="AM51" s="31"/>
-      <c r="AN51" s="31"/>
-      <c r="AO51" s="31"/>
-      <c r="AP51" s="31"/>
-      <c r="AQ51" s="31"/>
-      <c r="AR51" s="31"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B2:AR2"/>
-    <mergeCell ref="B3:AR25"/>
-    <mergeCell ref="B28:AR28"/>
-    <mergeCell ref="B29:AR51"/>
-  </mergeCells>
+  <sheetFormatPr defaultColWidth="2.57421875" defaultRowHeight="14.15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/DS/001_設計書/001_基本設計書/DS基本設計書.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,12 +13,11 @@
     <sheet name="業務フロー２" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="機能一覧表" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="ネットワーク構成" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="ER図" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="ヘッダイメージ画像" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="アプリ画面１" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="アプリ画面２" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="メモ" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="×" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="ヘッダイメージ画像" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="アプリ画面１" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="アプリ画面２" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="メモ" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="×" sheetId="10" state="visible" r:id="rId11"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <si>
     <t xml:space="preserve">DS基本設計書</t>
   </si>
@@ -402,39 +401,6 @@
     <t xml:space="preserve">ネットワーク構成</t>
   </si>
   <si>
-    <t xml:space="preserve">引用</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://app.diagrams.net/ </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ER</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">図</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://it-koala.com/entity-relationship-diagram-1897 </t>
-  </si>
-  <si>
     <t xml:space="preserve">https://products.sint.co.jp/obdz/blog/basic-design-detailed-design </t>
   </si>
   <si>
@@ -548,7 +514,7 @@
     <numFmt numFmtId="165" formatCode="[$-411]MM\月DD\日"/>
     <numFmt numFmtId="166" formatCode="YYYY/MM/DD"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -617,7 +583,7 @@
       <sz val="16"/>
       <color rgb="FF595959"/>
       <name val="BIZ UD明朝 Medium"/>
-      <family val="5"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -625,7 +591,7 @@
       <sz val="16"/>
       <color rgb="FF595959"/>
       <name val="BIZ UDP明朝 Medium"/>
-      <family val="3"/>
+      <family val="0"/>
       <charset val="128"/>
     </font>
     <font>
@@ -665,7 +631,13 @@
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <family val="0"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="2"/>
       <charset val="128"/>
     </font>
     <font>
@@ -707,21 +679,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -750,8 +707,8 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="BIZ UDゴシック"/>
-      <family val="3"/>
-      <charset val="1"/>
+      <family val="0"/>
+      <charset val="128"/>
     </font>
     <font>
       <b val="true"/>
@@ -896,7 +853,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -993,7 +950,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1009,11 +966,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1021,19 +978,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,7 +990,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1130,9 +1079,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1142,7 +1091,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="620280" y="685800"/>
-          <a:ext cx="2481120" cy="906480"/>
+          <a:ext cx="2480760" cy="906120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,9 +1149,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1212,7 +1161,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="685800"/>
-          <a:ext cx="2481120" cy="906480"/>
+          <a:ext cx="2480760" cy="906120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1270,9 +1219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1282,7 +1231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="685800"/>
-          <a:ext cx="2481120" cy="906480"/>
+          <a:ext cx="2480760" cy="906120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1340,9 +1289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:rowOff>91080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1352,7 +1301,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="620280" y="2514600"/>
-          <a:ext cx="2481120" cy="906480"/>
+          <a:ext cx="2480760" cy="906120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,7 +1381,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1442,7 +1391,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1861560" y="1592640"/>
-          <a:ext cx="360" cy="921600"/>
+          <a:ext cx="360" cy="921240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1489,7 +1438,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1499,7 +1448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="1593720"/>
-          <a:ext cx="360" cy="2520720"/>
+          <a:ext cx="360" cy="2520360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1546,7 +1495,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1556,7 +1505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10546560" y="1592640"/>
-          <a:ext cx="360" cy="10522800"/>
+          <a:ext cx="360" cy="10522440"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1601,9 +1550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1613,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3102480" y="2978640"/>
-          <a:ext cx="1860120" cy="1600560"/>
+          <a:ext cx="1859760" cy="1600200"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1658,9 +1607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1670,7 +1619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="4114800"/>
-          <a:ext cx="2481120" cy="907560"/>
+          <a:ext cx="2480760" cy="907200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1728,9 +1677,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1740,7 +1689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="7315200"/>
-          <a:ext cx="2481120" cy="909000"/>
+          <a:ext cx="2480760" cy="908640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1798,9 +1747,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>11160</xdr:rowOff>
+      <xdr:rowOff>10800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1810,7 +1759,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="8915400"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1868,9 +1817,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1880,7 +1829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="10515600"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1938,9 +1887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>57240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1950,7 +1899,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="12115800"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,9 +1957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>83</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2020,7 +1969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="13716000"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2078,9 +2027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2090,7 +2039,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7445160" y="10971000"/>
-          <a:ext cx="1860120" cy="1600200"/>
+          <a:ext cx="1859760" cy="1599840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2135,9 +2084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>92</xdr:row>
-      <xdr:rowOff>102600</xdr:rowOff>
+      <xdr:rowOff>102240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2147,7 +2096,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="15316200"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2198,16 +2147,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>150840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2216,8 +2165,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7444440" y="14171400"/>
-          <a:ext cx="1860480" cy="1599480"/>
+          <a:off x="7443720" y="14171400"/>
+          <a:ext cx="1860120" cy="1599120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2262,9 +2211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>101</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2274,7 +2223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="16916400"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2332,9 +2281,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>148320</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2344,7 +2293,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="18516600"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2402,9 +2351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>119</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2414,7 +2363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="20116800"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2472,9 +2421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>137880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2484,7 +2433,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="5715000"/>
-          <a:ext cx="2481120" cy="907560"/>
+          <a:ext cx="2480760" cy="907200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2544,7 +2493,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>123</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2554,7 +2503,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10546560" y="21027960"/>
-          <a:ext cx="360" cy="688680"/>
+          <a:ext cx="360" cy="688320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2599,9 +2548,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>129</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2611,7 +2560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="21717000"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2669,9 +2618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>138</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2681,7 +2630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="23317200"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2739,9 +2688,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>64080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2751,7 +2700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="24917400"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2802,16 +2751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>135</xdr:row>
       <xdr:rowOff>112680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>619560</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>144</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2820,8 +2769,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7444440" y="23772600"/>
-          <a:ext cx="1860480" cy="1599480"/>
+          <a:off x="7443720" y="23772600"/>
+          <a:ext cx="1860120" cy="1599120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2866,9 +2815,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>87480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2878,7 +2827,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="26517600"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2936,9 +2885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>165</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2948,7 +2897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="620280" y="28117800"/>
-          <a:ext cx="2481120" cy="909360"/>
+          <a:ext cx="2480760" cy="909000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3006,9 +2955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>174</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3018,7 +2967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="29718000"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3076,9 +3025,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>183</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3088,7 +3037,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="31318200"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3140,15 +3089,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>153</xdr:row>
       <xdr:rowOff>158400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>618840</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3157,8 +3106,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3102480" y="26973000"/>
-          <a:ext cx="6202800" cy="1599120"/>
+          <a:off x="3101760" y="26973000"/>
+          <a:ext cx="6202440" cy="1598760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3205,7 +3154,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>151</xdr:row>
-      <xdr:rowOff>53280</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3215,7 +3164,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10546560" y="24228360"/>
-          <a:ext cx="360" cy="2288880"/>
+          <a:ext cx="360" cy="2288520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3260,9 +3209,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>172</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3272,7 +3221,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3102480" y="28572840"/>
-          <a:ext cx="1860120" cy="1600200"/>
+          <a:ext cx="1859760" cy="1599840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3319,7 +3268,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>178</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3329,7 +3278,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="30628440"/>
-          <a:ext cx="360" cy="689400"/>
+          <a:ext cx="360" cy="689040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3376,7 +3325,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>187</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3386,7 +3335,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="32228640"/>
-          <a:ext cx="360" cy="689400"/>
+          <a:ext cx="360" cy="689040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3431,9 +3380,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>193</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3443,7 +3392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="32918400"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3501,9 +3450,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3513,7 +3462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="34518600"/>
-          <a:ext cx="2481120" cy="910080"/>
+          <a:ext cx="2480760" cy="909720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3571,9 +3520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3583,7 +3532,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="620280" y="34518600"/>
-          <a:ext cx="2481120" cy="909360"/>
+          <a:ext cx="2480760" cy="909000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3641,9 +3590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>202</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3653,7 +3602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="34518600"/>
-          <a:ext cx="2481120" cy="910800"/>
+          <a:ext cx="2480760" cy="910440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3713,7 +3662,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3723,7 +3672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="5022720"/>
-          <a:ext cx="360" cy="691920"/>
+          <a:ext cx="360" cy="691560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3770,7 +3719,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3780,7 +3729,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="6622920"/>
-          <a:ext cx="360" cy="691920"/>
+          <a:ext cx="360" cy="691560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3827,7 +3776,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3837,7 +3786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="8224560"/>
-          <a:ext cx="360" cy="690480"/>
+          <a:ext cx="360" cy="690120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3884,7 +3833,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3894,7 +3843,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="9825840"/>
-          <a:ext cx="360" cy="689400"/>
+          <a:ext cx="360" cy="689040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3941,7 +3890,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>78</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3951,7 +3900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10546560" y="13026960"/>
-          <a:ext cx="360" cy="688680"/>
+          <a:ext cx="360" cy="688320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3998,7 +3947,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>96</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4008,7 +3957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="16226640"/>
-          <a:ext cx="360" cy="689400"/>
+          <a:ext cx="360" cy="689040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4055,7 +4004,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>105</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4065,7 +4014,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="17826840"/>
-          <a:ext cx="360" cy="689400"/>
+          <a:ext cx="360" cy="689040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4110,9 +4059,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>66960</xdr:rowOff>
+      <xdr:rowOff>66600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4122,7 +4071,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7445160" y="18972000"/>
-          <a:ext cx="1860120" cy="1600200"/>
+          <a:ext cx="1859760" cy="1599840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4169,7 +4118,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>133</xdr:row>
-      <xdr:rowOff>7560</xdr:rowOff>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4179,7 +4128,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10546560" y="22628160"/>
-          <a:ext cx="360" cy="688680"/>
+          <a:ext cx="360" cy="688320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4226,7 +4175,7 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>360</xdr:colOff>
       <xdr:row>196</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4236,7 +4185,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6203880" y="33828840"/>
-          <a:ext cx="360" cy="689400"/>
+          <a:ext cx="360" cy="689040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4286,9 +4235,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>47160</xdr:colOff>
+      <xdr:colOff>46800</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:rowOff>133560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4298,7 +4247,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2492280" y="457200"/>
-          <a:ext cx="2517840" cy="903240"/>
+          <a:ext cx="2517480" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -4355,9 +4304,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4367,7 +4316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="2275200"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4424,9 +4373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:rowOff>142920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4436,7 +4385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="4114800"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4502,9 +4451,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4514,7 +4463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="5943600"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4580,9 +4529,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4592,7 +4541,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="7772400"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4658,9 +4607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4670,7 +4619,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="9601200"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -4727,9 +4676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4739,7 +4688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="11212200"/>
-          <a:ext cx="2525760" cy="903240"/>
+          <a:ext cx="2525400" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -4790,15 +4739,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>134280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>2160</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4807,8 +4756,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="3722760" y="1360800"/>
-          <a:ext cx="1440" cy="914040"/>
+          <a:off x="3722040" y="1360800"/>
+          <a:ext cx="1080" cy="913680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4855,7 +4804,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>83520</xdr:rowOff>
+      <xdr:rowOff>83160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4865,7 +4814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="3211200"/>
-          <a:ext cx="360" cy="903240"/>
+          <a:ext cx="360" cy="902880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4912,7 +4861,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4922,7 +4871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="5050800"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4969,7 +4918,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>60840</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4979,7 +4928,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="6879600"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5026,7 +4975,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>136800</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5036,7 +4985,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="8708400"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5077,13 +5026,13 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>619560</xdr:colOff>
       <xdr:row>91</xdr:row>
-      <xdr:rowOff>42120</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>618840</xdr:colOff>
+      <xdr:colOff>618480</xdr:colOff>
       <xdr:row>145</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5092,8 +5041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12407040" y="15990480"/>
-          <a:ext cx="7443720" cy="9578880"/>
+          <a:off x="12407040" y="15989400"/>
+          <a:ext cx="7443360" cy="9578520"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -5125,9 +5074,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5137,7 +5086,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7445160" y="11201400"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5213,9 +5162,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>620640</xdr:colOff>
+      <xdr:colOff>620280</xdr:colOff>
       <xdr:row>66</xdr:row>
-      <xdr:rowOff>101880</xdr:rowOff>
+      <xdr:rowOff>101520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5225,7 +5174,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5007600" y="11664000"/>
-          <a:ext cx="2437200" cy="5040"/>
+          <a:ext cx="2436840" cy="4680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5270,9 +5219,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249480</xdr:colOff>
       <xdr:row>73</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5282,7 +5231,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4342680" y="12344400"/>
-          <a:ext cx="2111040" cy="543960"/>
+          <a:ext cx="2110680" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5339,9 +5288,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
+      <xdr:colOff>250200</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5351,7 +5300,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4963680" y="10972800"/>
-          <a:ext cx="2111040" cy="543960"/>
+          <a:ext cx="2110680" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5417,9 +5366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5429,7 +5378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="13030200"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5486,9 +5435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>43920</xdr:colOff>
+      <xdr:colOff>43560</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5498,7 +5447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2492280" y="14869800"/>
-          <a:ext cx="2514600" cy="903240"/>
+          <a:ext cx="2514240" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -5555,9 +5504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5567,7 +5516,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="16687800"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5624,9 +5573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>110</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5636,7 +5585,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2525040" y="18516600"/>
-          <a:ext cx="2482200" cy="935640"/>
+          <a:ext cx="2481840" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -5693,9 +5642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>44280</xdr:colOff>
+      <xdr:colOff>43920</xdr:colOff>
       <xdr:row>121</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5705,7 +5654,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="20345400"/>
-          <a:ext cx="2525760" cy="903240"/>
+          <a:ext cx="2525400" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartDecision">
           <a:avLst/>
@@ -5771,9 +5720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>139</xdr:row>
-      <xdr:rowOff>11880</xdr:rowOff>
+      <xdr:rowOff>11520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5783,7 +5732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5583960" y="21488400"/>
-          <a:ext cx="3743640" cy="2884320"/>
+          <a:ext cx="3743280" cy="2883960"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -5870,9 +5819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>33120</xdr:colOff>
+      <xdr:colOff>32760</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5882,7 +5831,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="24003000"/>
-          <a:ext cx="2514600" cy="903240"/>
+          <a:ext cx="2514240" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartManualInput">
           <a:avLst/>
@@ -5939,9 +5888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5951,7 +5900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="22174200"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6008,9 +5957,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6020,7 +5969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9306360" y="4114800"/>
-          <a:ext cx="3743640" cy="5725440"/>
+          <a:ext cx="3743280" cy="5725080"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -6240,9 +6189,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6252,7 +6201,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="25831800"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6309,9 +6258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6321,7 +6270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="27660600"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6378,9 +6327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>36360</xdr:colOff>
+      <xdr:colOff>36000</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6390,7 +6339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2481480" y="29489400"/>
-          <a:ext cx="2517840" cy="903240"/>
+          <a:ext cx="2517480" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6447,9 +6396,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>131</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6459,7 +6408,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9926280" y="22174200"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6516,9 +6465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>142</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6528,7 +6477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9926280" y="24003000"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6585,9 +6534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>152</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6597,7 +6546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9926280" y="25831800"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6654,9 +6603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>163</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6666,7 +6615,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9926280" y="27660600"/>
-          <a:ext cx="2481120" cy="935640"/>
+          <a:ext cx="2480760" cy="935280"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -6723,9 +6672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>35640</xdr:colOff>
+      <xdr:colOff>35280</xdr:colOff>
       <xdr:row>173</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6735,7 +6684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9926280" y="29489400"/>
-          <a:ext cx="2517120" cy="903240"/>
+          <a:ext cx="2516760" cy="902880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -6794,7 +6743,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>85</xdr:row>
-      <xdr:rowOff>63000</xdr:rowOff>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6804,7 +6753,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="13966200"/>
-          <a:ext cx="360" cy="993600"/>
+          <a:ext cx="360" cy="993240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6851,7 +6800,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6861,7 +6810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="15773400"/>
-          <a:ext cx="360" cy="914040"/>
+          <a:ext cx="360" cy="913680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6906,9 +6855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
+      <xdr:colOff>49320</xdr:colOff>
       <xdr:row>116</xdr:row>
-      <xdr:rowOff>15120</xdr:rowOff>
+      <xdr:rowOff>14760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6918,7 +6867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3766680" y="19452600"/>
-          <a:ext cx="5040" cy="892440"/>
+          <a:ext cx="4680" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6965,7 +6914,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6975,7 +6924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3722760" y="26767800"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7020,9 +6969,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>619920</xdr:colOff>
+      <xdr:colOff>619560</xdr:colOff>
       <xdr:row>126</xdr:row>
-      <xdr:rowOff>91080</xdr:rowOff>
+      <xdr:rowOff>90720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7032,7 +6981,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5007600" y="20797200"/>
-          <a:ext cx="6158880" cy="1376640"/>
+          <a:ext cx="6158520" cy="1376280"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -7066,7 +7015,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7076,7 +7025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11167560" y="23110200"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7123,7 +7072,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>147</xdr:row>
-      <xdr:rowOff>68400</xdr:rowOff>
+      <xdr:rowOff>68040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7133,7 +7082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11167560" y="24939000"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7180,7 +7129,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>1080</xdr:colOff>
       <xdr:row>157</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>144360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7190,7 +7139,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11167560" y="26767800"/>
-          <a:ext cx="360" cy="892440"/>
+          <a:ext cx="360" cy="892080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7235,9 +7184,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>555480</xdr:colOff>
+      <xdr:colOff>555120</xdr:colOff>
       <xdr:row>125</xdr:row>
-      <xdr:rowOff>70560</xdr:rowOff>
+      <xdr:rowOff>70200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7247,7 +7196,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1546200" y="21434040"/>
-          <a:ext cx="2111040" cy="543960"/>
+          <a:ext cx="2110680" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7304,9 +7253,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>250560</xdr:colOff>
+      <xdr:colOff>250200</xdr:colOff>
       <xdr:row>117</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7316,7 +7265,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5583960" y="20116800"/>
-          <a:ext cx="2111040" cy="543960"/>
+          <a:ext cx="2110680" cy="543600"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -7378,9 +7327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>62</xdr:col>
-      <xdr:colOff>18000</xdr:colOff>
+      <xdr:colOff>17640</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>82440</xdr:rowOff>
+      <xdr:rowOff>82080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7390,7 +7339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3271320" y="307080"/>
-          <a:ext cx="7809480" cy="5040720"/>
+          <a:ext cx="7809120" cy="5040360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7518,9 +7467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>168120</xdr:colOff>
+      <xdr:colOff>167760</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>42120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7530,7 +7479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5334480" y="516960"/>
-          <a:ext cx="1078560" cy="934920"/>
+          <a:ext cx="1078200" cy="934560"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -7586,9 +7535,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>38520</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>97560</xdr:rowOff>
+      <xdr:rowOff>97200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7602,7 +7551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4699080" y="4125960"/>
-          <a:ext cx="1941480" cy="1587240"/>
+          <a:ext cx="1941120" cy="1586880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7623,9 +7572,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>110880</xdr:colOff>
+      <xdr:colOff>110520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>93600</xdr:rowOff>
+      <xdr:rowOff>93240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7635,7 +7584,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5105160" y="3871440"/>
-          <a:ext cx="1250640" cy="260640"/>
+          <a:ext cx="1250280" cy="260280"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -7693,9 +7642,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>60</xdr:col>
-      <xdr:colOff>28080</xdr:colOff>
+      <xdr:colOff>27720</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7709,7 +7658,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8426160" y="2710440"/>
-          <a:ext cx="2307960" cy="1150200"/>
+          <a:ext cx="2307600" cy="1149840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7730,9 +7679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>171360</xdr:colOff>
+      <xdr:colOff>171000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7742,7 +7691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8948520" y="2380320"/>
-          <a:ext cx="1036440" cy="284760"/>
+          <a:ext cx="1036080" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -7809,9 +7758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5760</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>9000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7825,7 +7774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2053080" y="7479000"/>
-          <a:ext cx="451080" cy="599760"/>
+          <a:ext cx="450720" cy="599400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7846,9 +7795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>54360</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7858,7 +7807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2409480" y="8089920"/>
-          <a:ext cx="1035000" cy="284760"/>
+          <a:ext cx="1034640" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -7916,9 +7865,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7932,7 +7881,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3390840" y="7468560"/>
-          <a:ext cx="452520" cy="599760"/>
+          <a:ext cx="452160" cy="599400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7953,9 +7902,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>135720</xdr:colOff>
+      <xdr:colOff>135360</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7969,7 +7918,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2716560" y="7468560"/>
-          <a:ext cx="452520" cy="599760"/>
+          <a:ext cx="452160" cy="599400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7990,9 +7939,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>16920</xdr:rowOff>
+      <xdr:rowOff>16560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8006,7 +7955,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4917240" y="7498440"/>
-          <a:ext cx="451080" cy="587880"/>
+          <a:ext cx="450720" cy="587520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8027,9 +7976,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>64080</xdr:colOff>
+      <xdr:colOff>63720</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8039,7 +7988,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5274000" y="8069760"/>
-          <a:ext cx="1035000" cy="284760"/>
+          <a:ext cx="1034640" cy="284400"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -8097,9 +8046,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>105840</xdr:colOff>
+      <xdr:colOff>105480</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8113,7 +8062,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6255000" y="7488000"/>
-          <a:ext cx="452880" cy="587880"/>
+          <a:ext cx="452520" cy="587520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8134,9 +8083,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
+      <xdr:colOff>145080</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>6480</xdr:rowOff>
+      <xdr:rowOff>6120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8150,7 +8099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5581080" y="7488000"/>
-          <a:ext cx="452520" cy="587880"/>
+          <a:ext cx="452160" cy="587520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8507,9 +8456,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>48240</xdr:colOff>
+      <xdr:colOff>47880</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>94320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8519,7 +8468,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1636200" y="6926040"/>
-          <a:ext cx="2694240" cy="1764000"/>
+          <a:ext cx="2693880" cy="1763640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8647,9 +8596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>127440</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8659,7 +8608,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4748760" y="6945480"/>
-          <a:ext cx="2694240" cy="1764000"/>
+          <a:ext cx="2693880" cy="1763640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8787,9 +8736,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8799,7 +8748,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7008480" y="386640"/>
-          <a:ext cx="5074200" cy="1015200"/>
+          <a:ext cx="5073840" cy="1014840"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8869,9 +8818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>67</xdr:col>
-      <xdr:colOff>108000</xdr:colOff>
+      <xdr:colOff>107640</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8881,7 +8830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6762240" y="5340960"/>
-          <a:ext cx="5300640" cy="1004040"/>
+          <a:ext cx="5300280" cy="1003680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -8941,9 +8890,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>82</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8953,7 +8902,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8496000" y="4206600"/>
-          <a:ext cx="6263640" cy="1004040"/>
+          <a:ext cx="6263280" cy="1003680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9013,9 +8962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:rowOff>99360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9025,7 +8974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1240200" y="8917560"/>
-          <a:ext cx="2813400" cy="1004040"/>
+          <a:ext cx="2813040" cy="1003680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9104,9 +9053,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147600</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9116,7 +9065,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4560480" y="8938080"/>
-          <a:ext cx="3438360" cy="1004040"/>
+          <a:ext cx="3438000" cy="1003680"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -9176,9 +9125,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9188,7 +9137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3410280" y="2174760"/>
-          <a:ext cx="1036080" cy="272520"/>
+          <a:ext cx="1035720" cy="272160"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -9251,9 +9200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9263,7 +9212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568520" cy="5093640"/>
+          <a:ext cx="10568160" cy="5093280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9296,9 +9245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9308,7 +9257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568520" cy="304920"/>
+          <a:ext cx="10568160" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9365,9 +9314,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>46440</xdr:colOff>
+      <xdr:colOff>46080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9720</xdr:rowOff>
+      <xdr:rowOff>9360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9377,7 +9326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="572760" y="487080"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9434,9 +9383,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>110160</xdr:colOff>
+      <xdr:colOff>109800</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9446,7 +9395,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3219840" y="489960"/>
-          <a:ext cx="2630520" cy="398880"/>
+          <a:ext cx="2630160" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9503,9 +9452,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>165960</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9515,7 +9464,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5859000" y="489960"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9572,9 +9521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>222480</xdr:colOff>
+      <xdr:colOff>222120</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>12600</xdr:rowOff>
+      <xdr:rowOff>12240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9584,7 +9533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8498160" y="489960"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9641,9 +9590,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9653,7 +9602,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="577800" y="876240"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9710,9 +9659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>51480</xdr:colOff>
+      <xdr:colOff>51120</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9722,7 +9671,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="577800" y="1272240"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9779,9 +9728,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9791,7 +9740,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3217320" y="876240"/>
-          <a:ext cx="2630520" cy="398880"/>
+          <a:ext cx="2630160" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9848,9 +9797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9860,7 +9809,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3217320" y="1272240"/>
-          <a:ext cx="2630520" cy="398880"/>
+          <a:ext cx="2630160" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9917,9 +9866,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>107640</xdr:colOff>
+      <xdr:colOff>107280</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9929,7 +9878,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3217320" y="1654200"/>
-          <a:ext cx="2630520" cy="398880"/>
+          <a:ext cx="2630160" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9986,9 +9935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>48960</xdr:rowOff>
+      <xdr:rowOff>48600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9998,7 +9947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5856480" y="876600"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10055,9 +10004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>94320</xdr:rowOff>
+      <xdr:rowOff>93960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10067,7 +10016,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5856480" y="1272600"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10124,9 +10073,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10136,7 +10085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5856480" y="1654560"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10193,9 +10142,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>219960</xdr:colOff>
+      <xdr:colOff>219600</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>48600</xdr:rowOff>
+      <xdr:rowOff>48240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10205,7 +10154,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8495640" y="876240"/>
-          <a:ext cx="2630880" cy="398880"/>
+          <a:ext cx="2630520" cy="398520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10262,9 +10211,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>250920</xdr:colOff>
+      <xdr:colOff>250560</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10274,7 +10223,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2712240" y="2502360"/>
-          <a:ext cx="5862240" cy="1376280"/>
+          <a:ext cx="5861880" cy="1375920"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -10320,7 +10269,6 @@
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="BIZ UDゴシック"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -10341,7 +10289,6 @@
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="BIZ UDゴシック"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
@@ -10362,7 +10309,6 @@
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1600" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
-            <a:ea typeface="BIZ UDゴシック"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -10383,9 +10329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>3600</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10395,7 +10341,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568520" cy="5093640"/>
+          <a:ext cx="10568160" cy="5093280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10428,9 +10374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235800</xdr:colOff>
+      <xdr:colOff>235440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10440,7 +10386,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="573840" y="167760"/>
-          <a:ext cx="10568520" cy="304920"/>
+          <a:ext cx="10568160" cy="304560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10497,9 +10443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>285480</xdr:colOff>
+      <xdr:colOff>285120</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10509,7 +10455,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="892440" y="601920"/>
-          <a:ext cx="9438480" cy="1796040"/>
+          <a:ext cx="9438120" cy="1795680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10563,9 +10509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10575,7 +10521,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3550680" y="3818160"/>
-          <a:ext cx="1244880" cy="347760"/>
+          <a:ext cx="1244520" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10629,9 +10575,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10641,7 +10587,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="907560" y="3810600"/>
-          <a:ext cx="2476440" cy="347760"/>
+          <a:ext cx="2476080" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10695,9 +10641,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>135360</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10707,7 +10653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="892440" y="4313520"/>
-          <a:ext cx="3911040" cy="378360"/>
+          <a:ext cx="3910680" cy="378000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10761,9 +10707,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>158400</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10773,7 +10719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="892440" y="2552760"/>
-          <a:ext cx="4355640" cy="1110600"/>
+          <a:ext cx="4355280" cy="1110240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10832,9 +10778,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10844,7 +10790,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="581400" y="167400"/>
-          <a:ext cx="3935160" cy="4044240"/>
+          <a:ext cx="3934800" cy="4043880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10877,9 +10823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>43200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10889,7 +10835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="581400" y="167400"/>
-          <a:ext cx="3935160" cy="226440"/>
+          <a:ext cx="3934800" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10943,9 +10889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10955,7 +10901,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="892080" y="601920"/>
-          <a:ext cx="3322800" cy="1262520"/>
+          <a:ext cx="3322440" cy="1262160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11009,9 +10955,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81720</xdr:colOff>
+      <xdr:colOff>81360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>20160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11021,7 +10967,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3408840" y="2827440"/>
-          <a:ext cx="978120" cy="347760"/>
+          <a:ext cx="977760" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11075,9 +11021,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180720</xdr:colOff>
+      <xdr:colOff>180360</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11087,7 +11033,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="869040" y="2812320"/>
-          <a:ext cx="2468880" cy="347760"/>
+          <a:ext cx="2468520" cy="347400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11141,9 +11087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>89280</xdr:colOff>
+      <xdr:colOff>88920</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>142920</xdr:rowOff>
+      <xdr:rowOff>142560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11153,7 +11099,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="848880" y="3269520"/>
-          <a:ext cx="3545640" cy="378360"/>
+          <a:ext cx="3545280" cy="378000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11207,9 +11153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -11219,7 +11165,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="884520" y="1950480"/>
-          <a:ext cx="2499480" cy="768240"/>
+          <a:ext cx="2499120" cy="767880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11274,7 +11220,7 @@
   </sheetPr>
   <dimension ref="A1:AZ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -14024,122 +13970,6 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:C12"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="26.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="34.56"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C1" s="33"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="30" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="34" t="s">
-        <v>68</v>
-      </c>
-      <c r="C5" s="35" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="35" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="https://products.sint.co.jp/obdz/blog/basic-design-detailed-design "/>
-    <hyperlink ref="B11" r:id="rId2" display="https://note.com/sudatakashi/n/n8222b9d91b97 "/>
-    <hyperlink ref="B12" r:id="rId3" display="https://elegantt.com/ "/>
-  </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -14254,7 +14084,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1020" style="0" width="11.65"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16592,61 +16422,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:U3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="AO19" activeCellId="0" sqref="AO19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.55859375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="S1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="U1" s="31" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="U2" s="31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:L3"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="U1" r:id="rId1" display="https://app.diagrams.net/ "/>
-    <hyperlink ref="U2" r:id="rId2" display="https://it-koala.com/entity-relationship-diagram-1897 "/>
-  </hyperlinks>
+  <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16654,6 +16437,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -16664,8 +16448,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AO19" activeCellId="0" sqref="AO19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16689,7 +16473,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AP8" activeCellId="0" sqref="AP8"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16710,14 +16494,107 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.11328125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="30" width="26.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="30" width="34.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B1" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" s="31"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://products.sint.co.jp/obdz/blog/basic-design-detailed-design "/>
+    <hyperlink ref="B11" r:id="rId2" display="https://note.com/sudatakashi/n/n8222b9d91b97 "/>
+    <hyperlink ref="B12" r:id="rId3" display="https://elegantt.com/ "/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -16725,6 +16602,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/DS/001_設計書/001_基本設計書/DS基本設計書.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j.ishii\Documents\DeliverySystem\DS\001_設計書\001_基本設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0ta52\Documents\DeliverySystem\DS\001_設計書\001_基本設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2601E30-4A97-4682-93D1-01D9D66623E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17A1A42B-D7A7-48A8-A9C6-8F67EDEDE4F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -1122,7 +1122,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1186,8 +1186,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1210,34 +1208,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1257,9 +1228,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1291,8 +1259,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,6 +1295,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -14131,9 +14130,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="64" width="2.75" style="1"/>
+    <col min="1" max="64" width="2.77734375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" ht="10.5" customHeight="1">
@@ -14577,44 +14576,44 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="37" t="s">
+      <c r="I9" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="37"/>
-      <c r="AE9" s="37"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="37"/>
-      <c r="AI9" s="37"/>
-      <c r="AJ9" s="37"/>
-      <c r="AK9" s="37"/>
-      <c r="AL9" s="37"/>
-      <c r="AM9" s="37"/>
-      <c r="AN9" s="37"/>
-      <c r="AO9" s="37"/>
-      <c r="AP9" s="37"/>
-      <c r="AQ9" s="37"/>
-      <c r="AR9" s="37"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="35"/>
+      <c r="AA9" s="35"/>
+      <c r="AB9" s="35"/>
+      <c r="AC9" s="35"/>
+      <c r="AD9" s="35"/>
+      <c r="AE9" s="35"/>
+      <c r="AF9" s="35"/>
+      <c r="AG9" s="35"/>
+      <c r="AH9" s="35"/>
+      <c r="AI9" s="35"/>
+      <c r="AJ9" s="35"/>
+      <c r="AK9" s="35"/>
+      <c r="AL9" s="35"/>
+      <c r="AM9" s="35"/>
+      <c r="AN9" s="35"/>
+      <c r="AO9" s="35"/>
+      <c r="AP9" s="35"/>
+      <c r="AQ9" s="35"/>
+      <c r="AR9" s="35"/>
       <c r="AS9" s="9"/>
       <c r="AT9" s="9"/>
       <c r="AU9" s="9"/>
@@ -14633,42 +14632,42 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="37"/>
-      <c r="AB10" s="37"/>
-      <c r="AC10" s="37"/>
-      <c r="AD10" s="37"/>
-      <c r="AE10" s="37"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="37"/>
-      <c r="AH10" s="37"/>
-      <c r="AI10" s="37"/>
-      <c r="AJ10" s="37"/>
-      <c r="AK10" s="37"/>
-      <c r="AL10" s="37"/>
-      <c r="AM10" s="37"/>
-      <c r="AN10" s="37"/>
-      <c r="AO10" s="37"/>
-      <c r="AP10" s="37"/>
-      <c r="AQ10" s="37"/>
-      <c r="AR10" s="37"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="35"/>
+      <c r="X10" s="35"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="35"/>
+      <c r="AB10" s="35"/>
+      <c r="AC10" s="35"/>
+      <c r="AD10" s="35"/>
+      <c r="AE10" s="35"/>
+      <c r="AF10" s="35"/>
+      <c r="AG10" s="35"/>
+      <c r="AH10" s="35"/>
+      <c r="AI10" s="35"/>
+      <c r="AJ10" s="35"/>
+      <c r="AK10" s="35"/>
+      <c r="AL10" s="35"/>
+      <c r="AM10" s="35"/>
+      <c r="AN10" s="35"/>
+      <c r="AO10" s="35"/>
+      <c r="AP10" s="35"/>
+      <c r="AQ10" s="35"/>
+      <c r="AR10" s="35"/>
       <c r="AS10" s="9"/>
       <c r="AT10" s="9"/>
       <c r="AU10" s="9"/>
@@ -14687,42 +14686,42 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="37"/>
-      <c r="AB11" s="37"/>
-      <c r="AC11" s="37"/>
-      <c r="AD11" s="37"/>
-      <c r="AE11" s="37"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="37"/>
-      <c r="AH11" s="37"/>
-      <c r="AI11" s="37"/>
-      <c r="AJ11" s="37"/>
-      <c r="AK11" s="37"/>
-      <c r="AL11" s="37"/>
-      <c r="AM11" s="37"/>
-      <c r="AN11" s="37"/>
-      <c r="AO11" s="37"/>
-      <c r="AP11" s="37"/>
-      <c r="AQ11" s="37"/>
-      <c r="AR11" s="37"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="35"/>
+      <c r="AB11" s="35"/>
+      <c r="AC11" s="35"/>
+      <c r="AD11" s="35"/>
+      <c r="AE11" s="35"/>
+      <c r="AF11" s="35"/>
+      <c r="AG11" s="35"/>
+      <c r="AH11" s="35"/>
+      <c r="AI11" s="35"/>
+      <c r="AJ11" s="35"/>
+      <c r="AK11" s="35"/>
+      <c r="AL11" s="35"/>
+      <c r="AM11" s="35"/>
+      <c r="AN11" s="35"/>
+      <c r="AO11" s="35"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
       <c r="AS11" s="9"/>
       <c r="AT11" s="9"/>
       <c r="AU11" s="9"/>
@@ -14741,42 +14740,42 @@
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="37"/>
-      <c r="AB12" s="37"/>
-      <c r="AC12" s="37"/>
-      <c r="AD12" s="37"/>
-      <c r="AE12" s="37"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="37"/>
-      <c r="AH12" s="37"/>
-      <c r="AI12" s="37"/>
-      <c r="AJ12" s="37"/>
-      <c r="AK12" s="37"/>
-      <c r="AL12" s="37"/>
-      <c r="AM12" s="37"/>
-      <c r="AN12" s="37"/>
-      <c r="AO12" s="37"/>
-      <c r="AP12" s="37"/>
-      <c r="AQ12" s="37"/>
-      <c r="AR12" s="37"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="35"/>
+      <c r="X12" s="35"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35"/>
+      <c r="AB12" s="35"/>
+      <c r="AC12" s="35"/>
+      <c r="AD12" s="35"/>
+      <c r="AE12" s="35"/>
+      <c r="AF12" s="35"/>
+      <c r="AG12" s="35"/>
+      <c r="AH12" s="35"/>
+      <c r="AI12" s="35"/>
+      <c r="AJ12" s="35"/>
+      <c r="AK12" s="35"/>
+      <c r="AL12" s="35"/>
+      <c r="AM12" s="35"/>
+      <c r="AN12" s="35"/>
+      <c r="AO12" s="35"/>
+      <c r="AP12" s="35"/>
+      <c r="AQ12" s="35"/>
+      <c r="AR12" s="35"/>
       <c r="AS12" s="9"/>
       <c r="AT12" s="9"/>
       <c r="AU12" s="9"/>
@@ -14795,42 +14794,42 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
       <c r="AS13" s="9"/>
       <c r="AT13" s="9"/>
       <c r="AU13" s="9"/>
@@ -14849,42 +14848,42 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="37"/>
-      <c r="AA14" s="37"/>
-      <c r="AB14" s="37"/>
-      <c r="AC14" s="37"/>
-      <c r="AD14" s="37"/>
-      <c r="AE14" s="37"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="37"/>
-      <c r="AH14" s="37"/>
-      <c r="AI14" s="37"/>
-      <c r="AJ14" s="37"/>
-      <c r="AK14" s="37"/>
-      <c r="AL14" s="37"/>
-      <c r="AM14" s="37"/>
-      <c r="AN14" s="37"/>
-      <c r="AO14" s="37"/>
-      <c r="AP14" s="37"/>
-      <c r="AQ14" s="37"/>
-      <c r="AR14" s="37"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="35"/>
+      <c r="AB14" s="35"/>
+      <c r="AC14" s="35"/>
+      <c r="AD14" s="35"/>
+      <c r="AE14" s="35"/>
+      <c r="AF14" s="35"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="35"/>
+      <c r="AI14" s="35"/>
+      <c r="AJ14" s="35"/>
+      <c r="AK14" s="35"/>
+      <c r="AL14" s="35"/>
+      <c r="AM14" s="35"/>
+      <c r="AN14" s="35"/>
+      <c r="AO14" s="35"/>
+      <c r="AP14" s="35"/>
+      <c r="AQ14" s="35"/>
+      <c r="AR14" s="35"/>
       <c r="AS14" s="9"/>
       <c r="AT14" s="9"/>
       <c r="AU14" s="9"/>
@@ -14903,42 +14902,42 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
+      <c r="AP15" s="35"/>
+      <c r="AQ15" s="35"/>
+      <c r="AR15" s="35"/>
       <c r="AS15" s="9"/>
       <c r="AT15" s="9"/>
       <c r="AU15" s="9"/>
@@ -14957,42 +14956,42 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="37"/>
-      <c r="AB16" s="37"/>
-      <c r="AC16" s="37"/>
-      <c r="AD16" s="37"/>
-      <c r="AE16" s="37"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="37"/>
-      <c r="AH16" s="37"/>
-      <c r="AI16" s="37"/>
-      <c r="AJ16" s="37"/>
-      <c r="AK16" s="37"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="37"/>
-      <c r="AP16" s="37"/>
-      <c r="AQ16" s="37"/>
-      <c r="AR16" s="37"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="35"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="35"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="35"/>
+      <c r="AB16" s="35"/>
+      <c r="AC16" s="35"/>
+      <c r="AD16" s="35"/>
+      <c r="AE16" s="35"/>
+      <c r="AF16" s="35"/>
+      <c r="AG16" s="35"/>
+      <c r="AH16" s="35"/>
+      <c r="AI16" s="35"/>
+      <c r="AJ16" s="35"/>
+      <c r="AK16" s="35"/>
+      <c r="AL16" s="35"/>
+      <c r="AM16" s="35"/>
+      <c r="AN16" s="35"/>
+      <c r="AO16" s="35"/>
+      <c r="AP16" s="35"/>
+      <c r="AQ16" s="35"/>
+      <c r="AR16" s="35"/>
       <c r="AS16" s="9"/>
       <c r="AT16" s="9"/>
       <c r="AU16" s="9"/>
@@ -15011,42 +15010,42 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+      <c r="Z17" s="35"/>
+      <c r="AA17" s="35"/>
+      <c r="AB17" s="35"/>
+      <c r="AC17" s="35"/>
+      <c r="AD17" s="35"/>
+      <c r="AE17" s="35"/>
+      <c r="AF17" s="35"/>
+      <c r="AG17" s="35"/>
+      <c r="AH17" s="35"/>
+      <c r="AI17" s="35"/>
+      <c r="AJ17" s="35"/>
+      <c r="AK17" s="35"/>
+      <c r="AL17" s="35"/>
+      <c r="AM17" s="35"/>
+      <c r="AN17" s="35"/>
+      <c r="AO17" s="35"/>
+      <c r="AP17" s="35"/>
+      <c r="AQ17" s="35"/>
+      <c r="AR17" s="35"/>
       <c r="AS17" s="9"/>
       <c r="AT17" s="9"/>
       <c r="AU17" s="9"/>
@@ -15065,42 +15064,42 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="37"/>
-      <c r="AA18" s="37"/>
-      <c r="AB18" s="37"/>
-      <c r="AC18" s="37"/>
-      <c r="AD18" s="37"/>
-      <c r="AE18" s="37"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="37"/>
-      <c r="AH18" s="37"/>
-      <c r="AI18" s="37"/>
-      <c r="AJ18" s="37"/>
-      <c r="AK18" s="37"/>
-      <c r="AL18" s="37"/>
-      <c r="AM18" s="37"/>
-      <c r="AN18" s="37"/>
-      <c r="AO18" s="37"/>
-      <c r="AP18" s="37"/>
-      <c r="AQ18" s="37"/>
-      <c r="AR18" s="37"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+      <c r="Z18" s="35"/>
+      <c r="AA18" s="35"/>
+      <c r="AB18" s="35"/>
+      <c r="AC18" s="35"/>
+      <c r="AD18" s="35"/>
+      <c r="AE18" s="35"/>
+      <c r="AF18" s="35"/>
+      <c r="AG18" s="35"/>
+      <c r="AH18" s="35"/>
+      <c r="AI18" s="35"/>
+      <c r="AJ18" s="35"/>
+      <c r="AK18" s="35"/>
+      <c r="AL18" s="35"/>
+      <c r="AM18" s="35"/>
+      <c r="AN18" s="35"/>
+      <c r="AO18" s="35"/>
+      <c r="AP18" s="35"/>
+      <c r="AQ18" s="35"/>
+      <c r="AR18" s="35"/>
       <c r="AS18" s="9"/>
       <c r="AT18" s="9"/>
       <c r="AU18" s="9"/>
@@ -15119,42 +15118,42 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="37"/>
-      <c r="AB19" s="37"/>
-      <c r="AC19" s="37"/>
-      <c r="AD19" s="37"/>
-      <c r="AE19" s="37"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="37"/>
-      <c r="AH19" s="37"/>
-      <c r="AI19" s="37"/>
-      <c r="AJ19" s="37"/>
-      <c r="AK19" s="37"/>
-      <c r="AL19" s="37"/>
-      <c r="AM19" s="37"/>
-      <c r="AN19" s="37"/>
-      <c r="AO19" s="37"/>
-      <c r="AP19" s="37"/>
-      <c r="AQ19" s="37"/>
-      <c r="AR19" s="37"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="35"/>
+      <c r="AB19" s="35"/>
+      <c r="AC19" s="35"/>
+      <c r="AD19" s="35"/>
+      <c r="AE19" s="35"/>
+      <c r="AF19" s="35"/>
+      <c r="AG19" s="35"/>
+      <c r="AH19" s="35"/>
+      <c r="AI19" s="35"/>
+      <c r="AJ19" s="35"/>
+      <c r="AK19" s="35"/>
+      <c r="AL19" s="35"/>
+      <c r="AM19" s="35"/>
+      <c r="AN19" s="35"/>
+      <c r="AO19" s="35"/>
+      <c r="AP19" s="35"/>
+      <c r="AQ19" s="35"/>
+      <c r="AR19" s="35"/>
       <c r="AS19" s="9"/>
       <c r="AT19" s="9"/>
       <c r="AU19" s="9"/>
@@ -15173,42 +15172,42 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="37"/>
-      <c r="AA20" s="37"/>
-      <c r="AB20" s="37"/>
-      <c r="AC20" s="37"/>
-      <c r="AD20" s="37"/>
-      <c r="AE20" s="37"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="37"/>
-      <c r="AH20" s="37"/>
-      <c r="AI20" s="37"/>
-      <c r="AJ20" s="37"/>
-      <c r="AK20" s="37"/>
-      <c r="AL20" s="37"/>
-      <c r="AM20" s="37"/>
-      <c r="AN20" s="37"/>
-      <c r="AO20" s="37"/>
-      <c r="AP20" s="37"/>
-      <c r="AQ20" s="37"/>
-      <c r="AR20" s="37"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+      <c r="Z20" s="35"/>
+      <c r="AA20" s="35"/>
+      <c r="AB20" s="35"/>
+      <c r="AC20" s="35"/>
+      <c r="AD20" s="35"/>
+      <c r="AE20" s="35"/>
+      <c r="AF20" s="35"/>
+      <c r="AG20" s="35"/>
+      <c r="AH20" s="35"/>
+      <c r="AI20" s="35"/>
+      <c r="AJ20" s="35"/>
+      <c r="AK20" s="35"/>
+      <c r="AL20" s="35"/>
+      <c r="AM20" s="35"/>
+      <c r="AN20" s="35"/>
+      <c r="AO20" s="35"/>
+      <c r="AP20" s="35"/>
+      <c r="AQ20" s="35"/>
+      <c r="AR20" s="35"/>
       <c r="AS20" s="9"/>
       <c r="AT20" s="9"/>
       <c r="AU20" s="9"/>
@@ -15227,42 +15226,42 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="37"/>
-      <c r="AA21" s="37"/>
-      <c r="AB21" s="37"/>
-      <c r="AC21" s="37"/>
-      <c r="AD21" s="37"/>
-      <c r="AE21" s="37"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="37"/>
-      <c r="AH21" s="37"/>
-      <c r="AI21" s="37"/>
-      <c r="AJ21" s="37"/>
-      <c r="AK21" s="37"/>
-      <c r="AL21" s="37"/>
-      <c r="AM21" s="37"/>
-      <c r="AN21" s="37"/>
-      <c r="AO21" s="37"/>
-      <c r="AP21" s="37"/>
-      <c r="AQ21" s="37"/>
-      <c r="AR21" s="37"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+      <c r="Z21" s="35"/>
+      <c r="AA21" s="35"/>
+      <c r="AB21" s="35"/>
+      <c r="AC21" s="35"/>
+      <c r="AD21" s="35"/>
+      <c r="AE21" s="35"/>
+      <c r="AF21" s="35"/>
+      <c r="AG21" s="35"/>
+      <c r="AH21" s="35"/>
+      <c r="AI21" s="35"/>
+      <c r="AJ21" s="35"/>
+      <c r="AK21" s="35"/>
+      <c r="AL21" s="35"/>
+      <c r="AM21" s="35"/>
+      <c r="AN21" s="35"/>
+      <c r="AO21" s="35"/>
+      <c r="AP21" s="35"/>
+      <c r="AQ21" s="35"/>
+      <c r="AR21" s="35"/>
       <c r="AS21" s="6"/>
       <c r="AT21" s="6"/>
       <c r="AU21" s="6"/>
@@ -15281,42 +15280,42 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="37"/>
-      <c r="AB22" s="37"/>
-      <c r="AC22" s="37"/>
-      <c r="AD22" s="37"/>
-      <c r="AE22" s="37"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="37"/>
-      <c r="AH22" s="37"/>
-      <c r="AI22" s="37"/>
-      <c r="AJ22" s="37"/>
-      <c r="AK22" s="37"/>
-      <c r="AL22" s="37"/>
-      <c r="AM22" s="37"/>
-      <c r="AN22" s="37"/>
-      <c r="AO22" s="37"/>
-      <c r="AP22" s="37"/>
-      <c r="AQ22" s="37"/>
-      <c r="AR22" s="37"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
+      <c r="AJ22" s="35"/>
+      <c r="AK22" s="35"/>
+      <c r="AL22" s="35"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="35"/>
+      <c r="AO22" s="35"/>
+      <c r="AP22" s="35"/>
+      <c r="AQ22" s="35"/>
+      <c r="AR22" s="35"/>
       <c r="AS22" s="6"/>
       <c r="AT22" s="6"/>
       <c r="AU22" s="6"/>
@@ -16330,30 +16329,30 @@
       <c r="AC41" s="6"/>
       <c r="AD41" s="6"/>
       <c r="AE41" s="6"/>
-      <c r="AF41" s="34" t="s">
+      <c r="AF41" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AG41" s="34"/>
-      <c r="AH41" s="34"/>
-      <c r="AI41" s="34"/>
-      <c r="AJ41" s="34"/>
-      <c r="AK41" s="34"/>
-      <c r="AL41" s="38">
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="32"/>
+      <c r="AL41" s="36">
         <v>43922</v>
       </c>
-      <c r="AM41" s="38"/>
-      <c r="AN41" s="38"/>
-      <c r="AO41" s="38"/>
-      <c r="AP41" s="38"/>
-      <c r="AQ41" s="38"/>
-      <c r="AR41" s="38"/>
-      <c r="AS41" s="38"/>
-      <c r="AT41" s="38"/>
-      <c r="AU41" s="38"/>
-      <c r="AV41" s="38"/>
-      <c r="AW41" s="38"/>
-      <c r="AX41" s="38"/>
-      <c r="AY41" s="38"/>
+      <c r="AM41" s="36"/>
+      <c r="AN41" s="36"/>
+      <c r="AO41" s="36"/>
+      <c r="AP41" s="36"/>
+      <c r="AQ41" s="36"/>
+      <c r="AR41" s="36"/>
+      <c r="AS41" s="36"/>
+      <c r="AT41" s="36"/>
+      <c r="AU41" s="36"/>
+      <c r="AV41" s="36"/>
+      <c r="AW41" s="36"/>
+      <c r="AX41" s="36"/>
+      <c r="AY41" s="36"/>
       <c r="AZ41" s="7"/>
     </row>
     <row r="42" spans="1:52">
@@ -16388,26 +16387,26 @@
       <c r="AC42" s="6"/>
       <c r="AD42" s="6"/>
       <c r="AE42" s="6"/>
-      <c r="AF42" s="34"/>
-      <c r="AG42" s="34"/>
-      <c r="AH42" s="34"/>
-      <c r="AI42" s="34"/>
-      <c r="AJ42" s="34"/>
-      <c r="AK42" s="34"/>
-      <c r="AL42" s="38"/>
-      <c r="AM42" s="38"/>
-      <c r="AN42" s="38"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="38"/>
-      <c r="AR42" s="38"/>
-      <c r="AS42" s="38"/>
-      <c r="AT42" s="38"/>
-      <c r="AU42" s="38"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AY42" s="38"/>
+      <c r="AF42" s="32"/>
+      <c r="AG42" s="32"/>
+      <c r="AH42" s="32"/>
+      <c r="AI42" s="32"/>
+      <c r="AJ42" s="32"/>
+      <c r="AK42" s="32"/>
+      <c r="AL42" s="36"/>
+      <c r="AM42" s="36"/>
+      <c r="AN42" s="36"/>
+      <c r="AO42" s="36"/>
+      <c r="AP42" s="36"/>
+      <c r="AQ42" s="36"/>
+      <c r="AR42" s="36"/>
+      <c r="AS42" s="36"/>
+      <c r="AT42" s="36"/>
+      <c r="AU42" s="36"/>
+      <c r="AV42" s="36"/>
+      <c r="AW42" s="36"/>
+      <c r="AX42" s="36"/>
+      <c r="AY42" s="36"/>
       <c r="AZ42" s="7"/>
     </row>
     <row r="43" spans="1:52" ht="10.5" customHeight="1">
@@ -16442,30 +16441,30 @@
       <c r="AC43" s="6"/>
       <c r="AD43" s="6"/>
       <c r="AE43" s="6"/>
-      <c r="AF43" s="34" t="s">
+      <c r="AF43" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="34"/>
-      <c r="AL43" s="39" t="s">
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="AM43" s="39"/>
-      <c r="AN43" s="39"/>
-      <c r="AO43" s="39"/>
-      <c r="AP43" s="39"/>
-      <c r="AQ43" s="39"/>
-      <c r="AR43" s="39"/>
-      <c r="AS43" s="39"/>
-      <c r="AT43" s="39"/>
-      <c r="AU43" s="39"/>
-      <c r="AV43" s="39"/>
-      <c r="AW43" s="39"/>
-      <c r="AX43" s="39"/>
-      <c r="AY43" s="39"/>
+      <c r="AM43" s="37"/>
+      <c r="AN43" s="37"/>
+      <c r="AO43" s="37"/>
+      <c r="AP43" s="37"/>
+      <c r="AQ43" s="37"/>
+      <c r="AR43" s="37"/>
+      <c r="AS43" s="37"/>
+      <c r="AT43" s="37"/>
+      <c r="AU43" s="37"/>
+      <c r="AV43" s="37"/>
+      <c r="AW43" s="37"/>
+      <c r="AX43" s="37"/>
+      <c r="AY43" s="37"/>
       <c r="AZ43" s="7"/>
     </row>
     <row r="44" spans="1:52" ht="10.5" customHeight="1">
@@ -16500,26 +16499,26 @@
       <c r="AC44" s="6"/>
       <c r="AD44" s="6"/>
       <c r="AE44" s="6"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="34"/>
-      <c r="AL44" s="39"/>
-      <c r="AM44" s="39"/>
-      <c r="AN44" s="39"/>
-      <c r="AO44" s="39"/>
-      <c r="AP44" s="39"/>
-      <c r="AQ44" s="39"/>
-      <c r="AR44" s="39"/>
-      <c r="AS44" s="39"/>
-      <c r="AT44" s="39"/>
-      <c r="AU44" s="39"/>
-      <c r="AV44" s="39"/>
-      <c r="AW44" s="39"/>
-      <c r="AX44" s="39"/>
-      <c r="AY44" s="39"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="32"/>
+      <c r="AK44" s="32"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
       <c r="AZ44" s="7"/>
     </row>
     <row r="45" spans="1:52">
@@ -16554,28 +16553,28 @@
       <c r="AC45" s="6"/>
       <c r="AD45" s="6"/>
       <c r="AE45" s="6"/>
-      <c r="AF45" s="34" t="s">
+      <c r="AF45" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="34"/>
-      <c r="AL45" s="35"/>
-      <c r="AM45" s="35"/>
-      <c r="AN45" s="35"/>
-      <c r="AO45" s="35"/>
-      <c r="AP45" s="35"/>
-      <c r="AQ45" s="35"/>
-      <c r="AR45" s="35"/>
-      <c r="AS45" s="35"/>
-      <c r="AT45" s="35"/>
-      <c r="AU45" s="35"/>
-      <c r="AV45" s="35"/>
-      <c r="AW45" s="35"/>
-      <c r="AX45" s="35"/>
-      <c r="AY45" s="35"/>
+      <c r="AG45" s="32"/>
+      <c r="AH45" s="32"/>
+      <c r="AI45" s="32"/>
+      <c r="AJ45" s="32"/>
+      <c r="AK45" s="32"/>
+      <c r="AL45" s="33"/>
+      <c r="AM45" s="33"/>
+      <c r="AN45" s="33"/>
+      <c r="AO45" s="33"/>
+      <c r="AP45" s="33"/>
+      <c r="AQ45" s="33"/>
+      <c r="AR45" s="33"/>
+      <c r="AS45" s="33"/>
+      <c r="AT45" s="33"/>
+      <c r="AU45" s="33"/>
+      <c r="AV45" s="33"/>
+      <c r="AW45" s="33"/>
+      <c r="AX45" s="33"/>
+      <c r="AY45" s="33"/>
       <c r="AZ45" s="7"/>
     </row>
     <row r="46" spans="1:52">
@@ -16610,26 +16609,26 @@
       <c r="AC46" s="6"/>
       <c r="AD46" s="6"/>
       <c r="AE46" s="6"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="34"/>
-      <c r="AL46" s="35"/>
-      <c r="AM46" s="35"/>
-      <c r="AN46" s="35"/>
-      <c r="AO46" s="35"/>
-      <c r="AP46" s="35"/>
-      <c r="AQ46" s="35"/>
-      <c r="AR46" s="35"/>
-      <c r="AS46" s="35"/>
-      <c r="AT46" s="35"/>
-      <c r="AU46" s="35"/>
-      <c r="AV46" s="35"/>
-      <c r="AW46" s="35"/>
-      <c r="AX46" s="35"/>
-      <c r="AY46" s="35"/>
+      <c r="AF46" s="32"/>
+      <c r="AG46" s="32"/>
+      <c r="AH46" s="32"/>
+      <c r="AI46" s="32"/>
+      <c r="AJ46" s="32"/>
+      <c r="AK46" s="32"/>
+      <c r="AL46" s="33"/>
+      <c r="AM46" s="33"/>
+      <c r="AN46" s="33"/>
+      <c r="AO46" s="33"/>
+      <c r="AP46" s="33"/>
+      <c r="AQ46" s="33"/>
+      <c r="AR46" s="33"/>
+      <c r="AS46" s="33"/>
+      <c r="AT46" s="33"/>
+      <c r="AU46" s="33"/>
+      <c r="AV46" s="33"/>
+      <c r="AW46" s="33"/>
+      <c r="AX46" s="33"/>
+      <c r="AY46" s="33"/>
       <c r="AZ46" s="7"/>
     </row>
     <row r="47" spans="1:52">
@@ -16664,28 +16663,28 @@
       <c r="AC47" s="6"/>
       <c r="AD47" s="6"/>
       <c r="AE47" s="6"/>
-      <c r="AF47" s="34" t="s">
+      <c r="AF47" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="34"/>
-      <c r="AL47" s="36"/>
-      <c r="AM47" s="36"/>
-      <c r="AN47" s="36"/>
-      <c r="AO47" s="36"/>
-      <c r="AP47" s="36"/>
-      <c r="AQ47" s="36"/>
-      <c r="AR47" s="36"/>
-      <c r="AS47" s="36"/>
-      <c r="AT47" s="36"/>
-      <c r="AU47" s="36"/>
-      <c r="AV47" s="36"/>
-      <c r="AW47" s="36"/>
-      <c r="AX47" s="36"/>
-      <c r="AY47" s="36"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
+      <c r="AK47" s="32"/>
+      <c r="AL47" s="34"/>
+      <c r="AM47" s="34"/>
+      <c r="AN47" s="34"/>
+      <c r="AO47" s="34"/>
+      <c r="AP47" s="34"/>
+      <c r="AQ47" s="34"/>
+      <c r="AR47" s="34"/>
+      <c r="AS47" s="34"/>
+      <c r="AT47" s="34"/>
+      <c r="AU47" s="34"/>
+      <c r="AV47" s="34"/>
+      <c r="AW47" s="34"/>
+      <c r="AX47" s="34"/>
+      <c r="AY47" s="34"/>
       <c r="AZ47" s="7"/>
     </row>
     <row r="48" spans="1:52">
@@ -16720,26 +16719,26 @@
       <c r="AC48" s="6"/>
       <c r="AD48" s="6"/>
       <c r="AE48" s="6"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="34"/>
-      <c r="AL48" s="36"/>
-      <c r="AM48" s="36"/>
-      <c r="AN48" s="36"/>
-      <c r="AO48" s="36"/>
-      <c r="AP48" s="36"/>
-      <c r="AQ48" s="36"/>
-      <c r="AR48" s="36"/>
-      <c r="AS48" s="36"/>
-      <c r="AT48" s="36"/>
-      <c r="AU48" s="36"/>
-      <c r="AV48" s="36"/>
-      <c r="AW48" s="36"/>
-      <c r="AX48" s="36"/>
-      <c r="AY48" s="36"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
+      <c r="AK48" s="32"/>
+      <c r="AL48" s="34"/>
+      <c r="AM48" s="34"/>
+      <c r="AN48" s="34"/>
+      <c r="AO48" s="34"/>
+      <c r="AP48" s="34"/>
+      <c r="AQ48" s="34"/>
+      <c r="AR48" s="34"/>
+      <c r="AS48" s="34"/>
+      <c r="AT48" s="34"/>
+      <c r="AU48" s="34"/>
+      <c r="AV48" s="34"/>
+      <c r="AW48" s="34"/>
+      <c r="AX48" s="34"/>
+      <c r="AY48" s="34"/>
       <c r="AZ48" s="7"/>
     </row>
     <row r="49" spans="1:52">
@@ -16880,7 +16879,7 @@
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2"/>
   <sheetData/>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -16894,21 +16893,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="2" spans="3:24">
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="40"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
@@ -16919,16 +16918,16 @@
       <c r="X2" s="22"/>
     </row>
     <row r="3" spans="3:24">
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
       <c r="Q3" s="22"/>
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
@@ -16939,16 +16938,16 @@
       <c r="X3" s="22"/>
     </row>
     <row r="4" spans="3:24">
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
@@ -17006,21 +17005,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="2" spans="2:3" ht="17.25">
+    <row r="2" spans="2:3" ht="16.2">
       <c r="B2" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="2:3" ht="14.25">
+    <row r="3" spans="2:3" ht="14.4">
       <c r="B3" s="25" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="25"/>
     </row>
-    <row r="4" spans="2:3" ht="14.25">
+    <row r="4" spans="2:3" ht="14.4">
       <c r="B4" s="25" t="s">
         <v>72</v>
       </c>
@@ -17039,9 +17038,9 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="64" width="8.875" style="16"/>
+    <col min="1" max="64" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -17051,7 +17050,7 @@
       <c r="D1" s="17"/>
       <c r="E1" s="17"/>
     </row>
-    <row r="2" spans="1:5" ht="30">
+    <row r="2" spans="1:5" ht="28.8">
       <c r="A2" s="17"/>
       <c r="B2" s="28" t="s">
         <v>75</v>
@@ -17060,7 +17059,7 @@
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
     </row>
-    <row r="3" spans="1:5" ht="25.5">
+    <row r="3" spans="1:5" ht="26.4">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -17079,23 +17078,23 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="64" width="8.875" style="16"/>
+    <col min="1" max="64" width="8.88671875" style="16"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="30">
+    <row r="2" spans="2:2" ht="28.8">
       <c r="B2" s="29" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="2:2" ht="25.5">
+    <row r="3" spans="2:2" ht="26.4">
       <c r="B3" s="24" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="47" spans="9:9">
-      <c r="I47" s="33"/>
+      <c r="I47" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
@@ -17109,2434 +17108,2436 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:BF1048572"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AL65" sqref="AL65"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1009" max="1014" width="11.625" customWidth="1"/>
+    <col min="1009" max="1014" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:58" ht="14.1" customHeight="1">
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
     </row>
     <row r="3" spans="1:58" ht="14.1" customHeight="1">
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
     </row>
     <row r="5" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41" t="s">
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="42" t="s">
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42" t="s">
+      <c r="T5" s="58"/>
+      <c r="U5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42" t="s">
+      <c r="V5" s="58"/>
+      <c r="W5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42" t="s">
+      <c r="X5" s="58"/>
+      <c r="Y5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="42"/>
-      <c r="AB5" s="41" t="s">
+      <c r="Z5" s="58"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="41"/>
-      <c r="AF5" s="41"/>
-      <c r="AG5" s="41"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="41"/>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41"/>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="41"/>
-      <c r="AN5" s="41"/>
-      <c r="AO5" s="41"/>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41"/>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="41"/>
-      <c r="AT5" s="41"/>
-      <c r="AU5" s="41"/>
-      <c r="AV5" s="41"/>
-      <c r="AW5" s="41"/>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41"/>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="41"/>
-      <c r="BB5" s="41"/>
-      <c r="BC5" s="41"/>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41"/>
-      <c r="BF5" s="41"/>
+      <c r="AC5" s="57"/>
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="57"/>
+      <c r="AF5" s="57"/>
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="57"/>
+      <c r="AI5" s="57"/>
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57"/>
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="57"/>
+      <c r="AN5" s="57"/>
+      <c r="AO5" s="57"/>
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57"/>
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="57"/>
+      <c r="AT5" s="57"/>
+      <c r="AU5" s="57"/>
+      <c r="AV5" s="57"/>
+      <c r="AW5" s="57"/>
+      <c r="AX5" s="57"/>
+      <c r="AY5" s="57"/>
+      <c r="AZ5" s="57"/>
+      <c r="BA5" s="57"/>
+      <c r="BB5" s="57"/>
+      <c r="BC5" s="57"/>
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="57"/>
+      <c r="BF5" s="57"/>
     </row>
     <row r="6" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A6" s="43">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="S6" s="42" t="s">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42" t="s">
+      <c r="T6" s="58"/>
+      <c r="U6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="43"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="41" t="s">
+      <c r="V6" s="58"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="56"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="AC6" s="41"/>
-      <c r="AD6" s="41"/>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AG6" s="41"/>
-      <c r="AH6" s="41"/>
-      <c r="AI6" s="41"/>
-      <c r="AJ6" s="41"/>
-      <c r="AK6" s="41"/>
-      <c r="AL6" s="41"/>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
-      <c r="AO6" s="41"/>
-      <c r="AP6" s="41"/>
-      <c r="AQ6" s="41"/>
-      <c r="AR6" s="41"/>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="41"/>
-      <c r="AU6" s="41"/>
-      <c r="AV6" s="41"/>
-      <c r="AW6" s="41"/>
-      <c r="AX6" s="41"/>
-      <c r="AY6" s="41"/>
-      <c r="AZ6" s="41"/>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
-      <c r="BC6" s="41"/>
-      <c r="BD6" s="41"/>
-      <c r="BE6" s="41"/>
-      <c r="BF6" s="41"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="57"/>
+      <c r="AM6" s="57"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="57"/>
+      <c r="BB6" s="57"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
     </row>
     <row r="7" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A7" s="43">
+      <c r="A7" s="56">
         <v>2</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="41" t="s">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="47" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
-      <c r="W7" s="42"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="43"/>
-      <c r="Z7" s="43"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="41" t="s">
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="56"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AC7" s="41"/>
-      <c r="AD7" s="41"/>
-      <c r="AE7" s="41"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="41"/>
-      <c r="AH7" s="41"/>
-      <c r="AI7" s="41"/>
-      <c r="AJ7" s="41"/>
-      <c r="AK7" s="41"/>
-      <c r="AL7" s="41"/>
-      <c r="AM7" s="41"/>
-      <c r="AN7" s="41"/>
-      <c r="AO7" s="41"/>
-      <c r="AP7" s="41"/>
-      <c r="AQ7" s="41"/>
-      <c r="AR7" s="41"/>
-      <c r="AS7" s="41"/>
-      <c r="AT7" s="41"/>
-      <c r="AU7" s="41"/>
-      <c r="AV7" s="41"/>
-      <c r="AW7" s="41"/>
-      <c r="AX7" s="41"/>
-      <c r="AY7" s="41"/>
-      <c r="AZ7" s="41"/>
-      <c r="BA7" s="41"/>
-      <c r="BB7" s="41"/>
-      <c r="BC7" s="41"/>
-      <c r="BD7" s="41"/>
-      <c r="BE7" s="41"/>
-      <c r="BF7" s="41"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="57"/>
+      <c r="AM7" s="57"/>
+      <c r="AN7" s="57"/>
+      <c r="AO7" s="57"/>
+      <c r="AP7" s="57"/>
+      <c r="AQ7" s="57"/>
+      <c r="AR7" s="57"/>
+      <c r="AS7" s="57"/>
+      <c r="AT7" s="57"/>
+      <c r="AU7" s="57"/>
+      <c r="AV7" s="57"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="57"/>
+      <c r="AY7" s="57"/>
+      <c r="AZ7" s="57"/>
+      <c r="BA7" s="57"/>
+      <c r="BB7" s="57"/>
+      <c r="BC7" s="57"/>
+      <c r="BD7" s="57"/>
+      <c r="BE7" s="57"/>
+      <c r="BF7" s="57"/>
     </row>
     <row r="8" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A8" s="43">
+      <c r="A8" s="56">
         <v>3</v>
       </c>
-      <c r="B8" s="43"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="47" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="43"/>
-      <c r="Z8" s="43"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="41" t="s">
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="56"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AC8" s="41"/>
-      <c r="AD8" s="41"/>
-      <c r="AE8" s="41"/>
-      <c r="AF8" s="41"/>
-      <c r="AG8" s="41"/>
-      <c r="AH8" s="41"/>
-      <c r="AI8" s="41"/>
-      <c r="AJ8" s="41"/>
-      <c r="AK8" s="41"/>
-      <c r="AL8" s="41"/>
-      <c r="AM8" s="41"/>
-      <c r="AN8" s="41"/>
-      <c r="AO8" s="41"/>
-      <c r="AP8" s="41"/>
-      <c r="AQ8" s="41"/>
-      <c r="AR8" s="41"/>
-      <c r="AS8" s="41"/>
-      <c r="AT8" s="41"/>
-      <c r="AU8" s="41"/>
-      <c r="AV8" s="41"/>
-      <c r="AW8" s="41"/>
-      <c r="AX8" s="41"/>
-      <c r="AY8" s="41"/>
-      <c r="AZ8" s="41"/>
-      <c r="BA8" s="41"/>
-      <c r="BB8" s="41"/>
-      <c r="BC8" s="41"/>
-      <c r="BD8" s="41"/>
-      <c r="BE8" s="41"/>
-      <c r="BF8" s="41"/>
+      <c r="AC8" s="57"/>
+      <c r="AD8" s="57"/>
+      <c r="AE8" s="57"/>
+      <c r="AF8" s="57"/>
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="57"/>
+      <c r="AI8" s="57"/>
+      <c r="AJ8" s="57"/>
+      <c r="AK8" s="57"/>
+      <c r="AL8" s="57"/>
+      <c r="AM8" s="57"/>
+      <c r="AN8" s="57"/>
+      <c r="AO8" s="57"/>
+      <c r="AP8" s="57"/>
+      <c r="AQ8" s="57"/>
+      <c r="AR8" s="57"/>
+      <c r="AS8" s="57"/>
+      <c r="AT8" s="57"/>
+      <c r="AU8" s="57"/>
+      <c r="AV8" s="57"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="57"/>
+      <c r="AY8" s="57"/>
+      <c r="AZ8" s="57"/>
+      <c r="BA8" s="57"/>
+      <c r="BB8" s="57"/>
+      <c r="BC8" s="57"/>
+      <c r="BD8" s="57"/>
+      <c r="BE8" s="57"/>
+      <c r="BF8" s="57"/>
     </row>
     <row r="9" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A9" s="43">
+      <c r="A9" s="56">
         <v>4</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="47" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="43"/>
-      <c r="Z9" s="43"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="41" t="s">
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="58"/>
+      <c r="T9" s="58"/>
+      <c r="U9" s="58"/>
+      <c r="V9" s="58"/>
+      <c r="W9" s="58"/>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="56"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41"/>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="57"/>
+      <c r="AE9" s="57"/>
+      <c r="AF9" s="57"/>
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="57"/>
+      <c r="AI9" s="57"/>
+      <c r="AJ9" s="57"/>
+      <c r="AK9" s="57"/>
+      <c r="AL9" s="57"/>
+      <c r="AM9" s="57"/>
+      <c r="AN9" s="57"/>
+      <c r="AO9" s="57"/>
+      <c r="AP9" s="57"/>
+      <c r="AQ9" s="57"/>
+      <c r="AR9" s="57"/>
+      <c r="AS9" s="57"/>
+      <c r="AT9" s="57"/>
+      <c r="AU9" s="57"/>
+      <c r="AV9" s="57"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="57"/>
+      <c r="AY9" s="57"/>
+      <c r="AZ9" s="57"/>
+      <c r="BA9" s="57"/>
+      <c r="BB9" s="57"/>
+      <c r="BC9" s="57"/>
+      <c r="BD9" s="57"/>
+      <c r="BE9" s="57"/>
+      <c r="BF9" s="57"/>
     </row>
     <row r="10" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A10" s="43">
+      <c r="A10" s="56">
         <v>5</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="47" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="43"/>
-      <c r="Z10" s="43"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="41" t="s">
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="58"/>
+      <c r="U10" s="58"/>
+      <c r="V10" s="58"/>
+      <c r="W10" s="58"/>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="57"/>
+      <c r="AE10" s="57"/>
+      <c r="AF10" s="57"/>
+      <c r="AG10" s="57"/>
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="57"/>
+      <c r="AK10" s="57"/>
+      <c r="AL10" s="57"/>
+      <c r="AM10" s="57"/>
+      <c r="AN10" s="57"/>
+      <c r="AO10" s="57"/>
+      <c r="AP10" s="57"/>
+      <c r="AQ10" s="57"/>
+      <c r="AR10" s="57"/>
+      <c r="AS10" s="57"/>
+      <c r="AT10" s="57"/>
+      <c r="AU10" s="57"/>
+      <c r="AV10" s="57"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="57"/>
+      <c r="AY10" s="57"/>
+      <c r="AZ10" s="57"/>
+      <c r="BA10" s="57"/>
+      <c r="BB10" s="57"/>
+      <c r="BC10" s="57"/>
+      <c r="BD10" s="57"/>
+      <c r="BE10" s="57"/>
+      <c r="BF10" s="57"/>
     </row>
     <row r="11" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A11" s="43">
+      <c r="A11" s="56">
         <v>6</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="47" t="s">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="43"/>
-      <c r="Z11" s="43"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="41" t="s">
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="62"/>
+      <c r="S11" s="58"/>
+      <c r="T11" s="58"/>
+      <c r="U11" s="58"/>
+      <c r="V11" s="58"/>
+      <c r="W11" s="58"/>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="57"/>
+      <c r="AE11" s="57"/>
+      <c r="AF11" s="57"/>
+      <c r="AG11" s="57"/>
+      <c r="AH11" s="57"/>
+      <c r="AI11" s="57"/>
+      <c r="AJ11" s="57"/>
+      <c r="AK11" s="57"/>
+      <c r="AL11" s="57"/>
+      <c r="AM11" s="57"/>
+      <c r="AN11" s="57"/>
+      <c r="AO11" s="57"/>
+      <c r="AP11" s="57"/>
+      <c r="AQ11" s="57"/>
+      <c r="AR11" s="57"/>
+      <c r="AS11" s="57"/>
+      <c r="AT11" s="57"/>
+      <c r="AU11" s="57"/>
+      <c r="AV11" s="57"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="57"/>
+      <c r="AY11" s="57"/>
+      <c r="AZ11" s="57"/>
+      <c r="BA11" s="57"/>
+      <c r="BB11" s="57"/>
+      <c r="BC11" s="57"/>
+      <c r="BD11" s="57"/>
+      <c r="BE11" s="57"/>
+      <c r="BF11" s="57"/>
     </row>
     <row r="12" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A12" s="43">
+      <c r="A12" s="56">
         <v>7</v>
       </c>
-      <c r="B12" s="43"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="47" t="s">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="43"/>
-      <c r="Z12" s="43"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="41" t="s">
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="62"/>
+      <c r="S12" s="58"/>
+      <c r="T12" s="58"/>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="58"/>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="56"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
     </row>
     <row r="13" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A13" s="43">
+      <c r="A13" s="56">
         <v>8</v>
       </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="47" t="s">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="43"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="41" t="s">
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="58"/>
+      <c r="T13" s="58"/>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="58"/>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="57"/>
+      <c r="AE13" s="57"/>
+      <c r="AF13" s="57"/>
+      <c r="AG13" s="57"/>
+      <c r="AH13" s="57"/>
+      <c r="AI13" s="57"/>
+      <c r="AJ13" s="57"/>
+      <c r="AK13" s="57"/>
+      <c r="AL13" s="57"/>
+      <c r="AM13" s="57"/>
+      <c r="AN13" s="57"/>
+      <c r="AO13" s="57"/>
+      <c r="AP13" s="57"/>
+      <c r="AQ13" s="57"/>
+      <c r="AR13" s="57"/>
+      <c r="AS13" s="57"/>
+      <c r="AT13" s="57"/>
+      <c r="AU13" s="57"/>
+      <c r="AV13" s="57"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="57"/>
+      <c r="AY13" s="57"/>
+      <c r="AZ13" s="57"/>
+      <c r="BA13" s="57"/>
+      <c r="BB13" s="57"/>
+      <c r="BC13" s="57"/>
+      <c r="BD13" s="57"/>
+      <c r="BE13" s="57"/>
+      <c r="BF13" s="57"/>
     </row>
     <row r="14" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A14" s="43">
+      <c r="A14" s="56">
         <v>9</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="47" t="s">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="41" t="s">
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="58"/>
+      <c r="T14" s="58"/>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="58"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="57"/>
+      <c r="AM14" s="57"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="57"/>
+      <c r="BB14" s="57"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="57"/>
     </row>
     <row r="15" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A15" s="43">
+      <c r="A15" s="56">
         <v>10</v>
       </c>
-      <c r="B15" s="43"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="47" t="s">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="41" t="s">
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="56"/>
+      <c r="Z15" s="56"/>
+      <c r="AA15" s="56"/>
+      <c r="AB15" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="57"/>
+      <c r="AE15" s="57"/>
+      <c r="AF15" s="57"/>
+      <c r="AG15" s="57"/>
+      <c r="AH15" s="57"/>
+      <c r="AI15" s="57"/>
+      <c r="AJ15" s="57"/>
+      <c r="AK15" s="57"/>
+      <c r="AL15" s="57"/>
+      <c r="AM15" s="57"/>
+      <c r="AN15" s="57"/>
+      <c r="AO15" s="57"/>
+      <c r="AP15" s="57"/>
+      <c r="AQ15" s="57"/>
+      <c r="AR15" s="57"/>
+      <c r="AS15" s="57"/>
+      <c r="AT15" s="57"/>
+      <c r="AU15" s="57"/>
+      <c r="AV15" s="57"/>
+      <c r="AW15" s="57"/>
+      <c r="AX15" s="57"/>
+      <c r="AY15" s="57"/>
+      <c r="AZ15" s="57"/>
+      <c r="BA15" s="57"/>
+      <c r="BB15" s="57"/>
+      <c r="BC15" s="57"/>
+      <c r="BD15" s="57"/>
+      <c r="BE15" s="57"/>
+      <c r="BF15" s="57"/>
     </row>
     <row r="16" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A16" s="43">
+      <c r="A16" s="56">
         <v>11</v>
       </c>
-      <c r="B16" s="43"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="47" t="s">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="41" t="s">
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="58"/>
+      <c r="T16" s="58"/>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="58"/>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="57"/>
+      <c r="AL16" s="57"/>
+      <c r="AM16" s="57"/>
+      <c r="AN16" s="57"/>
+      <c r="AO16" s="57"/>
+      <c r="AP16" s="57"/>
+      <c r="AQ16" s="57"/>
+      <c r="AR16" s="57"/>
+      <c r="AS16" s="57"/>
+      <c r="AT16" s="57"/>
+      <c r="AU16" s="57"/>
+      <c r="AV16" s="57"/>
+      <c r="AW16" s="57"/>
+      <c r="AX16" s="57"/>
+      <c r="AY16" s="57"/>
+      <c r="AZ16" s="57"/>
+      <c r="BA16" s="57"/>
+      <c r="BB16" s="57"/>
+      <c r="BC16" s="57"/>
+      <c r="BD16" s="57"/>
+      <c r="BE16" s="57"/>
+      <c r="BF16" s="57"/>
     </row>
     <row r="17" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A17" s="43">
+      <c r="A17" s="56">
         <v>12</v>
       </c>
-      <c r="B17" s="43"/>
-      <c r="C17" s="41" t="s">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="47" t="s">
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="42" t="s">
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="43"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="41" t="s">
+      <c r="T17" s="58"/>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="58"/>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="41"/>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="57"/>
+      <c r="AE17" s="57"/>
+      <c r="AF17" s="57"/>
+      <c r="AG17" s="57"/>
+      <c r="AH17" s="57"/>
+      <c r="AI17" s="57"/>
+      <c r="AJ17" s="57"/>
+      <c r="AK17" s="57"/>
+      <c r="AL17" s="57"/>
+      <c r="AM17" s="57"/>
+      <c r="AN17" s="57"/>
+      <c r="AO17" s="57"/>
+      <c r="AP17" s="57"/>
+      <c r="AQ17" s="57"/>
+      <c r="AR17" s="57"/>
+      <c r="AS17" s="57"/>
+      <c r="AT17" s="57"/>
+      <c r="AU17" s="57"/>
+      <c r="AV17" s="57"/>
+      <c r="AW17" s="57"/>
+      <c r="AX17" s="57"/>
+      <c r="AY17" s="57"/>
+      <c r="AZ17" s="57"/>
+      <c r="BA17" s="57"/>
+      <c r="BB17" s="57"/>
+      <c r="BC17" s="57"/>
+      <c r="BD17" s="57"/>
+      <c r="BE17" s="57"/>
+      <c r="BF17" s="57"/>
     </row>
     <row r="18" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A18" s="43">
+      <c r="A18" s="56">
         <v>13</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="47" t="s">
+      <c r="B18" s="56"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="42" t="s">
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42" t="s">
+      <c r="T18" s="58"/>
+      <c r="U18" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="41" t="s">
+      <c r="V18" s="58"/>
+      <c r="W18" s="58"/>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="57"/>
+      <c r="AI18" s="57"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="57"/>
+      <c r="AS18" s="57"/>
+      <c r="AT18" s="57"/>
+      <c r="AU18" s="57"/>
+      <c r="AV18" s="57"/>
+      <c r="AW18" s="57"/>
+      <c r="AX18" s="57"/>
+      <c r="AY18" s="57"/>
+      <c r="AZ18" s="57"/>
+      <c r="BA18" s="57"/>
+      <c r="BB18" s="57"/>
+      <c r="BC18" s="57"/>
+      <c r="BD18" s="57"/>
+      <c r="BE18" s="57"/>
+      <c r="BF18" s="57"/>
     </row>
     <row r="19" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A19" s="43">
+      <c r="A19" s="56">
         <v>14</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="44" t="s">
+      <c r="B19" s="56"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="L19" s="45"/>
-      <c r="M19" s="45"/>
-      <c r="N19" s="45"/>
-      <c r="O19" s="45"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="45"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42" t="s">
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="58"/>
+      <c r="T19" s="58"/>
+      <c r="U19" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="41" t="s">
+      <c r="V19" s="58"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="56"/>
+      <c r="Z19" s="56"/>
+      <c r="AA19" s="56"/>
+      <c r="AB19" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-      <c r="BE19" s="41"/>
-      <c r="BF19" s="41"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="57"/>
+      <c r="AM19" s="57"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+      <c r="AZ19" s="57"/>
+      <c r="BA19" s="57"/>
+      <c r="BB19" s="57"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="57"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="57"/>
     </row>
     <row r="20" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A20" s="43">
+      <c r="A20" s="56">
         <v>15</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="47" t="s">
+      <c r="B20" s="56"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="42" t="s">
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T20" s="42"/>
-      <c r="U20" s="42"/>
-      <c r="V20" s="42"/>
-      <c r="W20" s="42"/>
-      <c r="X20" s="42"/>
-      <c r="Y20" s="43"/>
-      <c r="Z20" s="43"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="41" t="s">
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="41"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="41"/>
-      <c r="BE20" s="41"/>
-      <c r="BF20" s="41"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+      <c r="AZ20" s="57"/>
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
     </row>
     <row r="21" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A21" s="43">
+      <c r="A21" s="56">
         <v>16</v>
       </c>
-      <c r="B21" s="43"/>
-      <c r="C21" s="41" t="s">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="47" t="s">
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="42" t="s">
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T21" s="42"/>
-      <c r="U21" s="42"/>
-      <c r="V21" s="42"/>
-      <c r="W21" s="42"/>
-      <c r="X21" s="42"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="41" t="s">
+      <c r="T21" s="58"/>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="58"/>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="56"/>
+      <c r="Z21" s="56"/>
+      <c r="AA21" s="56"/>
+      <c r="AB21" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="AC21" s="41"/>
-      <c r="AD21" s="41"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="41"/>
-      <c r="AG21" s="41"/>
-      <c r="AH21" s="41"/>
-      <c r="AI21" s="41"/>
-      <c r="AJ21" s="41"/>
-      <c r="AK21" s="41"/>
-      <c r="AL21" s="41"/>
-      <c r="AM21" s="41"/>
-      <c r="AN21" s="41"/>
-      <c r="AO21" s="41"/>
-      <c r="AP21" s="41"/>
-      <c r="AQ21" s="41"/>
-      <c r="AR21" s="41"/>
-      <c r="AS21" s="41"/>
-      <c r="AT21" s="41"/>
-      <c r="AU21" s="41"/>
-      <c r="AV21" s="41"/>
-      <c r="AW21" s="41"/>
-      <c r="AX21" s="41"/>
-      <c r="AY21" s="41"/>
-      <c r="AZ21" s="41"/>
-      <c r="BA21" s="41"/>
-      <c r="BB21" s="41"/>
-      <c r="BC21" s="41"/>
-      <c r="BD21" s="41"/>
-      <c r="BE21" s="41"/>
-      <c r="BF21" s="41"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
+      <c r="AK21" s="57"/>
+      <c r="AL21" s="57"/>
+      <c r="AM21" s="57"/>
+      <c r="AN21" s="57"/>
+      <c r="AO21" s="57"/>
+      <c r="AP21" s="57"/>
+      <c r="AQ21" s="57"/>
+      <c r="AR21" s="57"/>
+      <c r="AS21" s="57"/>
+      <c r="AT21" s="57"/>
+      <c r="AU21" s="57"/>
+      <c r="AV21" s="57"/>
+      <c r="AW21" s="57"/>
+      <c r="AX21" s="57"/>
+      <c r="AY21" s="57"/>
+      <c r="AZ21" s="57"/>
+      <c r="BA21" s="57"/>
+      <c r="BB21" s="57"/>
+      <c r="BC21" s="57"/>
+      <c r="BD21" s="57"/>
+      <c r="BE21" s="57"/>
+      <c r="BF21" s="57"/>
     </row>
     <row r="22" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A22" s="43">
+      <c r="A22" s="56">
         <v>17</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="47" t="s">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="42" t="s">
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T22" s="42"/>
-      <c r="U22" s="42" t="s">
+      <c r="T22" s="58"/>
+      <c r="U22" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V22" s="42"/>
-      <c r="W22" s="42"/>
-      <c r="X22" s="42"/>
-      <c r="Y22" s="43"/>
-      <c r="Z22" s="43"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="41" t="s">
+      <c r="V22" s="58"/>
+      <c r="W22" s="58"/>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="56"/>
+      <c r="Z22" s="56"/>
+      <c r="AA22" s="56"/>
+      <c r="AB22" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="AC22" s="41"/>
-      <c r="AD22" s="41"/>
-      <c r="AE22" s="41"/>
-      <c r="AF22" s="41"/>
-      <c r="AG22" s="41"/>
-      <c r="AH22" s="41"/>
-      <c r="AI22" s="41"/>
-      <c r="AJ22" s="41"/>
-      <c r="AK22" s="41"/>
-      <c r="AL22" s="41"/>
-      <c r="AM22" s="41"/>
-      <c r="AN22" s="41"/>
-      <c r="AO22" s="41"/>
-      <c r="AP22" s="41"/>
-      <c r="AQ22" s="41"/>
-      <c r="AR22" s="41"/>
-      <c r="AS22" s="41"/>
-      <c r="AT22" s="41"/>
-      <c r="AU22" s="41"/>
-      <c r="AV22" s="41"/>
-      <c r="AW22" s="41"/>
-      <c r="AX22" s="41"/>
-      <c r="AY22" s="41"/>
-      <c r="AZ22" s="41"/>
-      <c r="BA22" s="41"/>
-      <c r="BB22" s="41"/>
-      <c r="BC22" s="41"/>
-      <c r="BD22" s="41"/>
-      <c r="BE22" s="41"/>
-      <c r="BF22" s="41"/>
+      <c r="AC22" s="57"/>
+      <c r="AD22" s="57"/>
+      <c r="AE22" s="57"/>
+      <c r="AF22" s="57"/>
+      <c r="AG22" s="57"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="57"/>
+      <c r="AK22" s="57"/>
+      <c r="AL22" s="57"/>
+      <c r="AM22" s="57"/>
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="57"/>
+      <c r="AP22" s="57"/>
+      <c r="AQ22" s="57"/>
+      <c r="AR22" s="57"/>
+      <c r="AS22" s="57"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="57"/>
+      <c r="AV22" s="57"/>
+      <c r="AW22" s="57"/>
+      <c r="AX22" s="57"/>
+      <c r="AY22" s="57"/>
+      <c r="AZ22" s="57"/>
+      <c r="BA22" s="57"/>
+      <c r="BB22" s="57"/>
+      <c r="BC22" s="57"/>
+      <c r="BD22" s="57"/>
+      <c r="BE22" s="57"/>
+      <c r="BF22" s="57"/>
     </row>
     <row r="23" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A23" s="43">
+      <c r="A23" s="56">
         <v>18</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="44" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+      <c r="K23" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="45"/>
-      <c r="M23" s="45"/>
-      <c r="N23" s="45"/>
-      <c r="O23" s="45"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="46"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42" t="s">
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="58"/>
+      <c r="T23" s="58"/>
+      <c r="U23" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="42"/>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="41" t="s">
+      <c r="V23" s="58"/>
+      <c r="W23" s="58"/>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="AC23" s="41"/>
-      <c r="AD23" s="41"/>
-      <c r="AE23" s="41"/>
-      <c r="AF23" s="41"/>
-      <c r="AG23" s="41"/>
-      <c r="AH23" s="41"/>
-      <c r="AI23" s="41"/>
-      <c r="AJ23" s="41"/>
-      <c r="AK23" s="41"/>
-      <c r="AL23" s="41"/>
-      <c r="AM23" s="41"/>
-      <c r="AN23" s="41"/>
-      <c r="AO23" s="41"/>
-      <c r="AP23" s="41"/>
-      <c r="AQ23" s="41"/>
-      <c r="AR23" s="41"/>
-      <c r="AS23" s="41"/>
-      <c r="AT23" s="41"/>
-      <c r="AU23" s="41"/>
-      <c r="AV23" s="41"/>
-      <c r="AW23" s="41"/>
-      <c r="AX23" s="41"/>
-      <c r="AY23" s="41"/>
-      <c r="AZ23" s="41"/>
-      <c r="BA23" s="41"/>
-      <c r="BB23" s="41"/>
-      <c r="BC23" s="41"/>
-      <c r="BD23" s="41"/>
-      <c r="BE23" s="41"/>
-      <c r="BF23" s="41"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="57"/>
+      <c r="AG23" s="57"/>
+      <c r="AH23" s="57"/>
+      <c r="AI23" s="57"/>
+      <c r="AJ23" s="57"/>
+      <c r="AK23" s="57"/>
+      <c r="AL23" s="57"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="57"/>
+      <c r="AZ23" s="57"/>
+      <c r="BA23" s="57"/>
+      <c r="BB23" s="57"/>
+      <c r="BC23" s="57"/>
+      <c r="BD23" s="57"/>
+      <c r="BE23" s="57"/>
+      <c r="BF23" s="57"/>
     </row>
     <row r="24" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A24" s="43">
+      <c r="A24" s="56">
         <v>19</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="47" t="s">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="42" t="s">
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T24" s="42"/>
-      <c r="U24" s="42"/>
-      <c r="V24" s="42"/>
-      <c r="W24" s="42"/>
-      <c r="X24" s="42"/>
-      <c r="Y24" s="43"/>
-      <c r="Z24" s="43"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="41" t="s">
+      <c r="T24" s="58"/>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="58"/>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="56"/>
+      <c r="Z24" s="56"/>
+      <c r="AA24" s="56"/>
+      <c r="AB24" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="41"/>
-      <c r="AG24" s="41"/>
-      <c r="AH24" s="41"/>
-      <c r="AI24" s="41"/>
-      <c r="AJ24" s="41"/>
-      <c r="AK24" s="41"/>
-      <c r="AL24" s="41"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="41"/>
-      <c r="AS24" s="41"/>
-      <c r="AT24" s="41"/>
-      <c r="AU24" s="41"/>
-      <c r="AV24" s="41"/>
-      <c r="AW24" s="41"/>
-      <c r="AX24" s="41"/>
-      <c r="AY24" s="41"/>
-      <c r="AZ24" s="41"/>
-      <c r="BA24" s="41"/>
-      <c r="BB24" s="41"/>
-      <c r="BC24" s="41"/>
-      <c r="BD24" s="41"/>
-      <c r="BE24" s="41"/>
-      <c r="BF24" s="41"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+      <c r="AK24" s="57"/>
+      <c r="AL24" s="57"/>
+      <c r="AM24" s="57"/>
+      <c r="AN24" s="57"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="57"/>
+      <c r="AT24" s="57"/>
+      <c r="AU24" s="57"/>
+      <c r="AV24" s="57"/>
+      <c r="AW24" s="57"/>
+      <c r="AX24" s="57"/>
+      <c r="AY24" s="57"/>
+      <c r="AZ24" s="57"/>
+      <c r="BA24" s="57"/>
+      <c r="BB24" s="57"/>
+      <c r="BC24" s="57"/>
+      <c r="BD24" s="57"/>
+      <c r="BE24" s="57"/>
+      <c r="BF24" s="57"/>
     </row>
     <row r="25" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A25" s="43">
+      <c r="A25" s="56">
         <v>20</v>
       </c>
-      <c r="B25" s="43"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="47" t="s">
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="42" t="s">
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="T25" s="42"/>
-      <c r="U25" s="42" t="s">
+      <c r="T25" s="58"/>
+      <c r="U25" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V25" s="42"/>
-      <c r="W25" s="42"/>
-      <c r="X25" s="42"/>
-      <c r="Y25" s="43"/>
-      <c r="Z25" s="43"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="41" t="s">
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="56"/>
+      <c r="Z25" s="56"/>
+      <c r="AA25" s="56"/>
+      <c r="AB25" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="AC25" s="41"/>
-      <c r="AD25" s="41"/>
-      <c r="AE25" s="41"/>
-      <c r="AF25" s="41"/>
-      <c r="AG25" s="41"/>
-      <c r="AH25" s="41"/>
-      <c r="AI25" s="41"/>
-      <c r="AJ25" s="41"/>
-      <c r="AK25" s="41"/>
-      <c r="AL25" s="41"/>
-      <c r="AM25" s="41"/>
-      <c r="AN25" s="41"/>
-      <c r="AO25" s="41"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="41"/>
-      <c r="AR25" s="41"/>
-      <c r="AS25" s="41"/>
-      <c r="AT25" s="41"/>
-      <c r="AU25" s="41"/>
-      <c r="AV25" s="41"/>
-      <c r="AW25" s="41"/>
-      <c r="AX25" s="41"/>
-      <c r="AY25" s="41"/>
-      <c r="AZ25" s="41"/>
-      <c r="BA25" s="41"/>
-      <c r="BB25" s="41"/>
-      <c r="BC25" s="41"/>
-      <c r="BD25" s="41"/>
-      <c r="BE25" s="41"/>
-      <c r="BF25" s="41"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57"/>
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
     </row>
     <row r="26" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A26" s="43">
+      <c r="A26" s="56">
         <v>21</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="41"/>
-      <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
-      <c r="S26" s="42"/>
-      <c r="T26" s="42"/>
-      <c r="U26" s="42"/>
-      <c r="V26" s="42"/>
-      <c r="W26" s="42"/>
-      <c r="X26" s="42"/>
-      <c r="Y26" s="43"/>
-      <c r="Z26" s="43"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="41" t="s">
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="58"/>
+      <c r="T26" s="58"/>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="58"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="AC26" s="41"/>
-      <c r="AD26" s="41"/>
-      <c r="AE26" s="41"/>
-      <c r="AF26" s="41"/>
-      <c r="AG26" s="41"/>
-      <c r="AH26" s="41"/>
-      <c r="AI26" s="41"/>
-      <c r="AJ26" s="41"/>
-      <c r="AK26" s="41"/>
-      <c r="AL26" s="41"/>
-      <c r="AM26" s="41"/>
-      <c r="AN26" s="41"/>
-      <c r="AO26" s="41"/>
-      <c r="AP26" s="41"/>
-      <c r="AQ26" s="41"/>
-      <c r="AR26" s="41"/>
-      <c r="AS26" s="41"/>
-      <c r="AT26" s="41"/>
-      <c r="AU26" s="41"/>
-      <c r="AV26" s="41"/>
-      <c r="AW26" s="41"/>
-      <c r="AX26" s="41"/>
-      <c r="AY26" s="41"/>
-      <c r="AZ26" s="41"/>
-      <c r="BA26" s="41"/>
-      <c r="BB26" s="41"/>
-      <c r="BC26" s="41"/>
-      <c r="BD26" s="41"/>
-      <c r="BE26" s="41"/>
-      <c r="BF26" s="41"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="57"/>
+      <c r="AM26" s="57"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="57"/>
+      <c r="BB26" s="57"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
     </row>
     <row r="27" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A27" s="43">
+      <c r="A27" s="56">
         <v>22</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="44" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+      <c r="K27" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="L27" s="45"/>
-      <c r="M27" s="45"/>
-      <c r="N27" s="45"/>
-      <c r="O27" s="45"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="46"/>
-      <c r="S27" s="42"/>
-      <c r="T27" s="42"/>
-      <c r="U27" s="42" t="s">
+      <c r="L27" s="64"/>
+      <c r="M27" s="64"/>
+      <c r="N27" s="64"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="58"/>
+      <c r="T27" s="58"/>
+      <c r="U27" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="V27" s="42"/>
-      <c r="W27" s="42"/>
-      <c r="X27" s="42"/>
-      <c r="Y27" s="43"/>
-      <c r="Z27" s="43"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="41" t="s">
+      <c r="V27" s="58"/>
+      <c r="W27" s="58"/>
+      <c r="X27" s="58"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="AC27" s="41"/>
-      <c r="AD27" s="41"/>
-      <c r="AE27" s="41"/>
-      <c r="AF27" s="41"/>
-      <c r="AG27" s="41"/>
-      <c r="AH27" s="41"/>
-      <c r="AI27" s="41"/>
-      <c r="AJ27" s="41"/>
-      <c r="AK27" s="41"/>
-      <c r="AL27" s="41"/>
-      <c r="AM27" s="41"/>
-      <c r="AN27" s="41"/>
-      <c r="AO27" s="41"/>
-      <c r="AP27" s="41"/>
-      <c r="AQ27" s="41"/>
-      <c r="AR27" s="41"/>
-      <c r="AS27" s="41"/>
-      <c r="AT27" s="41"/>
-      <c r="AU27" s="41"/>
-      <c r="AV27" s="41"/>
-      <c r="AW27" s="41"/>
-      <c r="AX27" s="41"/>
-      <c r="AY27" s="41"/>
-      <c r="AZ27" s="41"/>
-      <c r="BA27" s="41"/>
-      <c r="BB27" s="41"/>
-      <c r="BC27" s="41"/>
-      <c r="BD27" s="41"/>
-      <c r="BE27" s="41"/>
-      <c r="BF27" s="41"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="57"/>
+      <c r="AG27" s="57"/>
+      <c r="AH27" s="57"/>
+      <c r="AI27" s="57"/>
+      <c r="AJ27" s="57"/>
+      <c r="AK27" s="57"/>
+      <c r="AL27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="57"/>
+      <c r="AS27" s="57"/>
+      <c r="AT27" s="57"/>
+      <c r="AU27" s="57"/>
+      <c r="AV27" s="57"/>
+      <c r="AW27" s="57"/>
+      <c r="AX27" s="57"/>
+      <c r="AY27" s="57"/>
+      <c r="AZ27" s="57"/>
+      <c r="BA27" s="57"/>
+      <c r="BB27" s="57"/>
+      <c r="BC27" s="57"/>
+      <c r="BD27" s="57"/>
+      <c r="BE27" s="57"/>
+      <c r="BF27" s="57"/>
     </row>
     <row r="28" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A28" s="43">
+      <c r="A28" s="56">
         <v>23</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="41"/>
-      <c r="M28" s="41"/>
-      <c r="N28" s="41"/>
-      <c r="O28" s="41"/>
-      <c r="P28" s="41"/>
-      <c r="Q28" s="41"/>
-      <c r="R28" s="41"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="42"/>
-      <c r="Y28" s="43"/>
-      <c r="Z28" s="43"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="41"/>
-      <c r="AG28" s="41"/>
-      <c r="AH28" s="41"/>
-      <c r="AI28" s="41"/>
-      <c r="AJ28" s="41"/>
-      <c r="AK28" s="41"/>
-      <c r="AL28" s="41"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="41"/>
-      <c r="AS28" s="41"/>
-      <c r="AT28" s="41"/>
-      <c r="AU28" s="41"/>
-      <c r="AV28" s="41"/>
-      <c r="AW28" s="41"/>
-      <c r="AX28" s="41"/>
-      <c r="AY28" s="41"/>
-      <c r="AZ28" s="41"/>
-      <c r="BA28" s="41"/>
-      <c r="BB28" s="41"/>
-      <c r="BC28" s="41"/>
-      <c r="BD28" s="41"/>
-      <c r="BE28" s="41"/>
-      <c r="BF28" s="41"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="58"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="58"/>
+      <c r="X28" s="58"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
     </row>
     <row r="29" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A29" s="43">
+      <c r="A29" s="56">
         <v>24</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="41"/>
-      <c r="N29" s="41"/>
-      <c r="O29" s="41"/>
-      <c r="P29" s="41"/>
-      <c r="Q29" s="41"/>
-      <c r="R29" s="41"/>
-      <c r="S29" s="42"/>
-      <c r="T29" s="42"/>
-      <c r="U29" s="42"/>
-      <c r="V29" s="42"/>
-      <c r="W29" s="42"/>
-      <c r="X29" s="42"/>
-      <c r="Y29" s="43"/>
-      <c r="Z29" s="43"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="41"/>
-      <c r="AC29" s="41"/>
-      <c r="AD29" s="41"/>
-      <c r="AE29" s="41"/>
-      <c r="AF29" s="41"/>
-      <c r="AG29" s="41"/>
-      <c r="AH29" s="41"/>
-      <c r="AI29" s="41"/>
-      <c r="AJ29" s="41"/>
-      <c r="AK29" s="41"/>
-      <c r="AL29" s="41"/>
-      <c r="AM29" s="41"/>
-      <c r="AN29" s="41"/>
-      <c r="AO29" s="41"/>
-      <c r="AP29" s="41"/>
-      <c r="AQ29" s="41"/>
-      <c r="AR29" s="41"/>
-      <c r="AS29" s="41"/>
-      <c r="AT29" s="41"/>
-      <c r="AU29" s="41"/>
-      <c r="AV29" s="41"/>
-      <c r="AW29" s="41"/>
-      <c r="AX29" s="41"/>
-      <c r="AY29" s="41"/>
-      <c r="AZ29" s="41"/>
-      <c r="BA29" s="41"/>
-      <c r="BB29" s="41"/>
-      <c r="BC29" s="41"/>
-      <c r="BD29" s="41"/>
-      <c r="BE29" s="41"/>
-      <c r="BF29" s="41"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="57"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="57"/>
+      <c r="AF29" s="57"/>
+      <c r="AG29" s="57"/>
+      <c r="AH29" s="57"/>
+      <c r="AI29" s="57"/>
+      <c r="AJ29" s="57"/>
+      <c r="AK29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="57"/>
+      <c r="AR29" s="57"/>
+      <c r="AS29" s="57"/>
+      <c r="AT29" s="57"/>
+      <c r="AU29" s="57"/>
+      <c r="AV29" s="57"/>
+      <c r="AW29" s="57"/>
+      <c r="AX29" s="57"/>
+      <c r="AY29" s="57"/>
+      <c r="AZ29" s="57"/>
+      <c r="BA29" s="57"/>
+      <c r="BB29" s="57"/>
+      <c r="BC29" s="57"/>
+      <c r="BD29" s="57"/>
+      <c r="BE29" s="57"/>
+      <c r="BF29" s="57"/>
     </row>
     <row r="30" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A30" s="43">
+      <c r="A30" s="56">
         <v>25</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="41"/>
-      <c r="M30" s="41"/>
-      <c r="N30" s="41"/>
-      <c r="O30" s="41"/>
-      <c r="P30" s="41"/>
-      <c r="Q30" s="41"/>
-      <c r="R30" s="41"/>
-      <c r="S30" s="42"/>
-      <c r="T30" s="42"/>
-      <c r="U30" s="42"/>
-      <c r="V30" s="42"/>
-      <c r="W30" s="42"/>
-      <c r="X30" s="42"/>
-      <c r="Y30" s="43"/>
-      <c r="Z30" s="43"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="41"/>
-      <c r="AF30" s="41"/>
-      <c r="AG30" s="41"/>
-      <c r="AH30" s="41"/>
-      <c r="AI30" s="41"/>
-      <c r="AJ30" s="41"/>
-      <c r="AK30" s="41"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="41"/>
-      <c r="AR30" s="41"/>
-      <c r="AS30" s="41"/>
-      <c r="AT30" s="41"/>
-      <c r="AU30" s="41"/>
-      <c r="AV30" s="41"/>
-      <c r="AW30" s="41"/>
-      <c r="AX30" s="41"/>
-      <c r="AY30" s="41"/>
-      <c r="AZ30" s="41"/>
-      <c r="BA30" s="41"/>
-      <c r="BB30" s="41"/>
-      <c r="BC30" s="41"/>
-      <c r="BD30" s="41"/>
-      <c r="BE30" s="41"/>
-      <c r="BF30" s="41"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="57"/>
+      <c r="M30" s="57"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="56"/>
+      <c r="Z30" s="56"/>
+      <c r="AA30" s="56"/>
+      <c r="AB30" s="57"/>
+      <c r="AC30" s="57"/>
+      <c r="AD30" s="57"/>
+      <c r="AE30" s="57"/>
+      <c r="AF30" s="57"/>
+      <c r="AG30" s="57"/>
+      <c r="AH30" s="57"/>
+      <c r="AI30" s="57"/>
+      <c r="AJ30" s="57"/>
+      <c r="AK30" s="57"/>
+      <c r="AL30" s="57"/>
+      <c r="AM30" s="57"/>
+      <c r="AN30" s="57"/>
+      <c r="AO30" s="57"/>
+      <c r="AP30" s="57"/>
+      <c r="AQ30" s="57"/>
+      <c r="AR30" s="57"/>
+      <c r="AS30" s="57"/>
+      <c r="AT30" s="57"/>
+      <c r="AU30" s="57"/>
+      <c r="AV30" s="57"/>
+      <c r="AW30" s="57"/>
+      <c r="AX30" s="57"/>
+      <c r="AY30" s="57"/>
+      <c r="AZ30" s="57"/>
+      <c r="BA30" s="57"/>
+      <c r="BB30" s="57"/>
+      <c r="BC30" s="57"/>
+      <c r="BD30" s="57"/>
+      <c r="BE30" s="57"/>
+      <c r="BF30" s="57"/>
     </row>
     <row r="31" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A31" s="43">
+      <c r="A31" s="56">
         <v>26</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="41"/>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="42"/>
-      <c r="T31" s="42"/>
-      <c r="U31" s="42"/>
-      <c r="V31" s="42"/>
-      <c r="W31" s="42"/>
-      <c r="X31" s="42"/>
-      <c r="Y31" s="43"/>
-      <c r="Z31" s="43"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="41"/>
-      <c r="AC31" s="41"/>
-      <c r="AD31" s="41"/>
-      <c r="AE31" s="41"/>
-      <c r="AF31" s="41"/>
-      <c r="AG31" s="41"/>
-      <c r="AH31" s="41"/>
-      <c r="AI31" s="41"/>
-      <c r="AJ31" s="41"/>
-      <c r="AK31" s="41"/>
-      <c r="AL31" s="41"/>
-      <c r="AM31" s="41"/>
-      <c r="AN31" s="41"/>
-      <c r="AO31" s="41"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="41"/>
-      <c r="AR31" s="41"/>
-      <c r="AS31" s="41"/>
-      <c r="AT31" s="41"/>
-      <c r="AU31" s="41"/>
-      <c r="AV31" s="41"/>
-      <c r="AW31" s="41"/>
-      <c r="AX31" s="41"/>
-      <c r="AY31" s="41"/>
-      <c r="AZ31" s="41"/>
-      <c r="BA31" s="41"/>
-      <c r="BB31" s="41"/>
-      <c r="BC31" s="41"/>
-      <c r="BD31" s="41"/>
-      <c r="BE31" s="41"/>
-      <c r="BF31" s="41"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="57"/>
+      <c r="M31" s="57"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="58"/>
+      <c r="X31" s="58"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="57"/>
+      <c r="AG31" s="57"/>
+      <c r="AH31" s="57"/>
+      <c r="AI31" s="57"/>
+      <c r="AJ31" s="57"/>
+      <c r="AK31" s="57"/>
+      <c r="AL31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="57"/>
+      <c r="AS31" s="57"/>
+      <c r="AT31" s="57"/>
+      <c r="AU31" s="57"/>
+      <c r="AV31" s="57"/>
+      <c r="AW31" s="57"/>
+      <c r="AX31" s="57"/>
+      <c r="AY31" s="57"/>
+      <c r="AZ31" s="57"/>
+      <c r="BA31" s="57"/>
+      <c r="BB31" s="57"/>
+      <c r="BC31" s="57"/>
+      <c r="BD31" s="57"/>
+      <c r="BE31" s="57"/>
+      <c r="BF31" s="57"/>
     </row>
     <row r="32" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A32" s="43">
+      <c r="A32" s="56">
         <v>27</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="41"/>
-      <c r="Q32" s="41"/>
-      <c r="R32" s="41"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="42"/>
-      <c r="U32" s="42"/>
-      <c r="V32" s="42"/>
-      <c r="W32" s="42"/>
-      <c r="X32" s="42"/>
-      <c r="Y32" s="43"/>
-      <c r="Z32" s="43"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="41"/>
-      <c r="AG32" s="41"/>
-      <c r="AH32" s="41"/>
-      <c r="AI32" s="41"/>
-      <c r="AJ32" s="41"/>
-      <c r="AK32" s="41"/>
-      <c r="AL32" s="41"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="41"/>
-      <c r="AS32" s="41"/>
-      <c r="AT32" s="41"/>
-      <c r="AU32" s="41"/>
-      <c r="AV32" s="41"/>
-      <c r="AW32" s="41"/>
-      <c r="AX32" s="41"/>
-      <c r="AY32" s="41"/>
-      <c r="AZ32" s="41"/>
-      <c r="BA32" s="41"/>
-      <c r="BB32" s="41"/>
-      <c r="BC32" s="41"/>
-      <c r="BD32" s="41"/>
-      <c r="BE32" s="41"/>
-      <c r="BF32" s="41"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
+      <c r="W32" s="58"/>
+      <c r="X32" s="58"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="57"/>
+      <c r="AC32" s="57"/>
+      <c r="AD32" s="57"/>
+      <c r="AE32" s="57"/>
+      <c r="AF32" s="57"/>
+      <c r="AG32" s="57"/>
+      <c r="AH32" s="57"/>
+      <c r="AI32" s="57"/>
+      <c r="AJ32" s="57"/>
+      <c r="AK32" s="57"/>
+      <c r="AL32" s="57"/>
+      <c r="AM32" s="57"/>
+      <c r="AN32" s="57"/>
+      <c r="AO32" s="57"/>
+      <c r="AP32" s="57"/>
+      <c r="AQ32" s="57"/>
+      <c r="AR32" s="57"/>
+      <c r="AS32" s="57"/>
+      <c r="AT32" s="57"/>
+      <c r="AU32" s="57"/>
+      <c r="AV32" s="57"/>
+      <c r="AW32" s="57"/>
+      <c r="AX32" s="57"/>
+      <c r="AY32" s="57"/>
+      <c r="AZ32" s="57"/>
+      <c r="BA32" s="57"/>
+      <c r="BB32" s="57"/>
+      <c r="BC32" s="57"/>
+      <c r="BD32" s="57"/>
+      <c r="BE32" s="57"/>
+      <c r="BF32" s="57"/>
     </row>
     <row r="33" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A33" s="43">
+      <c r="A33" s="56">
         <v>28</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="41"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="41"/>
-      <c r="M33" s="41"/>
-      <c r="N33" s="41"/>
-      <c r="O33" s="41"/>
-      <c r="P33" s="41"/>
-      <c r="Q33" s="41"/>
-      <c r="R33" s="41"/>
-      <c r="S33" s="42"/>
-      <c r="T33" s="42"/>
-      <c r="U33" s="42"/>
-      <c r="V33" s="42"/>
-      <c r="W33" s="42"/>
-      <c r="X33" s="42"/>
-      <c r="Y33" s="43"/>
-      <c r="Z33" s="43"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="41"/>
-      <c r="AC33" s="41"/>
-      <c r="AD33" s="41"/>
-      <c r="AE33" s="41"/>
-      <c r="AF33" s="41"/>
-      <c r="AG33" s="41"/>
-      <c r="AH33" s="41"/>
-      <c r="AI33" s="41"/>
-      <c r="AJ33" s="41"/>
-      <c r="AK33" s="41"/>
-      <c r="AL33" s="41"/>
-      <c r="AM33" s="41"/>
-      <c r="AN33" s="41"/>
-      <c r="AO33" s="41"/>
-      <c r="AP33" s="41"/>
-      <c r="AQ33" s="41"/>
-      <c r="AR33" s="41"/>
-      <c r="AS33" s="41"/>
-      <c r="AT33" s="41"/>
-      <c r="AU33" s="41"/>
-      <c r="AV33" s="41"/>
-      <c r="AW33" s="41"/>
-      <c r="AX33" s="41"/>
-      <c r="AY33" s="41"/>
-      <c r="AZ33" s="41"/>
-      <c r="BA33" s="41"/>
-      <c r="BB33" s="41"/>
-      <c r="BC33" s="41"/>
-      <c r="BD33" s="41"/>
-      <c r="BE33" s="41"/>
-      <c r="BF33" s="41"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
+      <c r="W33" s="58"/>
+      <c r="X33" s="58"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="57"/>
+      <c r="AF33" s="57"/>
+      <c r="AG33" s="57"/>
+      <c r="AH33" s="57"/>
+      <c r="AI33" s="57"/>
+      <c r="AJ33" s="57"/>
+      <c r="AK33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="57"/>
+      <c r="AR33" s="57"/>
+      <c r="AS33" s="57"/>
+      <c r="AT33" s="57"/>
+      <c r="AU33" s="57"/>
+      <c r="AV33" s="57"/>
+      <c r="AW33" s="57"/>
+      <c r="AX33" s="57"/>
+      <c r="AY33" s="57"/>
+      <c r="AZ33" s="57"/>
+      <c r="BA33" s="57"/>
+      <c r="BB33" s="57"/>
+      <c r="BC33" s="57"/>
+      <c r="BD33" s="57"/>
+      <c r="BE33" s="57"/>
+      <c r="BF33" s="57"/>
     </row>
     <row r="34" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A34" s="43">
+      <c r="A34" s="56">
         <v>29</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="41"/>
-      <c r="M34" s="41"/>
-      <c r="N34" s="41"/>
-      <c r="O34" s="41"/>
-      <c r="P34" s="41"/>
-      <c r="Q34" s="41"/>
-      <c r="R34" s="41"/>
-      <c r="S34" s="42"/>
-      <c r="T34" s="42"/>
-      <c r="U34" s="42"/>
-      <c r="V34" s="42"/>
-      <c r="W34" s="42"/>
-      <c r="X34" s="42"/>
-      <c r="Y34" s="43"/>
-      <c r="Z34" s="43"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="41"/>
-      <c r="AF34" s="41"/>
-      <c r="AG34" s="41"/>
-      <c r="AH34" s="41"/>
-      <c r="AI34" s="41"/>
-      <c r="AJ34" s="41"/>
-      <c r="AK34" s="41"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="41"/>
-      <c r="AR34" s="41"/>
-      <c r="AS34" s="41"/>
-      <c r="AT34" s="41"/>
-      <c r="AU34" s="41"/>
-      <c r="AV34" s="41"/>
-      <c r="AW34" s="41"/>
-      <c r="AX34" s="41"/>
-      <c r="AY34" s="41"/>
-      <c r="AZ34" s="41"/>
-      <c r="BA34" s="41"/>
-      <c r="BB34" s="41"/>
-      <c r="BC34" s="41"/>
-      <c r="BD34" s="41"/>
-      <c r="BE34" s="41"/>
-      <c r="BF34" s="41"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="57"/>
+      <c r="M34" s="57"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
+      <c r="W34" s="58"/>
+      <c r="X34" s="58"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="57"/>
+      <c r="AI34" s="57"/>
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="57"/>
+      <c r="AS34" s="57"/>
+      <c r="AT34" s="57"/>
+      <c r="AU34" s="57"/>
+      <c r="AV34" s="57"/>
+      <c r="AW34" s="57"/>
+      <c r="AX34" s="57"/>
+      <c r="AY34" s="57"/>
+      <c r="AZ34" s="57"/>
+      <c r="BA34" s="57"/>
+      <c r="BB34" s="57"/>
+      <c r="BC34" s="57"/>
+      <c r="BD34" s="57"/>
+      <c r="BE34" s="57"/>
+      <c r="BF34" s="57"/>
     </row>
     <row r="35" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A35" s="43">
+      <c r="A35" s="56">
         <v>30</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="41"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="41"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="41"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="42"/>
-      <c r="T35" s="42"/>
-      <c r="U35" s="42"/>
-      <c r="V35" s="42"/>
-      <c r="W35" s="42"/>
-      <c r="X35" s="42"/>
-      <c r="Y35" s="43"/>
-      <c r="Z35" s="43"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="41"/>
-      <c r="AC35" s="41"/>
-      <c r="AD35" s="41"/>
-      <c r="AE35" s="41"/>
-      <c r="AF35" s="41"/>
-      <c r="AG35" s="41"/>
-      <c r="AH35" s="41"/>
-      <c r="AI35" s="41"/>
-      <c r="AJ35" s="41"/>
-      <c r="AK35" s="41"/>
-      <c r="AL35" s="41"/>
-      <c r="AM35" s="41"/>
-      <c r="AN35" s="41"/>
-      <c r="AO35" s="41"/>
-      <c r="AP35" s="41"/>
-      <c r="AQ35" s="41"/>
-      <c r="AR35" s="41"/>
-      <c r="AS35" s="41"/>
-      <c r="AT35" s="41"/>
-      <c r="AU35" s="41"/>
-      <c r="AV35" s="41"/>
-      <c r="AW35" s="41"/>
-      <c r="AX35" s="41"/>
-      <c r="AY35" s="41"/>
-      <c r="AZ35" s="41"/>
-      <c r="BA35" s="41"/>
-      <c r="BB35" s="41"/>
-      <c r="BC35" s="41"/>
-      <c r="BD35" s="41"/>
-      <c r="BE35" s="41"/>
-      <c r="BF35" s="41"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="57"/>
+      <c r="M35" s="57"/>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
+      <c r="W35" s="58"/>
+      <c r="X35" s="58"/>
+      <c r="Y35" s="56"/>
+      <c r="Z35" s="56"/>
+      <c r="AA35" s="56"/>
+      <c r="AB35" s="57"/>
+      <c r="AC35" s="57"/>
+      <c r="AD35" s="57"/>
+      <c r="AE35" s="57"/>
+      <c r="AF35" s="57"/>
+      <c r="AG35" s="57"/>
+      <c r="AH35" s="57"/>
+      <c r="AI35" s="57"/>
+      <c r="AJ35" s="57"/>
+      <c r="AK35" s="57"/>
+      <c r="AL35" s="57"/>
+      <c r="AM35" s="57"/>
+      <c r="AN35" s="57"/>
+      <c r="AO35" s="57"/>
+      <c r="AP35" s="57"/>
+      <c r="AQ35" s="57"/>
+      <c r="AR35" s="57"/>
+      <c r="AS35" s="57"/>
+      <c r="AT35" s="57"/>
+      <c r="AU35" s="57"/>
+      <c r="AV35" s="57"/>
+      <c r="AW35" s="57"/>
+      <c r="AX35" s="57"/>
+      <c r="AY35" s="57"/>
+      <c r="AZ35" s="57"/>
+      <c r="BA35" s="57"/>
+      <c r="BB35" s="57"/>
+      <c r="BC35" s="57"/>
+      <c r="BD35" s="57"/>
+      <c r="BE35" s="57"/>
+      <c r="BF35" s="57"/>
     </row>
     <row r="36" spans="1:58" ht="14.1" customHeight="1">
-      <c r="A36" s="43">
+      <c r="A36" s="56">
         <v>31</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="42"/>
-      <c r="T36" s="42"/>
-      <c r="U36" s="42"/>
-      <c r="V36" s="42"/>
-      <c r="W36" s="42"/>
-      <c r="X36" s="42"/>
-      <c r="Y36" s="43"/>
-      <c r="Z36" s="43"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="41"/>
-      <c r="AC36" s="41"/>
-      <c r="AD36" s="41"/>
-      <c r="AE36" s="41"/>
-      <c r="AF36" s="41"/>
-      <c r="AG36" s="41"/>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41"/>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41"/>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41"/>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="41"/>
-      <c r="AP36" s="41"/>
-      <c r="AQ36" s="41"/>
-      <c r="AR36" s="41"/>
-      <c r="AS36" s="41"/>
-      <c r="AT36" s="41"/>
-      <c r="AU36" s="41"/>
-      <c r="AV36" s="41"/>
-      <c r="AW36" s="41"/>
-      <c r="AX36" s="41"/>
-      <c r="AY36" s="41"/>
-      <c r="AZ36" s="41"/>
-      <c r="BA36" s="41"/>
-      <c r="BB36" s="41"/>
-      <c r="BC36" s="41"/>
-      <c r="BD36" s="41"/>
-      <c r="BE36" s="41"/>
-      <c r="BF36" s="41"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
+      <c r="W36" s="58"/>
+      <c r="X36" s="58"/>
+      <c r="Y36" s="56"/>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="57"/>
+      <c r="AX36" s="57"/>
+      <c r="AY36" s="57"/>
+      <c r="AZ36" s="57"/>
+      <c r="BA36" s="57"/>
+      <c r="BB36" s="57"/>
+      <c r="BC36" s="57"/>
+      <c r="BD36" s="57"/>
+      <c r="BE36" s="57"/>
+      <c r="BF36" s="57"/>
     </row>
     <row r="39" spans="1:58">
-      <c r="D39" s="68" t="s">
+      <c r="D39" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="68"/>
-      <c r="G39" s="68"/>
-      <c r="H39" s="68"/>
-      <c r="I39" s="68"/>
-      <c r="J39" s="68"/>
-      <c r="K39" s="68"/>
-      <c r="L39" s="68"/>
-      <c r="M39" s="68"/>
-      <c r="N39" s="68"/>
-      <c r="O39" s="68"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
     </row>
     <row r="40" spans="1:58">
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="39"/>
+      <c r="N40" s="39"/>
+      <c r="O40" s="39"/>
     </row>
     <row r="42" spans="1:58">
-      <c r="D42" s="58"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="59"/>
-      <c r="G42" s="59"/>
-      <c r="H42" s="59"/>
-      <c r="I42" s="59"/>
-      <c r="J42" s="59"/>
-      <c r="K42" s="59"/>
-      <c r="L42" s="59"/>
-      <c r="M42" s="59"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="59"/>
-      <c r="R42" s="59"/>
-      <c r="S42" s="59"/>
-      <c r="T42" s="59"/>
-      <c r="U42" s="60"/>
-      <c r="V42" s="57" t="s">
+      <c r="D42" s="46"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="47"/>
+      <c r="G42" s="47"/>
+      <c r="H42" s="47"/>
+      <c r="I42" s="47"/>
+      <c r="J42" s="47"/>
+      <c r="K42" s="47"/>
+      <c r="L42" s="47"/>
+      <c r="M42" s="47"/>
+      <c r="N42" s="47"/>
+      <c r="O42" s="47"/>
+      <c r="P42" s="47"/>
+      <c r="Q42" s="47"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="47"/>
+      <c r="T42" s="47"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="68" t="s">
         <v>78</v>
       </c>
-      <c r="W42" s="57" t="s">
+      <c r="W42" s="68" t="s">
         <v>79</v>
       </c>
-      <c r="X42" s="57" t="s">
+      <c r="X42" s="68" t="s">
         <v>80</v>
       </c>
-      <c r="Y42" s="57" t="s">
+      <c r="Y42" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="Z42" s="57" t="s">
+      <c r="Z42" s="68" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:58">
-      <c r="D43" s="61"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="62"/>
-      <c r="R43" s="62"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="63"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
-      <c r="X43" s="57"/>
-      <c r="Y43" s="57"/>
-      <c r="Z43" s="57"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="50"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="68"/>
+      <c r="W43" s="68"/>
+      <c r="X43" s="68"/>
+      <c r="Y43" s="68"/>
+      <c r="Z43" s="68"/>
     </row>
     <row r="44" spans="1:58">
-      <c r="D44" s="61"/>
-      <c r="E44" s="62"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="62"/>
-      <c r="R44" s="62"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="63"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="50"/>
+      <c r="F44" s="50"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="68"/>
+      <c r="W44" s="68"/>
+      <c r="X44" s="68"/>
+      <c r="Y44" s="68"/>
+      <c r="Z44" s="68"/>
     </row>
     <row r="45" spans="1:58">
-      <c r="D45" s="61"/>
-      <c r="E45" s="62"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="63"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="57"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="50"/>
+      <c r="F45" s="50"/>
+      <c r="G45" s="50"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="50"/>
+      <c r="J45" s="50"/>
+      <c r="K45" s="50"/>
+      <c r="L45" s="50"/>
+      <c r="M45" s="50"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="50"/>
+      <c r="P45" s="50"/>
+      <c r="Q45" s="50"/>
+      <c r="R45" s="50"/>
+      <c r="S45" s="50"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="68"/>
+      <c r="W45" s="68"/>
+      <c r="X45" s="68"/>
+      <c r="Y45" s="68"/>
+      <c r="Z45" s="68"/>
     </row>
     <row r="46" spans="1:58">
-      <c r="D46" s="61"/>
-      <c r="E46" s="62"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="63"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="50"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="50"/>
+      <c r="J46" s="50"/>
+      <c r="K46" s="50"/>
+      <c r="L46" s="50"/>
+      <c r="M46" s="50"/>
+      <c r="N46" s="50"/>
+      <c r="O46" s="50"/>
+      <c r="P46" s="50"/>
+      <c r="Q46" s="50"/>
+      <c r="R46" s="50"/>
+      <c r="S46" s="50"/>
+      <c r="T46" s="50"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="68"/>
+      <c r="W46" s="68"/>
+      <c r="X46" s="68"/>
+      <c r="Y46" s="68"/>
+      <c r="Z46" s="68"/>
     </row>
     <row r="47" spans="1:58">
-      <c r="D47" s="61"/>
-      <c r="E47" s="62"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="63"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-      <c r="Z47" s="57"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="50"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="50"/>
+      <c r="J47" s="50"/>
+      <c r="K47" s="50"/>
+      <c r="L47" s="50"/>
+      <c r="M47" s="50"/>
+      <c r="N47" s="50"/>
+      <c r="O47" s="50"/>
+      <c r="P47" s="50"/>
+      <c r="Q47" s="50"/>
+      <c r="R47" s="50"/>
+      <c r="S47" s="50"/>
+      <c r="T47" s="50"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="68"/>
+      <c r="W47" s="68"/>
+      <c r="X47" s="68"/>
+      <c r="Y47" s="68"/>
+      <c r="Z47" s="68"/>
     </row>
     <row r="48" spans="1:58">
-      <c r="D48" s="64"/>
-      <c r="E48" s="65"/>
-      <c r="F48" s="65"/>
-      <c r="G48" s="65"/>
-      <c r="H48" s="65"/>
-      <c r="I48" s="65"/>
-      <c r="J48" s="65"/>
-      <c r="K48" s="65"/>
-      <c r="L48" s="65"/>
-      <c r="M48" s="65"/>
-      <c r="N48" s="65"/>
-      <c r="O48" s="65"/>
-      <c r="P48" s="65"/>
-      <c r="Q48" s="65"/>
-      <c r="R48" s="65"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="66"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
-      <c r="X48" s="57"/>
-      <c r="Y48" s="57"/>
-      <c r="Z48" s="57"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
+      <c r="J48" s="53"/>
+      <c r="K48" s="53"/>
+      <c r="L48" s="53"/>
+      <c r="M48" s="53"/>
+      <c r="N48" s="53"/>
+      <c r="O48" s="53"/>
+      <c r="P48" s="53"/>
+      <c r="Q48" s="53"/>
+      <c r="R48" s="53"/>
+      <c r="S48" s="53"/>
+      <c r="T48" s="53"/>
+      <c r="U48" s="54"/>
+      <c r="V48" s="68"/>
+      <c r="W48" s="68"/>
+      <c r="X48" s="68"/>
+      <c r="Y48" s="68"/>
+      <c r="Z48" s="68"/>
     </row>
     <row r="49" spans="4:26">
-      <c r="D49" s="67" t="s">
+      <c r="D49" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67" t="s">
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
-      <c r="R49" s="67"/>
-      <c r="S49" s="67"/>
-      <c r="T49" s="67"/>
-      <c r="U49" s="67"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
+      <c r="V49" s="68"/>
+      <c r="W49" s="68"/>
+      <c r="X49" s="68"/>
+      <c r="Y49" s="68"/>
+      <c r="Z49" s="68"/>
     </row>
     <row r="50" spans="4:26">
-      <c r="D50" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C6)</f>
+      <c r="D50" s="40" t="str">
+        <f t="shared" ref="D50:D77" si="0" xml:space="preserve"> TRIM($C6)</f>
         <v>ログイン画面</v>
       </c>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K6)</f>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="43" t="str">
+        <f t="shared" ref="K50:K77" si="1" xml:space="preserve"> TRIM($K6)</f>
         <v/>
       </c>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
-      <c r="P50" s="55"/>
-      <c r="Q50" s="55"/>
-      <c r="R50" s="55"/>
-      <c r="S50" s="55"/>
-      <c r="T50" s="55"/>
-      <c r="U50" s="56"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="44"/>
+      <c r="P50" s="44"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="44"/>
+      <c r="T50" s="44"/>
+      <c r="U50" s="45"/>
       <c r="V50" s="30" t="s">
         <v>15</v>
       </c>
@@ -19549,33 +19550,33 @@
       <c r="Y50" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z50" s="31"/>
+      <c r="Z50" s="69"/>
     </row>
     <row r="51" spans="4:26">
-      <c r="D51" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C7)</f>
+      <c r="D51" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>トップ画面</v>
       </c>
-      <c r="E51" s="52"/>
-      <c r="F51" s="52"/>
-      <c r="G51" s="52"/>
-      <c r="H51" s="52"/>
-      <c r="I51" s="52"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K7)</f>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>タブ選択</v>
       </c>
-      <c r="L51" s="55"/>
-      <c r="M51" s="55"/>
-      <c r="N51" s="55"/>
-      <c r="O51" s="55"/>
-      <c r="P51" s="55"/>
-      <c r="Q51" s="55"/>
-      <c r="R51" s="55"/>
-      <c r="S51" s="55"/>
-      <c r="T51" s="55"/>
-      <c r="U51" s="56"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="44"/>
+      <c r="P51" s="44"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="44"/>
+      <c r="T51" s="44"/>
+      <c r="U51" s="45"/>
       <c r="V51" s="30" t="s">
         <v>15</v>
       </c>
@@ -19588,33 +19589,33 @@
       <c r="Y51" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z51" s="32"/>
+      <c r="Z51" s="69"/>
     </row>
     <row r="52" spans="4:26">
-      <c r="D52" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C8)</f>
+      <c r="D52" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K8)</f>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>TOP</v>
       </c>
-      <c r="L52" s="55"/>
-      <c r="M52" s="55"/>
-      <c r="N52" s="55"/>
-      <c r="O52" s="55"/>
-      <c r="P52" s="55"/>
-      <c r="Q52" s="55"/>
-      <c r="R52" s="55"/>
-      <c r="S52" s="55"/>
-      <c r="T52" s="55"/>
-      <c r="U52" s="56"/>
+      <c r="L52" s="44"/>
+      <c r="M52" s="44"/>
+      <c r="N52" s="44"/>
+      <c r="O52" s="44"/>
+      <c r="P52" s="44"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="45"/>
       <c r="V52" s="30" t="s">
         <v>15</v>
       </c>
@@ -19627,33 +19628,33 @@
       <c r="Y52" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z52" s="32"/>
+      <c r="Z52" s="69"/>
     </row>
     <row r="53" spans="4:26">
-      <c r="D53" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C9)</f>
+      <c r="D53" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E53" s="52"/>
-      <c r="F53" s="52"/>
-      <c r="G53" s="52"/>
-      <c r="H53" s="52"/>
-      <c r="I53" s="52"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K9)</f>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>ログアウト</v>
       </c>
-      <c r="L53" s="55"/>
-      <c r="M53" s="55"/>
-      <c r="N53" s="55"/>
-      <c r="O53" s="55"/>
-      <c r="P53" s="55"/>
-      <c r="Q53" s="55"/>
-      <c r="R53" s="55"/>
-      <c r="S53" s="55"/>
-      <c r="T53" s="55"/>
-      <c r="U53" s="56"/>
+      <c r="L53" s="44"/>
+      <c r="M53" s="44"/>
+      <c r="N53" s="44"/>
+      <c r="O53" s="44"/>
+      <c r="P53" s="44"/>
+      <c r="Q53" s="44"/>
+      <c r="R53" s="44"/>
+      <c r="S53" s="44"/>
+      <c r="T53" s="44"/>
+      <c r="U53" s="45"/>
       <c r="V53" s="30" t="s">
         <v>15</v>
       </c>
@@ -19666,33 +19667,33 @@
       <c r="Y53" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z53" s="32"/>
+      <c r="Z53" s="69"/>
     </row>
     <row r="54" spans="4:26">
-      <c r="D54" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C10)</f>
+      <c r="D54" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K10)</f>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>人員登録</v>
       </c>
-      <c r="L54" s="55"/>
-      <c r="M54" s="55"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="55"/>
-      <c r="P54" s="55"/>
-      <c r="Q54" s="55"/>
-      <c r="R54" s="55"/>
-      <c r="S54" s="55"/>
-      <c r="T54" s="55"/>
-      <c r="U54" s="56"/>
+      <c r="L54" s="44"/>
+      <c r="M54" s="44"/>
+      <c r="N54" s="44"/>
+      <c r="O54" s="44"/>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="44"/>
+      <c r="S54" s="44"/>
+      <c r="T54" s="44"/>
+      <c r="U54" s="45"/>
       <c r="V54" s="30" t="s">
         <v>15</v>
       </c>
@@ -19705,33 +19706,33 @@
       <c r="Y54" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z54" s="32"/>
+      <c r="Z54" s="69"/>
     </row>
     <row r="55" spans="4:26">
-      <c r="D55" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C11)</f>
+      <c r="D55" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K11)</f>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>人員検索</v>
       </c>
-      <c r="L55" s="55"/>
-      <c r="M55" s="55"/>
-      <c r="N55" s="55"/>
-      <c r="O55" s="55"/>
-      <c r="P55" s="55"/>
-      <c r="Q55" s="55"/>
-      <c r="R55" s="55"/>
-      <c r="S55" s="55"/>
-      <c r="T55" s="55"/>
-      <c r="U55" s="56"/>
+      <c r="L55" s="44"/>
+      <c r="M55" s="44"/>
+      <c r="N55" s="44"/>
+      <c r="O55" s="44"/>
+      <c r="P55" s="44"/>
+      <c r="Q55" s="44"/>
+      <c r="R55" s="44"/>
+      <c r="S55" s="44"/>
+      <c r="T55" s="44"/>
+      <c r="U55" s="45"/>
       <c r="V55" s="30" t="s">
         <v>15</v>
       </c>
@@ -19744,33 +19745,33 @@
       <c r="Y55" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z55" s="32"/>
+      <c r="Z55" s="69"/>
     </row>
     <row r="56" spans="4:26">
-      <c r="D56" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C12)</f>
+      <c r="D56" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E56" s="52"/>
-      <c r="F56" s="52"/>
-      <c r="G56" s="52"/>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K12)</f>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>人員変更・削除</v>
       </c>
-      <c r="L56" s="55"/>
-      <c r="M56" s="55"/>
-      <c r="N56" s="55"/>
-      <c r="O56" s="55"/>
-      <c r="P56" s="55"/>
-      <c r="Q56" s="55"/>
-      <c r="R56" s="55"/>
-      <c r="S56" s="55"/>
-      <c r="T56" s="55"/>
-      <c r="U56" s="56"/>
+      <c r="L56" s="44"/>
+      <c r="M56" s="44"/>
+      <c r="N56" s="44"/>
+      <c r="O56" s="44"/>
+      <c r="P56" s="44"/>
+      <c r="Q56" s="44"/>
+      <c r="R56" s="44"/>
+      <c r="S56" s="44"/>
+      <c r="T56" s="44"/>
+      <c r="U56" s="45"/>
       <c r="V56" s="30" t="s">
         <v>15</v>
       </c>
@@ -19783,33 +19784,33 @@
       <c r="Y56" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z56" s="32"/>
+      <c r="Z56" s="69"/>
     </row>
     <row r="57" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D57" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C13)</f>
+      <c r="D57" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E57" s="52"/>
-      <c r="F57" s="52"/>
-      <c r="G57" s="52"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="52"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K13)</f>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>店舗登録</v>
       </c>
-      <c r="L57" s="55"/>
-      <c r="M57" s="55"/>
-      <c r="N57" s="55"/>
-      <c r="O57" s="55"/>
-      <c r="P57" s="55"/>
-      <c r="Q57" s="55"/>
-      <c r="R57" s="55"/>
-      <c r="S57" s="55"/>
-      <c r="T57" s="55"/>
-      <c r="U57" s="56"/>
+      <c r="L57" s="44"/>
+      <c r="M57" s="44"/>
+      <c r="N57" s="44"/>
+      <c r="O57" s="44"/>
+      <c r="P57" s="44"/>
+      <c r="Q57" s="44"/>
+      <c r="R57" s="44"/>
+      <c r="S57" s="44"/>
+      <c r="T57" s="44"/>
+      <c r="U57" s="45"/>
       <c r="V57" s="30" t="s">
         <v>15</v>
       </c>
@@ -19822,33 +19823,33 @@
       <c r="Y57" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z57" s="32"/>
+      <c r="Z57" s="69"/>
     </row>
     <row r="58" spans="4:26">
-      <c r="D58" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C14)</f>
+      <c r="D58" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E58" s="52"/>
-      <c r="F58" s="52"/>
-      <c r="G58" s="52"/>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K14)</f>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>店舗検索</v>
       </c>
-      <c r="L58" s="55"/>
-      <c r="M58" s="55"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="55"/>
-      <c r="P58" s="55"/>
-      <c r="Q58" s="55"/>
-      <c r="R58" s="55"/>
-      <c r="S58" s="55"/>
-      <c r="T58" s="55"/>
-      <c r="U58" s="56"/>
+      <c r="L58" s="44"/>
+      <c r="M58" s="44"/>
+      <c r="N58" s="44"/>
+      <c r="O58" s="44"/>
+      <c r="P58" s="44"/>
+      <c r="Q58" s="44"/>
+      <c r="R58" s="44"/>
+      <c r="S58" s="44"/>
+      <c r="T58" s="44"/>
+      <c r="U58" s="45"/>
       <c r="V58" s="30" t="s">
         <v>15</v>
       </c>
@@ -19861,33 +19862,33 @@
       <c r="Y58" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z58" s="32"/>
+      <c r="Z58" s="69"/>
     </row>
     <row r="59" spans="4:26">
-      <c r="D59" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C15)</f>
+      <c r="D59" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
-      <c r="G59" s="52"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="52"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K15)</f>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>店舗変更・削除</v>
       </c>
-      <c r="L59" s="55"/>
-      <c r="M59" s="55"/>
-      <c r="N59" s="55"/>
-      <c r="O59" s="55"/>
-      <c r="P59" s="55"/>
-      <c r="Q59" s="55"/>
-      <c r="R59" s="55"/>
-      <c r="S59" s="55"/>
-      <c r="T59" s="55"/>
-      <c r="U59" s="56"/>
+      <c r="L59" s="44"/>
+      <c r="M59" s="44"/>
+      <c r="N59" s="44"/>
+      <c r="O59" s="44"/>
+      <c r="P59" s="44"/>
+      <c r="Q59" s="44"/>
+      <c r="R59" s="44"/>
+      <c r="S59" s="44"/>
+      <c r="T59" s="44"/>
+      <c r="U59" s="45"/>
       <c r="V59" s="30" t="s">
         <v>15</v>
       </c>
@@ -19900,33 +19901,33 @@
       <c r="Y59" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z59" s="32"/>
+      <c r="Z59" s="69"/>
     </row>
     <row r="60" spans="4:26">
-      <c r="D60" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C16)</f>
+      <c r="D60" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K16)</f>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>注文管理検索</v>
       </c>
-      <c r="L60" s="55"/>
-      <c r="M60" s="55"/>
-      <c r="N60" s="55"/>
-      <c r="O60" s="55"/>
-      <c r="P60" s="55"/>
-      <c r="Q60" s="55"/>
-      <c r="R60" s="55"/>
-      <c r="S60" s="55"/>
-      <c r="T60" s="55"/>
-      <c r="U60" s="56"/>
+      <c r="L60" s="44"/>
+      <c r="M60" s="44"/>
+      <c r="N60" s="44"/>
+      <c r="O60" s="44"/>
+      <c r="P60" s="44"/>
+      <c r="Q60" s="44"/>
+      <c r="R60" s="44"/>
+      <c r="S60" s="44"/>
+      <c r="T60" s="44"/>
+      <c r="U60" s="45"/>
       <c r="V60" s="30" t="s">
         <v>15</v>
       </c>
@@ -19939,33 +19940,33 @@
       <c r="Y60" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z60" s="32"/>
+      <c r="Z60" s="69"/>
     </row>
     <row r="61" spans="4:26">
-      <c r="D61" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C17)</f>
+      <c r="D61" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>人員管理画面</v>
       </c>
-      <c r="E61" s="52"/>
-      <c r="F61" s="52"/>
-      <c r="G61" s="52"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="52"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K17)</f>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>登録</v>
       </c>
-      <c r="L61" s="55"/>
-      <c r="M61" s="55"/>
-      <c r="N61" s="55"/>
-      <c r="O61" s="55"/>
-      <c r="P61" s="55"/>
-      <c r="Q61" s="55"/>
-      <c r="R61" s="55"/>
-      <c r="S61" s="55"/>
-      <c r="T61" s="55"/>
-      <c r="U61" s="56"/>
+      <c r="L61" s="44"/>
+      <c r="M61" s="44"/>
+      <c r="N61" s="44"/>
+      <c r="O61" s="44"/>
+      <c r="P61" s="44"/>
+      <c r="Q61" s="44"/>
+      <c r="R61" s="44"/>
+      <c r="S61" s="44"/>
+      <c r="T61" s="44"/>
+      <c r="U61" s="45"/>
       <c r="V61" s="30" t="s">
         <v>15</v>
       </c>
@@ -19978,33 +19979,33 @@
       <c r="Y61" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z61" s="32"/>
+      <c r="Z61" s="69"/>
     </row>
     <row r="62" spans="4:26">
-      <c r="D62" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C18)</f>
+      <c r="D62" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K18)</f>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>検索</v>
       </c>
-      <c r="L62" s="55"/>
-      <c r="M62" s="55"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="55"/>
-      <c r="P62" s="55"/>
-      <c r="Q62" s="55"/>
-      <c r="R62" s="55"/>
-      <c r="S62" s="55"/>
-      <c r="T62" s="55"/>
-      <c r="U62" s="56"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="45"/>
       <c r="V62" s="30" t="s">
         <v>15</v>
       </c>
@@ -20017,33 +20018,33 @@
       <c r="Y62" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z62" s="32"/>
+      <c r="Z62" s="69"/>
     </row>
     <row r="63" spans="4:26">
-      <c r="D63" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C19)</f>
+      <c r="D63" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E63" s="52"/>
-      <c r="F63" s="52"/>
-      <c r="G63" s="52"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="52"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K19)</f>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>CSV出力</v>
       </c>
-      <c r="L63" s="55"/>
-      <c r="M63" s="55"/>
-      <c r="N63" s="55"/>
-      <c r="O63" s="55"/>
-      <c r="P63" s="55"/>
-      <c r="Q63" s="55"/>
-      <c r="R63" s="55"/>
-      <c r="S63" s="55"/>
-      <c r="T63" s="55"/>
-      <c r="U63" s="56"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="44"/>
+      <c r="T63" s="44"/>
+      <c r="U63" s="45"/>
       <c r="V63" s="30" t="s">
         <v>15</v>
       </c>
@@ -20056,33 +20057,33 @@
       <c r="Y63" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z63" s="32"/>
+      <c r="Z63" s="69"/>
     </row>
     <row r="64" spans="4:26">
-      <c r="D64" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C20)</f>
+      <c r="D64" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K20)</f>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>変更・削除</v>
       </c>
-      <c r="L64" s="55"/>
-      <c r="M64" s="55"/>
-      <c r="N64" s="55"/>
-      <c r="O64" s="55"/>
-      <c r="P64" s="55"/>
-      <c r="Q64" s="55"/>
-      <c r="R64" s="55"/>
-      <c r="S64" s="55"/>
-      <c r="T64" s="55"/>
-      <c r="U64" s="56"/>
+      <c r="L64" s="44"/>
+      <c r="M64" s="44"/>
+      <c r="N64" s="44"/>
+      <c r="O64" s="44"/>
+      <c r="P64" s="44"/>
+      <c r="Q64" s="44"/>
+      <c r="R64" s="44"/>
+      <c r="S64" s="44"/>
+      <c r="T64" s="44"/>
+      <c r="U64" s="45"/>
       <c r="V64" s="30" t="s">
         <v>15</v>
       </c>
@@ -20095,33 +20096,33 @@
       <c r="Y64" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z64" s="32"/>
+      <c r="Z64" s="69"/>
     </row>
     <row r="65" spans="4:26">
-      <c r="D65" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C21)</f>
+      <c r="D65" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>店舗管理画面</v>
       </c>
-      <c r="E65" s="52"/>
-      <c r="F65" s="52"/>
-      <c r="G65" s="52"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="52"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K21)</f>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>登録</v>
       </c>
-      <c r="L65" s="55"/>
-      <c r="M65" s="55"/>
-      <c r="N65" s="55"/>
-      <c r="O65" s="55"/>
-      <c r="P65" s="55"/>
-      <c r="Q65" s="55"/>
-      <c r="R65" s="55"/>
-      <c r="S65" s="55"/>
-      <c r="T65" s="55"/>
-      <c r="U65" s="56"/>
+      <c r="L65" s="44"/>
+      <c r="M65" s="44"/>
+      <c r="N65" s="44"/>
+      <c r="O65" s="44"/>
+      <c r="P65" s="44"/>
+      <c r="Q65" s="44"/>
+      <c r="R65" s="44"/>
+      <c r="S65" s="44"/>
+      <c r="T65" s="44"/>
+      <c r="U65" s="45"/>
       <c r="V65" s="30" t="s">
         <v>15</v>
       </c>
@@ -20134,33 +20135,33 @@
       <c r="Y65" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z65" s="32"/>
+      <c r="Z65" s="69"/>
     </row>
     <row r="66" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D66" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C22)</f>
+      <c r="D66" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K22)</f>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>検索</v>
       </c>
-      <c r="L66" s="55"/>
-      <c r="M66" s="55"/>
-      <c r="N66" s="55"/>
-      <c r="O66" s="55"/>
-      <c r="P66" s="55"/>
-      <c r="Q66" s="55"/>
-      <c r="R66" s="55"/>
-      <c r="S66" s="55"/>
-      <c r="T66" s="55"/>
-      <c r="U66" s="56"/>
+      <c r="L66" s="44"/>
+      <c r="M66" s="44"/>
+      <c r="N66" s="44"/>
+      <c r="O66" s="44"/>
+      <c r="P66" s="44"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44"/>
+      <c r="S66" s="44"/>
+      <c r="T66" s="44"/>
+      <c r="U66" s="45"/>
       <c r="V66" s="30" t="s">
         <v>15</v>
       </c>
@@ -20173,33 +20174,33 @@
       <c r="Y66" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z66" s="32"/>
+      <c r="Z66" s="69"/>
     </row>
     <row r="67" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D67" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C23)</f>
+      <c r="D67" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="52"/>
-      <c r="G67" s="52"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="52"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K23)</f>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>CSV出力</v>
       </c>
-      <c r="L67" s="55"/>
-      <c r="M67" s="55"/>
-      <c r="N67" s="55"/>
-      <c r="O67" s="55"/>
-      <c r="P67" s="55"/>
-      <c r="Q67" s="55"/>
-      <c r="R67" s="55"/>
-      <c r="S67" s="55"/>
-      <c r="T67" s="55"/>
-      <c r="U67" s="56"/>
+      <c r="L67" s="44"/>
+      <c r="M67" s="44"/>
+      <c r="N67" s="44"/>
+      <c r="O67" s="44"/>
+      <c r="P67" s="44"/>
+      <c r="Q67" s="44"/>
+      <c r="R67" s="44"/>
+      <c r="S67" s="44"/>
+      <c r="T67" s="44"/>
+      <c r="U67" s="45"/>
       <c r="V67" s="30" t="s">
         <v>15</v>
       </c>
@@ -20212,33 +20213,33 @@
       <c r="Y67" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z67" s="32"/>
+      <c r="Z67" s="69"/>
     </row>
     <row r="68" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D68" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C24)</f>
+      <c r="D68" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K24)</f>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>変更・削除</v>
       </c>
-      <c r="L68" s="55"/>
-      <c r="M68" s="55"/>
-      <c r="N68" s="55"/>
-      <c r="O68" s="55"/>
-      <c r="P68" s="55"/>
-      <c r="Q68" s="55"/>
-      <c r="R68" s="55"/>
-      <c r="S68" s="55"/>
-      <c r="T68" s="55"/>
-      <c r="U68" s="56"/>
+      <c r="L68" s="44"/>
+      <c r="M68" s="44"/>
+      <c r="N68" s="44"/>
+      <c r="O68" s="44"/>
+      <c r="P68" s="44"/>
+      <c r="Q68" s="44"/>
+      <c r="R68" s="44"/>
+      <c r="S68" s="44"/>
+      <c r="T68" s="44"/>
+      <c r="U68" s="45"/>
       <c r="V68" s="30" t="s">
         <v>15</v>
       </c>
@@ -20251,33 +20252,33 @@
       <c r="Y68" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z68" s="32"/>
+      <c r="Z68" s="69"/>
     </row>
     <row r="69" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D69" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C25)</f>
+      <c r="D69" s="40" t="str">
+        <f t="shared" si="0"/>
         <v>注文管理画面</v>
       </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="52"/>
-      <c r="G69" s="52"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="52"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K25)</f>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>検索</v>
       </c>
-      <c r="L69" s="55"/>
-      <c r="M69" s="55"/>
-      <c r="N69" s="55"/>
-      <c r="O69" s="55"/>
-      <c r="P69" s="55"/>
-      <c r="Q69" s="55"/>
-      <c r="R69" s="55"/>
-      <c r="S69" s="55"/>
-      <c r="T69" s="55"/>
-      <c r="U69" s="56"/>
+      <c r="L69" s="44"/>
+      <c r="M69" s="44"/>
+      <c r="N69" s="44"/>
+      <c r="O69" s="44"/>
+      <c r="P69" s="44"/>
+      <c r="Q69" s="44"/>
+      <c r="R69" s="44"/>
+      <c r="S69" s="44"/>
+      <c r="T69" s="44"/>
+      <c r="U69" s="45"/>
       <c r="V69" s="30" t="s">
         <v>15</v>
       </c>
@@ -20290,33 +20291,33 @@
       <c r="Y69" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Z69" s="32"/>
+      <c r="Z69" s="69"/>
     </row>
     <row r="70" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D70" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C26)</f>
+      <c r="D70" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K26)</f>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>詳細</v>
       </c>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="55"/>
-      <c r="S70" s="55"/>
-      <c r="T70" s="55"/>
-      <c r="U70" s="56"/>
+      <c r="L70" s="44"/>
+      <c r="M70" s="44"/>
+      <c r="N70" s="44"/>
+      <c r="O70" s="44"/>
+      <c r="P70" s="44"/>
+      <c r="Q70" s="44"/>
+      <c r="R70" s="44"/>
+      <c r="S70" s="44"/>
+      <c r="T70" s="44"/>
+      <c r="U70" s="45"/>
       <c r="V70" s="30" t="s">
         <v>15</v>
       </c>
@@ -20329,33 +20330,33 @@
       <c r="Y70" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z70" s="32"/>
+      <c r="Z70" s="69"/>
     </row>
     <row r="71" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D71" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C27)</f>
+      <c r="D71" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E71" s="52"/>
-      <c r="F71" s="52"/>
-      <c r="G71" s="52"/>
-      <c r="H71" s="52"/>
-      <c r="I71" s="52"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K27)</f>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="43" t="str">
+        <f t="shared" si="1"/>
         <v>CSV出力</v>
       </c>
-      <c r="L71" s="55"/>
-      <c r="M71" s="55"/>
-      <c r="N71" s="55"/>
-      <c r="O71" s="55"/>
-      <c r="P71" s="55"/>
-      <c r="Q71" s="55"/>
-      <c r="R71" s="55"/>
-      <c r="S71" s="55"/>
-      <c r="T71" s="55"/>
-      <c r="U71" s="56"/>
+      <c r="L71" s="44"/>
+      <c r="M71" s="44"/>
+      <c r="N71" s="44"/>
+      <c r="O71" s="44"/>
+      <c r="P71" s="44"/>
+      <c r="Q71" s="44"/>
+      <c r="R71" s="44"/>
+      <c r="S71" s="44"/>
+      <c r="T71" s="44"/>
+      <c r="U71" s="45"/>
       <c r="V71" s="30" t="s">
         <v>15</v>
       </c>
@@ -20368,190 +20369,193 @@
       <c r="Y71" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="Z71" s="32"/>
+      <c r="Z71" s="69"/>
     </row>
     <row r="72" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D72" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C28)</f>
+      <c r="D72" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="52"/>
-      <c r="G72" s="52"/>
-      <c r="H72" s="52"/>
-      <c r="I72" s="52"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K28)</f>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="43" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L72" s="55"/>
-      <c r="M72" s="55"/>
-      <c r="N72" s="55"/>
-      <c r="O72" s="55"/>
-      <c r="P72" s="55"/>
-      <c r="Q72" s="55"/>
-      <c r="R72" s="55"/>
-      <c r="S72" s="55"/>
-      <c r="T72" s="55"/>
-      <c r="U72" s="56"/>
+      <c r="L72" s="44"/>
+      <c r="M72" s="44"/>
+      <c r="N72" s="44"/>
+      <c r="O72" s="44"/>
+      <c r="P72" s="44"/>
+      <c r="Q72" s="44"/>
+      <c r="R72" s="44"/>
+      <c r="S72" s="44"/>
+      <c r="T72" s="44"/>
+      <c r="U72" s="45"/>
       <c r="V72" s="30"/>
       <c r="W72" s="30"/>
       <c r="X72" s="30"/>
       <c r="Y72" s="30"/>
-      <c r="Z72" s="32"/>
+      <c r="Z72" s="69"/>
     </row>
     <row r="73" spans="4:26" ht="13.5" customHeight="1">
-      <c r="D73" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C29)</f>
+      <c r="D73" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E73" s="52"/>
-      <c r="F73" s="52"/>
-      <c r="G73" s="52"/>
-      <c r="H73" s="52"/>
-      <c r="I73" s="52"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K29)</f>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="43" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L73" s="55"/>
-      <c r="M73" s="55"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="55"/>
-      <c r="P73" s="55"/>
-      <c r="Q73" s="55"/>
-      <c r="R73" s="55"/>
-      <c r="S73" s="55"/>
-      <c r="T73" s="55"/>
-      <c r="U73" s="56"/>
+      <c r="L73" s="44"/>
+      <c r="M73" s="44"/>
+      <c r="N73" s="44"/>
+      <c r="O73" s="44"/>
+      <c r="P73" s="44"/>
+      <c r="Q73" s="44"/>
+      <c r="R73" s="44"/>
+      <c r="S73" s="44"/>
+      <c r="T73" s="44"/>
+      <c r="U73" s="45"/>
       <c r="V73" s="30"/>
       <c r="W73" s="30"/>
       <c r="X73" s="30"/>
       <c r="Y73" s="30"/>
-      <c r="Z73" s="32"/>
+      <c r="Z73" s="69"/>
     </row>
     <row r="74" spans="4:26">
-      <c r="D74" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C30)</f>
+      <c r="D74" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E74" s="52"/>
-      <c r="F74" s="52"/>
-      <c r="G74" s="52"/>
-      <c r="H74" s="52"/>
-      <c r="I74" s="52"/>
-      <c r="J74" s="53"/>
-      <c r="K74" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K30)</f>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="43" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L74" s="55"/>
-      <c r="M74" s="55"/>
-      <c r="N74" s="55"/>
-      <c r="O74" s="55"/>
-      <c r="P74" s="55"/>
-      <c r="Q74" s="55"/>
-      <c r="R74" s="55"/>
-      <c r="S74" s="55"/>
-      <c r="T74" s="55"/>
-      <c r="U74" s="56"/>
+      <c r="L74" s="44"/>
+      <c r="M74" s="44"/>
+      <c r="N74" s="44"/>
+      <c r="O74" s="44"/>
+      <c r="P74" s="44"/>
+      <c r="Q74" s="44"/>
+      <c r="R74" s="44"/>
+      <c r="S74" s="44"/>
+      <c r="T74" s="44"/>
+      <c r="U74" s="45"/>
       <c r="V74" s="30"/>
       <c r="W74" s="30"/>
       <c r="X74" s="30"/>
       <c r="Y74" s="30"/>
-      <c r="Z74" s="32"/>
+      <c r="Z74" s="69"/>
     </row>
     <row r="75" spans="4:26">
-      <c r="D75" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C31)</f>
+      <c r="D75" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E75" s="52"/>
-      <c r="F75" s="52"/>
-      <c r="G75" s="52"/>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="53"/>
-      <c r="K75" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K31)</f>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="42"/>
+      <c r="K75" s="43" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L75" s="55"/>
-      <c r="M75" s="55"/>
-      <c r="N75" s="55"/>
-      <c r="O75" s="55"/>
-      <c r="P75" s="55"/>
-      <c r="Q75" s="55"/>
-      <c r="R75" s="55"/>
-      <c r="S75" s="55"/>
-      <c r="T75" s="55"/>
-      <c r="U75" s="56"/>
+      <c r="L75" s="44"/>
+      <c r="M75" s="44"/>
+      <c r="N75" s="44"/>
+      <c r="O75" s="44"/>
+      <c r="P75" s="44"/>
+      <c r="Q75" s="44"/>
+      <c r="R75" s="44"/>
+      <c r="S75" s="44"/>
+      <c r="T75" s="44"/>
+      <c r="U75" s="45"/>
       <c r="V75" s="30"/>
       <c r="W75" s="30"/>
       <c r="X75" s="30"/>
       <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
     </row>
     <row r="76" spans="4:26">
-      <c r="D76" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C32)</f>
+      <c r="D76" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E76" s="52"/>
-      <c r="F76" s="52"/>
-      <c r="G76" s="52"/>
-      <c r="H76" s="52"/>
-      <c r="I76" s="52"/>
-      <c r="J76" s="53"/>
-      <c r="K76" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K32)</f>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="42"/>
+      <c r="K76" s="43" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L76" s="55"/>
-      <c r="M76" s="55"/>
-      <c r="N76" s="55"/>
-      <c r="O76" s="55"/>
-      <c r="P76" s="55"/>
-      <c r="Q76" s="55"/>
-      <c r="R76" s="55"/>
-      <c r="S76" s="55"/>
-      <c r="T76" s="55"/>
-      <c r="U76" s="56"/>
+      <c r="L76" s="44"/>
+      <c r="M76" s="44"/>
+      <c r="N76" s="44"/>
+      <c r="O76" s="44"/>
+      <c r="P76" s="44"/>
+      <c r="Q76" s="44"/>
+      <c r="R76" s="44"/>
+      <c r="S76" s="44"/>
+      <c r="T76" s="44"/>
+      <c r="U76" s="45"/>
       <c r="V76" s="30"/>
       <c r="W76" s="30"/>
       <c r="X76" s="30"/>
       <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
     </row>
     <row r="77" spans="4:26">
-      <c r="D77" s="51" t="str">
-        <f xml:space="preserve"> TRIM($C33)</f>
+      <c r="D77" s="40" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E77" s="52"/>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-      <c r="I77" s="52"/>
-      <c r="J77" s="53"/>
-      <c r="K77" s="54" t="str">
-        <f xml:space="preserve"> TRIM($K33)</f>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="42"/>
+      <c r="K77" s="43" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L77" s="55"/>
-      <c r="M77" s="55"/>
-      <c r="N77" s="55"/>
-      <c r="O77" s="55"/>
-      <c r="P77" s="55"/>
-      <c r="Q77" s="55"/>
-      <c r="R77" s="55"/>
-      <c r="S77" s="55"/>
-      <c r="T77" s="55"/>
-      <c r="U77" s="56"/>
+      <c r="L77" s="44"/>
+      <c r="M77" s="44"/>
+      <c r="N77" s="44"/>
+      <c r="O77" s="44"/>
+      <c r="P77" s="44"/>
+      <c r="Q77" s="44"/>
+      <c r="R77" s="44"/>
+      <c r="S77" s="44"/>
+      <c r="T77" s="44"/>
+      <c r="U77" s="45"/>
       <c r="V77" s="30"/>
       <c r="W77" s="30"/>
       <c r="X77" s="30"/>
       <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
     </row>
     <row r="1048561" ht="12.75" customHeight="1"/>
     <row r="1048562" ht="12.75" customHeight="1"/>
@@ -20567,6 +20571,304 @@
     <row r="1048572" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="322">
+    <mergeCell ref="W35:X35"/>
+    <mergeCell ref="Y35:AA35"/>
+    <mergeCell ref="AB35:BF35"/>
+    <mergeCell ref="C36:J36"/>
+    <mergeCell ref="K36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:AA36"/>
+    <mergeCell ref="AB36:BF36"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:AA33"/>
+    <mergeCell ref="AB33:BF33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:AA34"/>
+    <mergeCell ref="AB34:BF34"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="K29:R29"/>
+    <mergeCell ref="S29:T29"/>
+    <mergeCell ref="U29:V29"/>
+    <mergeCell ref="W29:X29"/>
+    <mergeCell ref="Y29:AA29"/>
+    <mergeCell ref="AB29:BF29"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="K30:R30"/>
+    <mergeCell ref="S30:T30"/>
+    <mergeCell ref="U30:V30"/>
+    <mergeCell ref="W30:X30"/>
+    <mergeCell ref="Y30:AA30"/>
+    <mergeCell ref="AB30:BF30"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="S27:T27"/>
+    <mergeCell ref="U27:V27"/>
+    <mergeCell ref="W27:X27"/>
+    <mergeCell ref="Y27:AA27"/>
+    <mergeCell ref="AB27:BF27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="S28:T28"/>
+    <mergeCell ref="U28:V28"/>
+    <mergeCell ref="W28:X28"/>
+    <mergeCell ref="Y28:AA28"/>
+    <mergeCell ref="AB28:BF28"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="K25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:AA25"/>
+    <mergeCell ref="AB25:BF25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="K26:R26"/>
+    <mergeCell ref="S26:T26"/>
+    <mergeCell ref="U26:V26"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="Y26:AA26"/>
+    <mergeCell ref="AB26:BF26"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="K23:R23"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="Y23:AA23"/>
+    <mergeCell ref="AB23:BF23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="K24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:AA24"/>
+    <mergeCell ref="AB24:BF24"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="K21:R21"/>
+    <mergeCell ref="S21:T21"/>
+    <mergeCell ref="U21:V21"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="Y21:AA21"/>
+    <mergeCell ref="AB21:BF21"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="K22:R22"/>
+    <mergeCell ref="S22:T22"/>
+    <mergeCell ref="U22:V22"/>
+    <mergeCell ref="W22:X22"/>
+    <mergeCell ref="Y22:AA22"/>
+    <mergeCell ref="AB22:BF22"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="K19:R19"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="U19:V19"/>
+    <mergeCell ref="W19:X19"/>
+    <mergeCell ref="Y19:AA19"/>
+    <mergeCell ref="AB19:BF19"/>
+    <mergeCell ref="C20:J20"/>
+    <mergeCell ref="K20:R20"/>
+    <mergeCell ref="S20:T20"/>
+    <mergeCell ref="U20:V20"/>
+    <mergeCell ref="W20:X20"/>
+    <mergeCell ref="Y20:AA20"/>
+    <mergeCell ref="AB20:BF20"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="K17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="W17:X17"/>
+    <mergeCell ref="Y17:AA17"/>
+    <mergeCell ref="AB17:BF17"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="K18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="AB18:BF18"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="K15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="W15:X15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:BF15"/>
+    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="W16:X16"/>
+    <mergeCell ref="Y16:AA16"/>
+    <mergeCell ref="AB16:BF16"/>
+    <mergeCell ref="C13:J13"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="Y13:AA13"/>
+    <mergeCell ref="AB13:BF13"/>
+    <mergeCell ref="C14:J14"/>
+    <mergeCell ref="K14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="W14:X14"/>
+    <mergeCell ref="Y14:AA14"/>
+    <mergeCell ref="AB14:BF14"/>
+    <mergeCell ref="C11:J11"/>
+    <mergeCell ref="K11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="Y11:AA11"/>
+    <mergeCell ref="AB11:BF11"/>
+    <mergeCell ref="C12:J12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="Y12:AA12"/>
+    <mergeCell ref="AB12:BF12"/>
+    <mergeCell ref="C9:J9"/>
+    <mergeCell ref="K9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="Y9:AA9"/>
+    <mergeCell ref="AB9:BF9"/>
+    <mergeCell ref="C10:J10"/>
+    <mergeCell ref="K10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="Y10:AA10"/>
+    <mergeCell ref="AB10:BF10"/>
+    <mergeCell ref="C7:J7"/>
+    <mergeCell ref="K7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:BF7"/>
+    <mergeCell ref="C8:J8"/>
+    <mergeCell ref="K8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:AA8"/>
+    <mergeCell ref="AB8:BF8"/>
+    <mergeCell ref="C2:M3"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="K5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="Y5:AA5"/>
+    <mergeCell ref="AB5:BF5"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="K6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="Y6:AA6"/>
+    <mergeCell ref="AB6:BF6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="K31:R31"/>
+    <mergeCell ref="S31:T31"/>
+    <mergeCell ref="U31:V31"/>
+    <mergeCell ref="W31:X31"/>
+    <mergeCell ref="Y31:AA31"/>
+    <mergeCell ref="AB31:BF31"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="K32:R32"/>
+    <mergeCell ref="S32:T32"/>
+    <mergeCell ref="U32:V32"/>
+    <mergeCell ref="W32:X32"/>
+    <mergeCell ref="Y32:AA32"/>
+    <mergeCell ref="AB32:BF32"/>
+    <mergeCell ref="D68:J68"/>
+    <mergeCell ref="K68:U68"/>
+    <mergeCell ref="D69:J69"/>
+    <mergeCell ref="K69:U69"/>
+    <mergeCell ref="D70:J70"/>
+    <mergeCell ref="K70:U70"/>
+    <mergeCell ref="D71:J71"/>
+    <mergeCell ref="K71:U71"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="C35:J35"/>
+    <mergeCell ref="K35:R35"/>
+    <mergeCell ref="S35:T35"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V42:V49"/>
+    <mergeCell ref="W42:W49"/>
+    <mergeCell ref="X42:X49"/>
+    <mergeCell ref="Y42:Y49"/>
+    <mergeCell ref="K65:U65"/>
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="K66:U66"/>
+    <mergeCell ref="D67:J67"/>
+    <mergeCell ref="K67:U67"/>
+    <mergeCell ref="Z42:Z49"/>
+    <mergeCell ref="D72:J72"/>
+    <mergeCell ref="K72:U72"/>
+    <mergeCell ref="D73:J73"/>
+    <mergeCell ref="K73:U73"/>
+    <mergeCell ref="D42:U48"/>
+    <mergeCell ref="D49:J49"/>
+    <mergeCell ref="K49:U49"/>
+    <mergeCell ref="D50:J50"/>
+    <mergeCell ref="K50:U50"/>
+    <mergeCell ref="D51:J51"/>
+    <mergeCell ref="K51:U51"/>
+    <mergeCell ref="D52:J52"/>
+    <mergeCell ref="K52:U52"/>
+    <mergeCell ref="D53:J53"/>
+    <mergeCell ref="K53:U53"/>
+    <mergeCell ref="D54:J54"/>
+    <mergeCell ref="K54:U54"/>
+    <mergeCell ref="D55:J55"/>
+    <mergeCell ref="K55:U55"/>
+    <mergeCell ref="D56:J56"/>
+    <mergeCell ref="K56:U56"/>
+    <mergeCell ref="D57:J57"/>
+    <mergeCell ref="K57:U57"/>
     <mergeCell ref="D39:O40"/>
     <mergeCell ref="D74:J74"/>
     <mergeCell ref="K74:U74"/>
@@ -20591,304 +20893,6 @@
     <mergeCell ref="D64:J64"/>
     <mergeCell ref="K64:U64"/>
     <mergeCell ref="D65:J65"/>
-    <mergeCell ref="Z42:Z49"/>
-    <mergeCell ref="D72:J72"/>
-    <mergeCell ref="K72:U72"/>
-    <mergeCell ref="D73:J73"/>
-    <mergeCell ref="K73:U73"/>
-    <mergeCell ref="D42:U48"/>
-    <mergeCell ref="D49:J49"/>
-    <mergeCell ref="K49:U49"/>
-    <mergeCell ref="D50:J50"/>
-    <mergeCell ref="K50:U50"/>
-    <mergeCell ref="D51:J51"/>
-    <mergeCell ref="K51:U51"/>
-    <mergeCell ref="D52:J52"/>
-    <mergeCell ref="K52:U52"/>
-    <mergeCell ref="D53:J53"/>
-    <mergeCell ref="K53:U53"/>
-    <mergeCell ref="D54:J54"/>
-    <mergeCell ref="K54:U54"/>
-    <mergeCell ref="D55:J55"/>
-    <mergeCell ref="K55:U55"/>
-    <mergeCell ref="D56:J56"/>
-    <mergeCell ref="K56:U56"/>
-    <mergeCell ref="D57:J57"/>
-    <mergeCell ref="K57:U57"/>
-    <mergeCell ref="V42:V49"/>
-    <mergeCell ref="W42:W49"/>
-    <mergeCell ref="X42:X49"/>
-    <mergeCell ref="Y42:Y49"/>
-    <mergeCell ref="K65:U65"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="K66:U66"/>
-    <mergeCell ref="D67:J67"/>
-    <mergeCell ref="K67:U67"/>
-    <mergeCell ref="D68:J68"/>
-    <mergeCell ref="K68:U68"/>
-    <mergeCell ref="D69:J69"/>
-    <mergeCell ref="K69:U69"/>
-    <mergeCell ref="D70:J70"/>
-    <mergeCell ref="K70:U70"/>
-    <mergeCell ref="D71:J71"/>
-    <mergeCell ref="K71:U71"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C31:J31"/>
-    <mergeCell ref="K31:R31"/>
-    <mergeCell ref="S31:T31"/>
-    <mergeCell ref="U31:V31"/>
-    <mergeCell ref="W31:X31"/>
-    <mergeCell ref="Y31:AA31"/>
-    <mergeCell ref="AB31:BF31"/>
-    <mergeCell ref="C32:J32"/>
-    <mergeCell ref="K32:R32"/>
-    <mergeCell ref="S32:T32"/>
-    <mergeCell ref="U32:V32"/>
-    <mergeCell ref="W32:X32"/>
-    <mergeCell ref="Y32:AA32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C2:M3"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="K5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="Y5:AA5"/>
-    <mergeCell ref="AB5:BF5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="K6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:AA6"/>
-    <mergeCell ref="AB6:BF6"/>
-    <mergeCell ref="C7:J7"/>
-    <mergeCell ref="K7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="W7:X7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:BF7"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:AA8"/>
-    <mergeCell ref="AB8:BF8"/>
-    <mergeCell ref="C9:J9"/>
-    <mergeCell ref="K9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="Y9:AA9"/>
-    <mergeCell ref="AB9:BF9"/>
-    <mergeCell ref="C10:J10"/>
-    <mergeCell ref="K10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="Y10:AA10"/>
-    <mergeCell ref="AB10:BF10"/>
-    <mergeCell ref="C11:J11"/>
-    <mergeCell ref="K11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="W11:X11"/>
-    <mergeCell ref="Y11:AA11"/>
-    <mergeCell ref="AB11:BF11"/>
-    <mergeCell ref="C12:J12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="Y12:AA12"/>
-    <mergeCell ref="AB12:BF12"/>
-    <mergeCell ref="C13:J13"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="W13:X13"/>
-    <mergeCell ref="Y13:AA13"/>
-    <mergeCell ref="AB13:BF13"/>
-    <mergeCell ref="C14:J14"/>
-    <mergeCell ref="K14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="W14:X14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AB14:BF14"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="K15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="W15:X15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:BF15"/>
-    <mergeCell ref="C16:J16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="W16:X16"/>
-    <mergeCell ref="Y16:AA16"/>
-    <mergeCell ref="AB16:BF16"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="K17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="W17:X17"/>
-    <mergeCell ref="Y17:AA17"/>
-    <mergeCell ref="AB17:BF17"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="K18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="Y18:AA18"/>
-    <mergeCell ref="AB18:BF18"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="K19:R19"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="W19:X19"/>
-    <mergeCell ref="Y19:AA19"/>
-    <mergeCell ref="AB19:BF19"/>
-    <mergeCell ref="C20:J20"/>
-    <mergeCell ref="K20:R20"/>
-    <mergeCell ref="S20:T20"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="W20:X20"/>
-    <mergeCell ref="Y20:AA20"/>
-    <mergeCell ref="AB20:BF20"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="K21:R21"/>
-    <mergeCell ref="S21:T21"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="Y21:AA21"/>
-    <mergeCell ref="AB21:BF21"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="K22:R22"/>
-    <mergeCell ref="S22:T22"/>
-    <mergeCell ref="U22:V22"/>
-    <mergeCell ref="W22:X22"/>
-    <mergeCell ref="Y22:AA22"/>
-    <mergeCell ref="AB22:BF22"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="K23:R23"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="Y23:AA23"/>
-    <mergeCell ref="AB23:BF23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="K24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:AA24"/>
-    <mergeCell ref="AB24:BF24"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="K25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:AA25"/>
-    <mergeCell ref="AB25:BF25"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="K26:R26"/>
-    <mergeCell ref="S26:T26"/>
-    <mergeCell ref="U26:V26"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="Y26:AA26"/>
-    <mergeCell ref="AB26:BF26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="S27:T27"/>
-    <mergeCell ref="U27:V27"/>
-    <mergeCell ref="W27:X27"/>
-    <mergeCell ref="Y27:AA27"/>
-    <mergeCell ref="AB27:BF27"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="S28:T28"/>
-    <mergeCell ref="U28:V28"/>
-    <mergeCell ref="W28:X28"/>
-    <mergeCell ref="Y28:AA28"/>
-    <mergeCell ref="AB28:BF28"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="K29:R29"/>
-    <mergeCell ref="S29:T29"/>
-    <mergeCell ref="U29:V29"/>
-    <mergeCell ref="W29:X29"/>
-    <mergeCell ref="Y29:AA29"/>
-    <mergeCell ref="AB29:BF29"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="K30:R30"/>
-    <mergeCell ref="S30:T30"/>
-    <mergeCell ref="U30:V30"/>
-    <mergeCell ref="W30:X30"/>
-    <mergeCell ref="Y30:AA30"/>
-    <mergeCell ref="AB30:BF30"/>
-    <mergeCell ref="AB32:BF32"/>
-    <mergeCell ref="C33:J33"/>
-    <mergeCell ref="K33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:AA33"/>
-    <mergeCell ref="AB33:BF33"/>
-    <mergeCell ref="C34:J34"/>
-    <mergeCell ref="K34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:AA34"/>
-    <mergeCell ref="AB34:BF34"/>
-    <mergeCell ref="C35:J35"/>
-    <mergeCell ref="K35:R35"/>
-    <mergeCell ref="S35:T35"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="W35:X35"/>
-    <mergeCell ref="Y35:AA35"/>
-    <mergeCell ref="AB35:BF35"/>
-    <mergeCell ref="C36:J36"/>
-    <mergeCell ref="K36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:AA36"/>
-    <mergeCell ref="AB36:BF36"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="2">
@@ -20911,35 +20915,35 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="2" spans="2:12" ht="14.1" customHeight="1">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="66"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="2:12" ht="14.1" customHeight="1">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="66"/>
+      <c r="K3" s="66"/>
+      <c r="L3" s="66"/>
     </row>
     <row r="1048576" ht="12.75" customHeight="1"/>
   </sheetData>
@@ -20959,7 +20963,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" t="s">
@@ -20982,17 +20986,17 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="4.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col min="2" max="2" width="26.125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="34.5" style="18" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="18" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="13.9" customHeight="1">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="2:3" ht="13.95" customHeight="1">
+      <c r="B1" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="70"/>
+      <c r="C1" s="67"/>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="18" t="s">
@@ -21031,7 +21035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="18.75">
+    <row r="7" spans="2:3" ht="18">
       <c r="B7" s="21" t="s">
         <v>54</v>
       </c>
@@ -21055,7 +21059,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="27">
+    <row r="11" spans="2:3" ht="26.4">
       <c r="B11" s="20" t="s">
         <v>60</v>
       </c>
